--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -911,7 +911,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02CsSaAs7D6Fx61bfZQv157Fdi8Ubnf8vCuvHmUrPUyqUnz8ZCXwsP5utcLWd7NLg6l?comment_id=24309728148677132', 'id': 'Y29tbWVudDoxMTkyNzM3Nzc5NTY1MTI2XzI0MzA5NzI4MTQ4Njc3MTMy', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzc3OTU2NTEyNl8yNDMwOTcyODE0ODY3NzEzMg==', 'date': '2025-08-21T23:10:16.000Z', 'text': 'Los productos de colanta son más nutritivos y con mejor precio', 'profileUrl': 'https://www.facebook.com/marisolmorafonseca', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/538497095_10239313150194934_8281293340785671860_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CdLHzkLpYb8Q7kNvwF90Jw1&amp;_nc_oc=AdkxcoejiALJcy9bIqRJlQgKAgEVQ7nk927Jf5dt5BrcLShfm3iEHWAta_9rlrRYA5E&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=3H_Wzd5k7SMDJ5PDalFoQQ&amp;oh=00_AfbajE_imaOhFNlmzLashSaqgqVQxFZHrbfQCN_s5Syxyw&amp;oe=68DBD87C', 'profileId': 'pfbid023fQRh46PCncQkQQt72xeoMCfeDxiLVTjp8FmtzMW597umsvVJgySJmkyvyK7CFJSl', 'profileName': 'Marisol Mora Fonseca', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1192737779565126', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/'}</t>
+          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02CsSaAs7D6Fx61bfZQv157Fdi8Ubnf8vCuvHmUrPUyqUnz8ZCXwsP5utcLWd7NLg6l?comment_id=24309728148677132', 'id': 'Y29tbWVudDoxMTkyNzM3Nzc5NTY1MTI2XzI0MzA5NzI4MTQ4Njc3MTMy', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzc3OTU2NTEyNl8yNDMwOTcyODE0ODY3NzEzMg==', 'date': '2025-08-21T23:10:16.000Z', 'text': 'Los productos de colanta son más nutritivos y con mejor precio', 'profileUrl': 'https://www.facebook.com/marisolmorafonseca', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/538497095_10239313150194934_8281293340785671860_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CdLHzkLpYb8Q7kNvwG_jehm&amp;_nc_oc=Adn5nMsP8TGejwHyFhcKK5nGQiQ6Z_AGwMlOPzU9BNFocNhmkm2Rk6N544jRSWwKX7g&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=D9OQZGuyR8w52XBQFVjjvA&amp;oh=00_AfbId3uyNKqZ1Xe0B8WBkeHDkxbfIr5dXGMzNNTlghvVZQ&amp;oe=68DBD87C', 'profileId': 'pfbid023fQRh46PCncQkQQt72xeoMCfeDxiLVTjp8FmtzMW597umsvVJgySJmkyvyK7CFJSl', 'profileName': 'Marisol Mora Fonseca', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1192737779565126', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/'}</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02CsSaAs7D6Fx61bfZQv157Fdi8Ubnf8vCuvHmUrPUyqUnz8ZCXwsP5utcLWd7NLg6l?comment_id=1923597351517756', 'id': 'Y29tbWVudDoxMTkyNzM3Nzc5NTY1MTI2XzE5MjM1OTczNTE1MTc3NTY=', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzc3OTU2NTEyNl8xOTIzNTk3MzUxNTE3NzU2', 'date': '2025-08-25T03:45:51.000Z', 'text': 'Super nutrición', 'profileUrl': 'https://www.facebook.com/mateo.martinezmunoz.9', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/310983540_2177433799096018_3698497275156046093_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=kyJ8r8WBlgMQ7kNvwHrNZHb&amp;_nc_oc=AdknTgywkJRvZMeOMBQtPJqc97K7k9AYIBTmTBYllxHsa5n6mQUIv45mzuWn3orUwCw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=3H_Wzd5k7SMDJ5PDalFoQQ&amp;oh=00_AfYO7E6dO57baoy_FnMBSsjJn7VI1LYZsSuvM4OEmOheMQ&amp;oe=68DBE343', 'profileId': '100004882572380', 'profileName': 'BM Nicolas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1192737779565126', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/'}</t>
+          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02CsSaAs7D6Fx61bfZQv157Fdi8Ubnf8vCuvHmUrPUyqUnz8ZCXwsP5utcLWd7NLg6l?comment_id=1923597351517756', 'id': 'Y29tbWVudDoxMTkyNzM3Nzc5NTY1MTI2XzE5MjM1OTczNTE1MTc3NTY=', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzc3OTU2NTEyNl8xOTIzNTk3MzUxNTE3NzU2', 'date': '2025-08-25T03:45:51.000Z', 'text': 'Super nutrición', 'profileUrl': 'https://www.facebook.com/mateo.martinezmunoz.9', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/310983540_2177433799096018_3698497275156046093_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=kyJ8r8WBlgMQ7kNvwH6oP3T&amp;_nc_oc=AdlOthUwXqgkvjZ--RYPQ5hb3F4btbtGk9hpo6oCHGnb72JSTTipj4rleJEc_rNzTRU&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=D9OQZGuyR8w52XBQFVjjvA&amp;oh=00_AfYHp1sikmIBiL0nxmWGji85czB8gw3zY_OmfZ7U2smrBQ&amp;oe=68DBE343', 'profileId': '100004882572380', 'profileName': 'BM Nicolas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1192737779565126', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/'}</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02CsSaAs7D6Fx61bfZQv157Fdi8Ubnf8vCuvHmUrPUyqUnz8ZCXwsP5utcLWd7NLg6l?comment_id=1694247384596550', 'id': 'Y29tbWVudDoxMTkyNzM3Nzc5NTY1MTI2XzE2OTQyNDczODQ1OTY1NTA=', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzc3OTU2NTEyNl8xNjk0MjQ3Mzg0NTk2NTUw', 'date': '2025-08-23T00:49:30.000Z', 'text': 'Puro dulce', 'profileUrl': 'https://www.facebook.com/yesicaocampo1996', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/536273056_24963686689882021_2910155909434523054_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=fYWk_Vb01BcQ7kNvwGDJcvu&amp;_nc_oc=AdkH4p4oEpOF8_atL2bFcsboHolH4leYnanicjU0F-Za-Jc08mIG1XRRaZwLtUltebU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=3H_Wzd5k7SMDJ5PDalFoQQ&amp;oh=00_AfaL9Y3-3hxAoZTgS5SWte7UPdLevpEdNSLc5grSeqfCYg&amp;oe=68DBD5D0', 'profileId': '100000021046184', 'profileName': 'María Yesica', 'likesCount': '10', 'threadingDepth': 0, 'facebookId': '1192737779565126', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/'}</t>
+          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02CsSaAs7D6Fx61bfZQv157Fdi8Ubnf8vCuvHmUrPUyqUnz8ZCXwsP5utcLWd7NLg6l?comment_id=1694247384596550', 'id': 'Y29tbWVudDoxMTkyNzM3Nzc5NTY1MTI2XzE2OTQyNDczODQ1OTY1NTA=', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzc3OTU2NTEyNl8xNjk0MjQ3Mzg0NTk2NTUw', 'date': '2025-08-23T00:49:30.000Z', 'text': 'Puro dulce', 'profileUrl': 'https://www.facebook.com/yesicaocampo1996', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/536273056_24963686689882021_2910155909434523054_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=fYWk_Vb01BcQ7kNvwHq4EPD&amp;_nc_oc=AdlB8XxyDSCLtIUGiC5jXlFewgY6abneRwo3Hx12fcDCIitNjM8gVVaI9EZR04shCy8&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=D9OQZGuyR8w52XBQFVjjvA&amp;oh=00_AfaeC6hIjDjP9AxO-YY51XAD_VSjO48J3JqYpBSxQdFWMg&amp;oe=68DBD5D0', 'profileId': '100000021046184', 'profileName': 'María Yesica', 'likesCount': '10', 'threadingDepth': 0, 'facebookId': '1192737779565126', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/'}</t>
         </is>
       </c>
     </row>
@@ -1073,7 +1073,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02CsSaAs7D6Fx61bfZQv157Fdi8Ubnf8vCuvHmUrPUyqUnz8ZCXwsP5utcLWd7NLg6l?comment_id=2540488709667615', 'id': 'Y29tbWVudDoxMTkyNzM3Nzc5NTY1MTI2XzI1NDA0ODg3MDk2Njc2MTU=', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzc3OTU2NTEyNl8yNTQwNDg4NzA5NjY3NjE1', 'date': '2025-08-22T12:10:00.000Z', 'text': 'Nutrición', 'profileUrl': 'https://www.facebook.com/pipe.villa.33', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/365200568_1371805803716582_8709261826318574159_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=eZAj76L_XvMQ7kNvwGyaahi&amp;_nc_oc=AdmnEgrg47n6JXwhc76qUQvlizjKkixjQFu-6sf0Td95V2H6pv4T8rTUmz4yQ9On4FA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=3H_Wzd5k7SMDJ5PDalFoQQ&amp;oh=00_AfbMUwhG-mXu7mjGvop7CDd73elUo1BXo6EC0jlpzLC8AQ&amp;oe=68DBCC98', 'profileId': '100026615271211', 'profileName': 'Felipe Villanueva Art', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1192737779565126', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/'}</t>
+          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02CsSaAs7D6Fx61bfZQv157Fdi8Ubnf8vCuvHmUrPUyqUnz8ZCXwsP5utcLWd7NLg6l?comment_id=2540488709667615', 'id': 'Y29tbWVudDoxMTkyNzM3Nzc5NTY1MTI2XzI1NDA0ODg3MDk2Njc2MTU=', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzc3OTU2NTEyNl8yNTQwNDg4NzA5NjY3NjE1', 'date': '2025-08-22T12:10:00.000Z', 'text': 'Nutrición', 'profileUrl': 'https://www.facebook.com/pipe.villa.33', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-1/365200568_1371805803716582_8709261826318574159_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=eZAj76L_XvMQ7kNvwEmS8FI&amp;_nc_oc=AdnJp-mw-Dm4MPD2MDgKxN-3wZm6OnOPAarkaVKPBEyqsQM9wmDC1SOx9RJxzpvyFm4&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=D9OQZGuyR8w52XBQFVjjvA&amp;oh=00_AfY5yUx0PU-36LED-xp39uxmVNzUPmx_gTcxipr7N3lfng&amp;oe=68DBCC98', 'profileId': '100026615271211', 'profileName': 'Felipe Villanueva Art', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1192737779565126', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/'}</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02CsSaAs7D6Fx61bfZQv157Fdi8Ubnf8vCuvHmUrPUyqUnz8ZCXwsP5utcLWd7NLg6l?comment_id=1890652818182367', 'id': 'Y29tbWVudDoxMTkyNzM3Nzc5NTY1MTI2XzE4OTA2NTI4MTgxODIzNjc=', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzc3OTU2NTEyNl8xODkwNjUyODE4MTgyMzY3', 'date': '2025-08-28T12:34:58.000Z', 'text': 'Sabores sintéticos \nAlto contenido de azúcar \nY excelente publicidad', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/508024158_10074588419289287_5288773722620218819_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=hsQYVkE9BfsQ7kNvwHCLKIL&amp;_nc_oc=AdmrTT4yEL2UOFHQn1Hpy6eNnXeQJe-K36PzEE7cO1ouyYZ8ZcmPO_LCrguMpQW4Bto&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=3H_Wzd5k7SMDJ5PDalFoQQ&amp;oh=00_AfYXqLXlPkrnfSrd-yOewBMOhyYw3RlS13F7xm9dVyngxQ&amp;oe=68DBCB48', 'profileId': 'pfbid02TK5nHKvbgkur24wfS46yhT2evkJNgxVuwZkhKZtkGWTewPQrYYVyojockQA7oEhgl', 'profileName': 'Sauro Rebel', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1192737779565126', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/'}</t>
+          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02CsSaAs7D6Fx61bfZQv157Fdi8Ubnf8vCuvHmUrPUyqUnz8ZCXwsP5utcLWd7NLg6l?comment_id=1890652818182367', 'id': 'Y29tbWVudDoxMTkyNzM3Nzc5NTY1MTI2XzE4OTA2NTI4MTgxODIzNjc=', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzc3OTU2NTEyNl8xODkwNjUyODE4MTgyMzY3', 'date': '2025-08-28T12:34:58.000Z', 'text': 'Sabores sintéticos \nAlto contenido de azúcar \nY excelente publicidad', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/508024158_10074588419289287_5288773722620218819_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=hsQYVkE9BfsQ7kNvwFzhvDz&amp;_nc_oc=AdkJvxmkFmVLHJDL6Ig03yLzoK2zAR9KIdrTTGMIU_FcouuaAxJ2PHMX9VuOElww8kc&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=D9OQZGuyR8w52XBQFVjjvA&amp;oh=00_Afbybo38N83MQacrNHxTTYSlQJ8cDRLf66yaKbpmtijBoQ&amp;oe=68DBCB48', 'profileId': 'pfbid02TK5nHKvbgkur24wfS46yhT2evkJNgxVuwZkhKZtkGWTewPQrYYVyojockQA7oEhgl', 'profileName': 'Sauro Rebel', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1192737779565126', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/'}</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02CsSaAs7D6Fx61bfZQv157Fdi8Ubnf8vCuvHmUrPUyqUnz8ZCXwsP5utcLWd7NLg6l?comment_id=2322315464890555', 'id': 'Y29tbWVudDoxMTkyNzM3Nzc5NTY1MTI2XzIzMjIzMTU0NjQ4OTA1NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzc3OTU2NTEyNl8yMzIyMzE1NDY0ODkwNTU1', 'date': '2025-08-24T21:43:46.000Z', 'text': 'Ya hoy en día los padres son más conscientes de no dar dulce a los niños, de alimentarlos muy bien', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/405207277_10230540461352529_6242359112825476436_n.jpg?stp=c0.0.598.598a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=81UJTczx5Z0Q7kNvwH-_LXm&amp;_nc_oc=AdnUTezH04qUtlvYYDyal0qXQJePgw6skVznGuH5b_bBd1qlIy435QOdcYxUi_-ct78&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=3H_Wzd5k7SMDJ5PDalFoQQ&amp;oh=00_AfZHhVrMmGBEAwJoYi8rkN92HYB2kDzCqLWQOrEPj-Qshg&amp;oe=68DBC2FE', 'profileId': 'pfbid0229i3s5QFt3SBrJ7Q5FykACKJgpP9SArKXADvLPEqwV3ShqqrPTNLcRWWVw3EnZA3l', 'profileName': 'Tina Alvarez', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1192737779565126', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/'}</t>
+          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02CsSaAs7D6Fx61bfZQv157Fdi8Ubnf8vCuvHmUrPUyqUnz8ZCXwsP5utcLWd7NLg6l?comment_id=2322315464890555', 'id': 'Y29tbWVudDoxMTkyNzM3Nzc5NTY1MTI2XzIzMjIzMTU0NjQ4OTA1NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzc3OTU2NTEyNl8yMzIyMzE1NDY0ODkwNTU1', 'date': '2025-08-24T21:43:46.000Z', 'text': 'Ya hoy en día los padres son más conscientes de no dar dulce a los niños, de alimentarlos muy bien', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-1/405207277_10230540461352529_6242359112825476436_n.jpg?stp=c0.0.598.598a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=81UJTczx5Z0Q7kNvwGFD1p6&amp;_nc_oc=AdmE_KVRMDEHWRi1q_D8Q773WZbi0DNzG1vitAKVOFPwOUcS76S-l7LVJz5rHGGyytU&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=D9OQZGuyR8w52XBQFVjjvA&amp;oh=00_AfbNxlchDHU6ijumpi941Lfd9zOa2bF5O5Nx2lG3wZtqxg&amp;oe=68DBC2FE', 'profileId': 'pfbid035XCEV6ksunrj5NLi8gNK4m8duVMeiEx5xNrgd1gU1JjkLuh9oGZ3S7DBhmguUKbDl', 'profileName': 'Tina Alvarez', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1192737779565126', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/'}</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02CsSaAs7D6Fx61bfZQv157Fdi8Ubnf8vCuvHmUrPUyqUnz8ZCXwsP5utcLWd7NLg6l?comment_id=732936806576428', 'id': 'Y29tbWVudDoxMTkyNzM3Nzc5NTY1MTI2XzczMjkzNjgwNjU3NjQyOA==', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzc3OTU2NTEyNl83MzI5MzY4MDY1NzY0Mjg=', 'date': '2025-08-23T00:50:36.000Z', 'text': 'Yo si le empaco son huevitos con arepa y chocolate y agua. Eso sí es nutritivo. Un alpin? Jamás', 'profileUrl': 'https://www.facebook.com/yesicaocampo1996', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/536273056_24963686689882021_2910155909434523054_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=fYWk_Vb01BcQ7kNvwGDJcvu&amp;_nc_oc=AdkH4p4oEpOF8_atL2bFcsboHolH4leYnanicjU0F-Za-Jc08mIG1XRRaZwLtUltebU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=3H_Wzd5k7SMDJ5PDalFoQQ&amp;oh=00_AfaL9Y3-3hxAoZTgS5SWte7UPdLevpEdNSLc5grSeqfCYg&amp;oe=68DBD5D0', 'profileId': '100000021046184', 'profileName': 'María Yesica', 'likesCount': '11', 'threadingDepth': 0, 'facebookId': '1192737779565126', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/'}</t>
+          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02CsSaAs7D6Fx61bfZQv157Fdi8Ubnf8vCuvHmUrPUyqUnz8ZCXwsP5utcLWd7NLg6l?comment_id=732936806576428', 'id': 'Y29tbWVudDoxMTkyNzM3Nzc5NTY1MTI2XzczMjkzNjgwNjU3NjQyOA==', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzc3OTU2NTEyNl83MzI5MzY4MDY1NzY0Mjg=', 'date': '2025-08-23T00:50:36.000Z', 'text': 'Yo si le empaco son huevitos con arepa y chocolate y agua. Eso sí es nutritivo. Un alpin? Jamás', 'profileUrl': 'https://www.facebook.com/yesicaocampo1996', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/536273056_24963686689882021_2910155909434523054_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=fYWk_Vb01BcQ7kNvwHq4EPD&amp;_nc_oc=AdlB8XxyDSCLtIUGiC5jXlFewgY6abneRwo3Hx12fcDCIitNjM8gVVaI9EZR04shCy8&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=D9OQZGuyR8w52XBQFVjjvA&amp;oh=00_AfaeC6hIjDjP9AxO-YY51XAD_VSjO48J3JqYpBSxQdFWMg&amp;oe=68DBD5D0', 'profileId': '100000021046184', 'profileName': 'María Yesica', 'likesCount': '11', 'threadingDepth': 0, 'facebookId': '1192737779565126', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/'}</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02CsSaAs7D6Fx61bfZQv157Fdi8Ubnf8vCuvHmUrPUyqUnz8ZCXwsP5utcLWd7NLg6l?comment_id=1819037205631461', 'id': 'Y29tbWVudDoxMTkyNzM3Nzc5NTY1MTI2XzE4MTkwMzcyMDU2MzE0NjE=', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzc3OTU2NTEyNl8xODE5MDM3MjA1NjMxNDYx', 'date': '2025-08-25T19:17:56.000Z', 'text': '“Nutrición” y con los sellos negros todos los productos, jajajajaja', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/476011240_10160931302920975_4408248871774161751_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=uxyjL_CP-p0Q7kNvwE0zn6P&amp;_nc_oc=AdmP7zKOOCaOnjFc-DHLg478CiYVYU8u_vOW0B9WCFpHYt8pWqQHYq9ZUp2ja8uKclg&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=3H_Wzd5k7SMDJ5PDalFoQQ&amp;oh=00_Afaf_3mI_vh51cEG1XvwarleBsMT0xH7LtFkvBm42mCrGA&amp;oe=68DBC61E', 'profileId': 'pfbid07BC5UTKzyKbtirwAdinV51w95b19GtRdm5d2UefDnZKRv1a5WMQiqSV2DdaXHepJl', 'profileName': 'Alex Waffles N Wonka', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1192737779565126', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/'}</t>
+          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02CsSaAs7D6Fx61bfZQv157Fdi8Ubnf8vCuvHmUrPUyqUnz8ZCXwsP5utcLWd7NLg6l?comment_id=1819037205631461', 'id': 'Y29tbWVudDoxMTkyNzM3Nzc5NTY1MTI2XzE4MTkwMzcyMDU2MzE0NjE=', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzc3OTU2NTEyNl8xODE5MDM3MjA1NjMxNDYx', 'date': '2025-08-25T19:17:56.000Z', 'text': '“Nutrición” y con los sellos negros todos los productos, jajajajaja', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-1/476011240_10160931302920975_4408248871774161751_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=uxyjL_CP-p0Q7kNvwGYzU7z&amp;_nc_oc=AdmhyquhLA9Uq594xE0eSzjUIUk65MwdybjxN7UhZIXFjTXrp0cSdwkWexTdptDYrgk&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=D9OQZGuyR8w52XBQFVjjvA&amp;oh=00_AfZHTwTHEhogTenUkCDWmBWYnlzqdP9Pa_RF-IEKrwXtlQ&amp;oe=68DBC61E', 'profileId': 'pfbid07BC5UTKzyKbtirwAdinV51w95b19GtRdm5d2UefDnZKRv1a5WMQiqSV2DdaXHepJl', 'profileName': 'Alex Waffles N Wonka', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1192737779565126', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/'}</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02CsSaAs7D6Fx61bfZQv157Fdi8Ubnf8vCuvHmUrPUyqUnz8ZCXwsP5utcLWd7NLg6l?comment_id=800598245644432', 'id': 'Y29tbWVudDoxMTkyNzM3Nzc5NTY1MTI2XzgwMDU5ODI0NTY0NDQzMg==', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzc3OTU2NTEyNl84MDA1OTgyNDU2NDQ0MzI=', 'date': '2025-08-26T15:57:09.000Z', 'text': 'Nutrición🤣🤣🤣🤣', 'profileUrl': 'https://www.facebook.com/ingrid.melvis', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/355362840_1663105567528562_5398666768528918160_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=17sF3WUd2PAQ7kNvwENOU5h&amp;_nc_oc=AdnMOvquNxkm552dLqd-5vj2NXHFFjWuZE0Mni3gYErUhgoFYptIGgDjYtR9sFuKYOE&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=3H_Wzd5k7SMDJ5PDalFoQQ&amp;oh=00_AfZwU6SFzZO_oxpyCqFWT5hjbQiqvki7coFar1pSdQJpeA&amp;oe=68DBE899', 'profileId': 'pfbid033v9TTxShG1zupVZch8UVjZSDFWRsBtkruMQwJo4Ny29D621Ct2MCn6eKhdfg7BEMl', 'profileName': 'Isabella Esperanza Melvis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1192737779565126', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/'}</t>
+          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02CsSaAs7D6Fx61bfZQv157Fdi8Ubnf8vCuvHmUrPUyqUnz8ZCXwsP5utcLWd7NLg6l?comment_id=800598245644432', 'id': 'Y29tbWVudDoxMTkyNzM3Nzc5NTY1MTI2XzgwMDU5ODI0NTY0NDQzMg==', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzc3OTU2NTEyNl84MDA1OTgyNDU2NDQ0MzI=', 'date': '2025-08-26T15:57:09.000Z', 'text': 'Nutrición🤣🤣🤣🤣', 'profileUrl': 'https://www.facebook.com/ingrid.melvis', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/355362840_1663105567528562_5398666768528918160_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=17sF3WUd2PAQ7kNvwHPksKl&amp;_nc_oc=Adn7OB545iDJdim1d3sQH6YHGIsBjmaA8Q5BGBeVGMex9GicFXv-KUsNSvd3ZmOCGlM&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=D9OQZGuyR8w52XBQFVjjvA&amp;oh=00_AfY7Ouy3ye1OL2xLBhsw4GokRsDr03WUb8vfLYlAMVnKyg&amp;oe=68DBE899', 'profileId': 'pfbid0ytYjz9F8b3kgdh7DmrULEtUPgrpCyfNFazCPcJzm4iKFqi7yhv453Qiit15Q5uQ4l', 'profileName': 'Isabella Esperanza Melvis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1192737779565126', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/'}</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02CsSaAs7D6Fx61bfZQv157Fdi8Ubnf8vCuvHmUrPUyqUnz8ZCXwsP5utcLWd7NLg6l?comment_id=1544564856698844', 'id': 'Y29tbWVudDoxMTkyNzM3Nzc5NTY1MTI2XzE1NDQ1NjQ4NTY2OTg4NDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzc3OTU2NTEyNl8xNTQ0NTY0ODU2Njk4ODQ0', 'date': '2025-08-22T12:24:42.000Z', 'text': 'A mí me gusta ese alpin de chocolate, pero yo soy consciente, darle eso a un niño, es una bomba de azúcar y a temprana edad? Wtf! Jajajajajaa', 'profileUrl': 'https://www.facebook.com/xavierandres.alzatecastro', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/461340998_3830570483846860_5223555065708227162_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=tJVRyk0xyHsQ7kNvwHCrQvo&amp;_nc_oc=Adkpc-q_shds9744RefUqQJgDb4jXFhlBwphEcW05teKrfDXtJe16-9ufl6kwKWOHww&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=3H_Wzd5k7SMDJ5PDalFoQQ&amp;oh=00_AfZ6bgwjqmJpot8XggHVsAWtNp1j_09MBdNkUnsU27p3Tw&amp;oe=68DBEA02', 'profileId': '100006818378268', 'profileName': 'Xavier Alzate Castro', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1192737779565126', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/'}</t>
+          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02CsSaAs7D6Fx61bfZQv157Fdi8Ubnf8vCuvHmUrPUyqUnz8ZCXwsP5utcLWd7NLg6l?comment_id=1544564856698844', 'id': 'Y29tbWVudDoxMTkyNzM3Nzc5NTY1MTI2XzE1NDQ1NjQ4NTY2OTg4NDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzc3OTU2NTEyNl8xNTQ0NTY0ODU2Njk4ODQ0', 'date': '2025-08-22T12:24:42.000Z', 'text': 'A mí me gusta ese alpin de chocolate, pero yo soy consciente, darle eso a un niño, es una bomba de azúcar y a temprana edad? Wtf! Jajajajajaa', 'profileUrl': 'https://www.facebook.com/xavierandres.alzatecastro', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/461340998_3830570483846860_5223555065708227162_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=tJVRyk0xyHsQ7kNvwFzucP_&amp;_nc_oc=AdlvpzDZwQQJPMHfcznpdE34ER1c5fQQQAvGx6eCjfBzbKIAfgJve2830DQ5kDr8R4Q&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=D9OQZGuyR8w52XBQFVjjvA&amp;oh=00_AfY5nSadNeLJri46mxW9lC6ghgHc6VLaF0AEpxGvdxOBOg&amp;oe=68DBEA02', 'profileId': '100006818378268', 'profileName': 'Xavier Alzate Castro', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1192737779565126', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737226231848/'}</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737426231828/', 'commentUrl': 'https://www.facebook.com/alpina/videos/607896318819620/?comment_id=24794863710097159', 'id': 'Y29tbWVudDoxMTkyNzM3OTAyODk4NDQ3XzI0Nzk0ODYzNzEwMDk3MTU5', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzkwMjg5ODQ0N18yNDc5NDg2MzcxMDA5NzE1OQ==', 'date': '2025-08-24T01:46:38.000Z', 'text': 'Nutritiva?', 'profileUrl': 'https://www.facebook.com/isa.jack0398', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.6435-1/202988720_1894295114073011_4644903452408707294_n.jpg?stp=c3.11.1066.1065a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jgSRt4S-WzcQ7kNvwFUoGv3&amp;_nc_oc=AdlvnaSMXE6stjUip7LOSzUu6hH3ZET_tePSUob_3u2e2eruqDtpmV8DP53S-oYheceAF3OJYEUleyuxI2z5WKyO&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=yowWgFx7PMQmd65zCMUkdg&amp;oh=00_AfafkRs6vQWC095eBLkgg_2qbblU1EoUH5Sw3qxjsi8iHg&amp;oe=68FD588D', 'profileId': 'pfbid02VN84yUE3SwGjQiF7QvZb2evL7qFaT3p5FWTz4i6HnLmQBydZ9VYKiVKK1PypWyxSl', 'profileName': 'Fandiño Jack Isa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1192737902898447', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737426231828/'}</t>
+          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737426231828/', 'commentUrl': 'https://www.facebook.com/alpina/videos/607896318819620/?comment_id=24794863710097159', 'id': 'Y29tbWVudDoxMTkyNzM3OTAyODk4NDQ3XzI0Nzk0ODYzNzEwMDk3MTU5', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzkwMjg5ODQ0N18yNDc5NDg2MzcxMDA5NzE1OQ==', 'date': '2025-08-24T01:46:38.000Z', 'text': 'Nutritiva?', 'profileUrl': 'https://www.facebook.com/isa.jack0398', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t1.6435-1/202988720_1894295114073011_4644903452408707294_n.jpg?stp=c3.11.1066.1065a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jgSRt4S-WzcQ7kNvwHn6WgH&amp;_nc_oc=Adn3-NdridiV87eMnXKPs24c0h9AGXKmlfZeUSScuzS-rn9GJMDOBVVN7GARin1WPk0&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=ZhB9Nm3ERUgZRKmXYUq8gw&amp;oh=00_AfYOKuH4EYt1GcFkKnXS6a3kQ6SUjA1HHZm4_bF1HKUvQQ&amp;oe=68FD90CD', 'profileId': 'pfbid02VN84yUE3SwGjQiF7QvZb2evL7qFaT3p5FWTz4i6HnLmQBydZ9VYKiVKK1PypWyxSl', 'profileName': 'Fandiño Jack Isa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1192737902898447', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737426231828/'}</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737426231828/', 'commentUrl': 'https://www.facebook.com/alpina/videos/607896318819620/?comment_id=1480194389790618', 'id': 'Y29tbWVudDoxMTkyNzM3OTAyODk4NDQ3XzE0ODAxOTQzODk3OTA2MTg=', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzkwMjg5ODQ0N18xNDgwMTk0Mzg5NzkwNjE4', 'date': '2025-08-22T19:52:24.000Z', 'text': 'Que descaro...', 'profileUrl': 'https://www.facebook.com/aleks.beltranpalacios', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/412360338_7024427887605237_4120583084545309081_n.jpg?stp=c0.0.960.960a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oEm7-NjEM_gQ7kNvwGh4mVE&amp;_nc_oc=Adk8teUb2OXTwrjh3a0odomCufTPcW1ReAzSZhRM5RmZJMgD3inLFoqSC7Dc8sXDWCA9MyEgMaxYHCaPc1RjdjqP&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=yowWgFx7PMQmd65zCMUkdg&amp;oh=00_AfarfyP78qo-bFo6VsNgILgkvWeuHAZhIC73gadNawoBFg&amp;oe=68DBE7EF', 'profileId': 'pfbid0qVuampWHwAEgMkB9eGbCkZV3uAU9bg5Gid91cVQ1MFEf9PDGWxajHrqyZnHj1fsFl', 'profileName': 'Aleks Beltran Palacios', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1192737902898447', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737426231828/'}</t>
+          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737426231828/', 'commentUrl': 'https://www.facebook.com/alpina/videos/607896318819620/?comment_id=1480194389790618', 'id': 'Y29tbWVudDoxMTkyNzM3OTAyODk4NDQ3XzE0ODAxOTQzODk3OTA2MTg=', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzkwMjg5ODQ0N18xNDgwMTk0Mzg5NzkwNjE4', 'date': '2025-08-22T19:52:24.000Z', 'text': 'Que descaro...', 'profileUrl': 'https://www.facebook.com/aleks.beltranpalacios', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/412360338_7024427887605237_4120583084545309081_n.jpg?stp=c0.0.960.960a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oEm7-NjEM_gQ7kNvwGH-fSP&amp;_nc_oc=AdlGNIoAXOsmlAU9zLcRgNIzttiyTJ-gJCat9HtjP17HJn9X5ZeOnkvVTIxADP5opPo&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=ZhB9Nm3ERUgZRKmXYUq8gw&amp;oh=00_Afbn574SYlrMoHBMgiD5CeSC086Sglpe52u8GFEZHsJyTw&amp;oe=68DBE7EF', 'profileId': 'pfbid0qVuampWHwAEgMkB9eGbCkZV3uAU9bg5Gid91cVQ1MFEf9PDGWxajHrqyZnHj1fsFl', 'profileName': 'Aleks Beltran Palacios', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1192737902898447', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737426231828/'}</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737426231828/', 'commentUrl': 'https://www.facebook.com/alpina/videos/607896318819620/?comment_id=1988361401914698', 'id': 'Y29tbWVudDoxMTkyNzM3OTAyODk4NDQ3XzE5ODgzNjE0MDE5MTQ2OTg=', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzkwMjg5ODQ0N18xOTg4MzYxNDAxOTE0Njk4', 'date': '2025-08-22T20:28:25.000Z', 'text': 'Nada de eso es nutrición para nadie', 'profileUrl': 'https://www.facebook.com/people/Luz-Helena-Rodriguez/100084062482841/', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/323411260_546007570585782_5982400517226857795_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=0IlE1zzc_JwQ7kNvwGO9ewm&amp;_nc_oc=AdmFpylx-VAdNSG8oJSykIBELkvNe8IFkJsw-ZNfWwhvU6DPc3GB2Se0UhkdOcges6AgPCPaUGqFM27bmPW5ehGi&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=yowWgFx7PMQmd65zCMUkdg&amp;oh=00_Afbj-KXYst6DJeujU-_6YGU19q-7A2py24XQsQKdIXBb8g&amp;oe=68DBC507', 'profileId': '100084062482841', 'profileName': 'Luz Helena Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1192737902898447', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737426231828/'}</t>
+          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737426231828/', 'commentUrl': 'https://www.facebook.com/alpina/videos/607896318819620/?comment_id=1988361401914698', 'id': 'Y29tbWVudDoxMTkyNzM3OTAyODk4NDQ3XzE5ODgzNjE0MDE5MTQ2OTg=', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzkwMjg5ODQ0N18xOTg4MzYxNDAxOTE0Njk4', 'date': '2025-08-22T20:28:25.000Z', 'text': 'Nada de eso es nutrición para nadie', 'profileUrl': 'https://www.facebook.com/people/Luz-Helena-Rodriguez/100084062482841/', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/323411260_546007570585782_5982400517226857795_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=0IlE1zzc_JwQ7kNvwF6s7-A&amp;_nc_oc=AdlZ_SQV5tQYjR7L5FYMs6qa2_fks9I8a5i-jjgTz-u43apE9xl4xz-PrQFKZTHSh2E&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=ZhB9Nm3ERUgZRKmXYUq8gw&amp;oh=00_AfZhS70DDZFEbdMU0iWdj4KotVpIjhvAZ9c2Uu3YKULnaA&amp;oe=68DBC507', 'profileId': '100084062482841', 'profileName': 'Luz Helena Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1192737902898447', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737426231828/'}</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737426231828/', 'commentUrl': 'https://www.facebook.com/alpina/videos/607896318819620/?comment_id=1157406036200942', 'id': 'Y29tbWVudDoxMTkyNzM3OTAyODk4NDQ3XzExNTc0MDYwMzYyMDA5NDI=', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzkwMjg5ODQ0N18xMTU3NDA2MDM2MjAwOTQy', 'date': '2025-08-24T00:30:41.000Z', 'text': '🤣🤣🤣🤣🤣🤣🤣🤣nutritiva? 🤣🤣🤣🤣🤣🤣🤣😁 De vaina se les puede salvar la mantequilla...😐', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/497454474_10162756148747710_2475231995918372239_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=tiSr93wCP2cQ7kNvwFEXHhw&amp;_nc_oc=AdmUDVTRCfhWE7h6YhZM59cx7eAf5BMmyS49Op6_uWyis7xi6Dh_PUbK0LL18MGi7auBFJ-903SziOoSGo6Z7GCP&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=yowWgFx7PMQmd65zCMUkdg&amp;oh=00_AfZUIUOVe-wiXvM6qAcWI4dYqZqnpPlaez71NMNWntwm3A&amp;oe=68DBE09B', 'profileId': '685612709', 'profileName': 'Burgos Tatis Haroldo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1192737902898447', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737426231828/'}</t>
+          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737426231828/', 'commentUrl': 'https://www.facebook.com/alpina/videos/607896318819620/?comment_id=1157406036200942', 'id': 'Y29tbWVudDoxMTkyNzM3OTAyODk4NDQ3XzExNTc0MDYwMzYyMDA5NDI=', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzkwMjg5ODQ0N18xMTU3NDA2MDM2MjAwOTQy', 'date': '2025-08-24T00:30:41.000Z', 'text': '🤣🤣🤣🤣🤣🤣🤣🤣nutritiva? 🤣🤣🤣🤣🤣🤣🤣😁 De vaina se les puede salvar la mantequilla...😐', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/497454474_10162756148747710_2475231995918372239_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=tiSr93wCP2cQ7kNvwFIHLCQ&amp;_nc_oc=Adm9shGDl_wY2KwFn_OJScHfY1X2sPBgUJxbQyYhNUbIX1W5Eys1YvjriQ6cN-QM0_A&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=ZhB9Nm3ERUgZRKmXYUq8gw&amp;oh=00_AfaPblKU42IDwIb3tg0ikhSO3PNFgEZA2JfFvOBaV5FE3g&amp;oe=68DBE09B', 'profileId': '685612709', 'profileName': 'Burgos Tatis Haroldo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1192737902898447', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737426231828/'}</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737426231828/', 'commentUrl': 'https://www.facebook.com/alpina/videos/607896318819620/?comment_id=1291155905697724', 'id': 'Y29tbWVudDoxMTkyNzM3OTAyODk4NDQ3XzEyOTExNTU5MDU2OTc3MjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzkwMjg5ODQ0N18xMjkxMTU1OTA1Njk3NzI0', 'date': '2025-08-25T23:49:40.000Z', 'text': '¿Nutritiva con exceso de grasas y azúcares? Es chiste, ¿verdad? Porque es lo más ridículo que he leído.', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/515939545_10164503619644369_8224255603790583307_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XwSlWI--sxwQ7kNvwEH_OvK&amp;_nc_oc=AdmYs6hpfgF7JD2kQD5YWALGRNc0RB12pUK9w8vPVRT5iB3GJ6GQ7tPeTWujuX5_IZ3c5UIr1XBeY8i5CsGxa8It&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=yowWgFx7PMQmd65zCMUkdg&amp;oh=00_AfaDib_EmI2uE_G_-3grM8hniXMoWzv8KMTI5cZ3ziwPMw&amp;oe=68DBDCCB', 'profileId': 'pfbid02pyDcjeXTdXGk2mQRGZqKG8vCGrAKyXPoLqyxKP8b2yza2pQhsMa4GYRmP2V45zBTl', 'profileName': 'Drope Rezpe', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1192737902898447', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737426231828/'}</t>
+          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1192737426231828/', 'commentUrl': 'https://www.facebook.com/alpina/videos/607896318819620/?comment_id=1291155905697724', 'id': 'Y29tbWVudDoxMTkyNzM3OTAyODk4NDQ3XzEyOTExNTU5MDU2OTc3MjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTE5MjczNzkwMjg5ODQ0N18xMjkxMTU1OTA1Njk3NzI0', 'date': '2025-08-25T23:49:40.000Z', 'text': '¿Nutritiva con exceso de grasas y azúcares? Es chiste, ¿verdad? Porque es lo más ridículo que he leído.', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/515939545_10164503619644369_8224255603790583307_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XwSlWI--sxwQ7kNvwHZIDCr&amp;_nc_oc=Adm_gmWcNcuKhozZXVVGOt64Ly4r4NjhKxtCyrWMlHvSrGJC8HqtQPWhCbpZNb512AM&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=ZhB9Nm3ERUgZRKmXYUq8gw&amp;oh=00_AfbaO7eE1ge1R0EtoqS5uaFBhRgvbO_YSdKMU5MOMzd2XA&amp;oe=68DBDCCB', 'profileId': 'pfbid02pyDcjeXTdXGk2mQRGZqKG8vCGrAKyXPoLqyxKP8b2yza2pQhsMa4GYRmP2V45zBTl', 'profileName': 'Drope Rezpe', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1192737902898447', 'postTitle': 'Papás y mamás. todo empieza con lo que empacan en la lonchera de sus hijos y aquí estamos para darles soluciones nutritivas, lo demás lo hace su imaginación 🌟', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1192737426231828/'}</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1197963049042599/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0sub1P2p3KXwCqBPFFtV2JYcRd2oeCbWzxMmRmdzzc5L9kn7bLsr3yapQSxqjHbMtl?comment_id=3847860575505187', 'id': 'Y29tbWVudDoxMTk3OTYzODk1NzA5MTgxXzM4NDc4NjA1NzU1MDUxODc=', 'feedbackId': 'ZmVlZGJhY2s6MTE5Nzk2Mzg5NTcwOTE4MV8zODQ3ODYwNTc1NTA1MTg3', 'date': '2025-08-22T14:17:59.000Z', 'text': 'Que rico 😋', 'profileUrl': 'https://www.facebook.com/hildarosa.molinaresdepenagos', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/482129391_3922064641366526_9156416709090472244_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vrqv8FP4GagQ7kNvwGcpeo5&amp;_nc_oc=AdljuQr-BG1TnpZVtV2iSpx7T86IWFKQesKdbUyCJsNWsk6ybq_3xgGAO0nJTbrVXEU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=-set2891_K7L5fzSuRuj3A&amp;oh=00_AfZh7yT1IODRlVBaCtRr70Hmsr9GL4ioOTo7i5HM1pB2dg&amp;oe=68DBB77E', 'profileId': 'pfbid0Nk98W7UcjUUreBYKC1dA67k1XTQx6VNDC8utQ1Rt4DzSemgmnYreurPvtdHPPGZpl', 'profileName': 'Hilda Rosa Molinares de Penagos', 'likesCount': '5', 'threadingDepth': 0, 'facebookId': '1197963895709181', 'postTitle': 'Un día lleno de ideas locas, juegos épicos y gelatina espera por tus hijos 😋', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1197963049042599/'}</t>
+          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1197963049042599/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0sub1P2p3KXwCqBPFFtV2JYcRd2oeCbWzxMmRmdzzc5L9kn7bLsr3yapQSxqjHbMtl?comment_id=3847860575505187', 'id': 'Y29tbWVudDoxMTk3OTYzODk1NzA5MTgxXzM4NDc4NjA1NzU1MDUxODc=', 'feedbackId': 'ZmVlZGJhY2s6MTE5Nzk2Mzg5NTcwOTE4MV8zODQ3ODYwNTc1NTA1MTg3', 'date': '2025-08-22T14:17:59.000Z', 'text': 'Que rico 😋', 'profileUrl': 'https://www.facebook.com/hildarosa.molinaresdepenagos', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/482129391_3922064641366526_9156416709090472244_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vrqv8FP4GagQ7kNvwGGfkMc&amp;_nc_oc=AdntVd8ZW0QHLoQpbfJFkVCpUnhSuDJIaongbq4d2sQY6-ThHGG_AbgFaPD2ZS3eMPs&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=h00MFETHKUWj_BQe0SITCw&amp;oh=00_AfYOR58P6e5jB0HJM5JRb_uNTNaBoEvz-uplf3cwfJJgQw&amp;oe=68DBEFBE', 'profileId': 'pfbid0Nk98W7UcjUUreBYKC1dA67k1XTQx6VNDC8utQ1Rt4DzSemgmnYreurPvtdHPPGZpl', 'profileName': 'Hilda Rosa Molinares de Penagos', 'likesCount': '5', 'threadingDepth': 0, 'facebookId': '1197963895709181', 'postTitle': 'Un día lleno de ideas locas, juegos épicos y gelatina espera por tus hijos 😋', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1197963049042599/'}</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1197963049042599/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0sub1P2p3KXwCqBPFFtV2JYcRd2oeCbWzxMmRmdzzc5L9kn7bLsr3yapQSxqjHbMtl?comment_id=1287440696363492', 'id': 'Y29tbWVudDoxMTk3OTYzODk1NzA5MTgxXzEyODc0NDA2OTYzNjM0OTI=', 'feedbackId': 'ZmVlZGJhY2s6MTE5Nzk2Mzg5NTcwOTE4MV8xMjg3NDQwNjk2MzYzNDky', 'date': '2025-08-22T00:41:36.000Z', 'text': 'Ese está más salado que yo', 'profileUrl': 'https://www.facebook.com/people/Angela-Londo%C3%B1o/pfbid0KmUkrTbq8zp6bKE2scrSjkoDoHcCMdG8gMQTtBD8C6CreXH33KBeZDKgQsigpZuBl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/480786965_2319667015086668_1566378394889788020_n.jpg?stp=c0.0.600.600a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=OXOIZk3JgukQ7kNvwE_VZBq&amp;_nc_oc=AdlwycEAbpJAeLteuIaXE0jBQnLtPV4d2Cq5ldB7oH_CP4mHcaoU5MB2oUljieDyWC0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=-set2891_K7L5fzSuRuj3A&amp;oh=00_Afb1rArVlO2heiIIifEqDBI04mNmE7rJoFw1JOJLbx7Psg&amp;oe=68DBDF8F', 'profileId': 'pfbid0KmUkrTbq8zp6bKE2scrSjkoDoHcCMdG8gMQTtBD8C6CreXH33KBeZDKgQsigpZuBl', 'profileName': 'Angela Londoño', 'likesCount': '5', 'threadingDepth': 0, 'facebookId': '1197963895709181', 'postTitle': 'Un día lleno de ideas locas, juegos épicos y gelatina espera por tus hijos 😋', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1197963049042599/'}</t>
+          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1197963049042599/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0sub1P2p3KXwCqBPFFtV2JYcRd2oeCbWzxMmRmdzzc5L9kn7bLsr3yapQSxqjHbMtl?comment_id=1287440696363492', 'id': 'Y29tbWVudDoxMTk3OTYzODk1NzA5MTgxXzEyODc0NDA2OTYzNjM0OTI=', 'feedbackId': 'ZmVlZGJhY2s6MTE5Nzk2Mzg5NTcwOTE4MV8xMjg3NDQwNjk2MzYzNDky', 'date': '2025-08-22T00:41:36.000Z', 'text': 'Ese está más salado que yo', 'profileUrl': 'https://www.facebook.com/people/Angela-Londo%C3%B1o/pfbid0KmUkrTbq8zp6bKE2scrSjkoDoHcCMdG8gMQTtBD8C6CreXH33KBeZDKgQsigpZuBl/', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/480786965_2319667015086668_1566378394889788020_n.jpg?stp=c0.0.600.600a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=OXOIZk3JgukQ7kNvwELcAX6&amp;_nc_oc=Adl9FInP1uMhXHCydgdJyxPqX3YS80mvBuibhshBLVeoCsUDQRua3JxaD9r9-1W6xPU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=h00MFETHKUWj_BQe0SITCw&amp;oh=00_AfbTzrX3YQzsvn_TJAo6gG5EgBZQ5dVFjaNxLW_CygqtVA&amp;oe=68DBDF8F', 'profileId': 'pfbid0KmUkrTbq8zp6bKE2scrSjkoDoHcCMdG8gMQTtBD8C6CreXH33KBeZDKgQsigpZuBl', 'profileName': 'Angela Londoño', 'likesCount': '5', 'threadingDepth': 0, 'facebookId': '1197963895709181', 'postTitle': 'Un día lleno de ideas locas, juegos épicos y gelatina espera por tus hijos 😋', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1197963049042599/'}</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1197963049042599/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0sub1P2p3KXwCqBPFFtV2JYcRd2oeCbWzxMmRmdzzc5L9kn7bLsr3yapQSxqjHbMtl?comment_id=24075910488747702', 'id': 'Y29tbWVudDoxMTk3OTYzODk1NzA5MTgxXzI0MDc1OTEwNDg4NzQ3NzAy', 'feedbackId': 'ZmVlZGJhY2s6MTE5Nzk2Mzg5NTcwOTE4MV8yNDA3NTkxMDQ4ODc0NzcwMg==', 'date': '2025-08-20T13:58:18.000Z', 'text': '79loki', 'profileUrl': 'https://www.facebook.com/daniela.taborda.73012', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/352331737_6476874095685171_5300341284707014257_n.jpg?stp=c7.0.312.312a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9tIL-7K4dxMQ7kNvwGsbg_6&amp;_nc_oc=Adni32LIwOnqsNBP0e7T-CwydMJktsdik_XFY2F_SE9u-fLKTw3hGj_lLSmPTx_uil8&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=-set2891_K7L5fzSuRuj3A&amp;oh=00_AfZMFWirmsIh8H6cv4YpDf4z84E0NwYhkSfOPCXjRjtWpA&amp;oe=68DBB8C2', 'profileId': 'pfbid02qsXh6j3WKWmXW1cUwHTFN5fnsDDsVDz9zCCYffWt9bxfCmDQE7jcNbaej3wMAJGPl', 'profileName': 'Daniela Taborda', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1197963895709181', 'postTitle': 'Un día lleno de ideas locas, juegos épicos y gelatina espera por tus hijos 😋', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1197963049042599/'}</t>
+          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1197963049042599/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0sub1P2p3KXwCqBPFFtV2JYcRd2oeCbWzxMmRmdzzc5L9kn7bLsr3yapQSxqjHbMtl?comment_id=24075910488747702', 'id': 'Y29tbWVudDoxMTk3OTYzODk1NzA5MTgxXzI0MDc1OTEwNDg4NzQ3NzAy', 'feedbackId': 'ZmVlZGJhY2s6MTE5Nzk2Mzg5NTcwOTE4MV8yNDA3NTkxMDQ4ODc0NzcwMg==', 'date': '2025-08-20T13:58:18.000Z', 'text': '79loki', 'profileUrl': 'https://www.facebook.com/daniela.taborda.73012', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/352331737_6476874095685171_5300341284707014257_n.jpg?stp=c7.0.312.312a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9tIL-7K4dxMQ7kNvwE04ed8&amp;_nc_oc=AdkjGTc37XhTV7mEVr3NbXZ-rnwWzl64DfQRZH0V58ddT4_gM_1wRixY1o52ymDP4As&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=h00MFETHKUWj_BQe0SITCw&amp;oh=00_AfblnqKZ3TBFydtCDysXERPRR5uq61s3rKlzgNV2tlZxqg&amp;oe=68DBF102', 'profileId': 'pfbid02qsXh6j3WKWmXW1cUwHTFN5fnsDDsVDz9zCCYffWt9bxfCmDQE7jcNbaej3wMAJGPl', 'profileName': 'Daniela Taborda', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1197963895709181', 'postTitle': 'Un día lleno de ideas locas, juegos épicos y gelatina espera por tus hijos 😋', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1197963049042599/'}</t>
         </is>
       </c>
     </row>
@@ -1973,7 +1973,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1197963049042599/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0sub1P2p3KXwCqBPFFtV2JYcRd2oeCbWzxMmRmdzzc5L9kn7bLsr3yapQSxqjHbMtl?comment_id=1021132023291888', 'id': 'Y29tbWVudDoxMTk3OTYzODk1NzA5MTgxXzEwMjExMzIwMjMyOTE4ODg=', 'feedbackId': 'ZmVlZGJhY2s6MTE5Nzk2Mzg5NTcwOTE4MV8xMDIxMTMyMDIzMjkxODg4', 'date': '2025-08-20T13:58:14.000Z', 'text': 'Tyryttuytjrjk5787i', 'profileUrl': 'https://www.facebook.com/daniela.taborda.73012', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/352331737_6476874095685171_5300341284707014257_n.jpg?stp=c7.0.312.312a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9tIL-7K4dxMQ7kNvwGsbg_6&amp;_nc_oc=Adni32LIwOnqsNBP0e7T-CwydMJktsdik_XFY2F_SE9u-fLKTw3hGj_lLSmPTx_uil8&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=-set2891_K7L5fzSuRuj3A&amp;oh=00_AfZMFWirmsIh8H6cv4YpDf4z84E0NwYhkSfOPCXjRjtWpA&amp;oe=68DBB8C2', 'profileId': 'pfbid02qsXh6j3WKWmXW1cUwHTFN5fnsDDsVDz9zCCYffWt9bxfCmDQE7jcNbaej3wMAJGPl', 'profileName': 'Daniela Taborda', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1197963895709181', 'postTitle': 'Un día lleno de ideas locas, juegos épicos y gelatina espera por tus hijos 😋', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1197963049042599/'}</t>
+          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1197963049042599/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0sub1P2p3KXwCqBPFFtV2JYcRd2oeCbWzxMmRmdzzc5L9kn7bLsr3yapQSxqjHbMtl?comment_id=1021132023291888', 'id': 'Y29tbWVudDoxMTk3OTYzODk1NzA5MTgxXzEwMjExMzIwMjMyOTE4ODg=', 'feedbackId': 'ZmVlZGJhY2s6MTE5Nzk2Mzg5NTcwOTE4MV8xMDIxMTMyMDIzMjkxODg4', 'date': '2025-08-20T13:58:14.000Z', 'text': 'Tyryttuytjrjk5787i', 'profileUrl': 'https://www.facebook.com/daniela.taborda.73012', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/352331737_6476874095685171_5300341284707014257_n.jpg?stp=c7.0.312.312a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9tIL-7K4dxMQ7kNvwE04ed8&amp;_nc_oc=AdkjGTc37XhTV7mEVr3NbXZ-rnwWzl64DfQRZH0V58ddT4_gM_1wRixY1o52ymDP4As&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=h00MFETHKUWj_BQe0SITCw&amp;oh=00_AfblnqKZ3TBFydtCDysXERPRR5uq61s3rKlzgNV2tlZxqg&amp;oe=68DBF102', 'profileId': 'pfbid02qsXh6j3WKWmXW1cUwHTFN5fnsDDsVDz9zCCYffWt9bxfCmDQE7jcNbaej3wMAJGPl', 'profileName': 'Daniela Taborda', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1197963895709181', 'postTitle': 'Un día lleno de ideas locas, juegos épicos y gelatina espera por tus hijos 😋', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1197963049042599/'}</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1197963049042599/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0sub1P2p3KXwCqBPFFtV2JYcRd2oeCbWzxMmRmdzzc5L9kn7bLsr3yapQSxqjHbMtl?comment_id=1059144512666040', 'id': 'Y29tbWVudDoxMTk3OTYzODk1NzA5MTgxXzEwNTkxNDQ1MTI2NjYwNDA=', 'feedbackId': 'ZmVlZGJhY2s6MTE5Nzk2Mzg5NTcwOTE4MV8xMDU5MTQ0NTEyNjY2MDQw', 'date': '2025-08-20T13:58:05.000Z', 'text': 'Ñññ', 'profileUrl': 'https://www.facebook.com/daniela.taborda.73012', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/352331737_6476874095685171_5300341284707014257_n.jpg?stp=c7.0.312.312a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9tIL-7K4dxMQ7kNvwGsbg_6&amp;_nc_oc=Adni32LIwOnqsNBP0e7T-CwydMJktsdik_XFY2F_SE9u-fLKTw3hGj_lLSmPTx_uil8&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=-set2891_K7L5fzSuRuj3A&amp;oh=00_AfZMFWirmsIh8H6cv4YpDf4z84E0NwYhkSfOPCXjRjtWpA&amp;oe=68DBB8C2', 'profileId': 'pfbid02qsXh6j3WKWmXW1cUwHTFN5fnsDDsVDz9zCCYffWt9bxfCmDQE7jcNbaej3wMAJGPl', 'profileName': 'Daniela Taborda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1197963895709181', 'postTitle': 'Un día lleno de ideas locas, juegos épicos y gelatina espera por tus hijos 😋', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1197963049042599/'}</t>
+          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1197963049042599/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0sub1P2p3KXwCqBPFFtV2JYcRd2oeCbWzxMmRmdzzc5L9kn7bLsr3yapQSxqjHbMtl?comment_id=1059144512666040', 'id': 'Y29tbWVudDoxMTk3OTYzODk1NzA5MTgxXzEwNTkxNDQ1MTI2NjYwNDA=', 'feedbackId': 'ZmVlZGJhY2s6MTE5Nzk2Mzg5NTcwOTE4MV8xMDU5MTQ0NTEyNjY2MDQw', 'date': '2025-08-20T13:58:05.000Z', 'text': 'Ñññ', 'profileUrl': 'https://www.facebook.com/daniela.taborda.73012', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/352331737_6476874095685171_5300341284707014257_n.jpg?stp=c7.0.312.312a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9tIL-7K4dxMQ7kNvwE04ed8&amp;_nc_oc=AdkjGTc37XhTV7mEVr3NbXZ-rnwWzl64DfQRZH0V58ddT4_gM_1wRixY1o52ymDP4As&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=h00MFETHKUWj_BQe0SITCw&amp;oh=00_AfblnqKZ3TBFydtCDysXERPRR5uq61s3rKlzgNV2tlZxqg&amp;oe=68DBF102', 'profileId': 'pfbid02qsXh6j3WKWmXW1cUwHTFN5fnsDDsVDz9zCCYffWt9bxfCmDQE7jcNbaej3wMAJGPl', 'profileName': 'Daniela Taborda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1197963895709181', 'postTitle': 'Un día lleno de ideas locas, juegos épicos y gelatina espera por tus hijos 😋', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1197963049042599/'}</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1197963049042599/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0sub1P2p3KXwCqBPFFtV2JYcRd2oeCbWzxMmRmdzzc5L9kn7bLsr3yapQSxqjHbMtl?comment_id=1311224787228251', 'id': 'Y29tbWVudDoxMTk3OTYzODk1NzA5MTgxXzEzMTEyMjQ3ODcyMjgyNTE=', 'feedbackId': 'ZmVlZGJhY2s6MTE5Nzk2Mzg5NTcwOTE4MV8xMzExMjI0Nzg3MjI4MjUx', 'date': '2025-08-23T03:01:36.000Z', 'text': 'G', 'profileUrl': 'https://www.facebook.com/people/Jacke-Pinto/pfbid02n9d1J3w4w31puqwGnVrMNk5ZRwoRbwM7jt3eQFXn7oKVv7LRunaW5p4SFQT4oHadl/', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=WLq8v2DSCOEQ7kNvwGr63-H&amp;_nc_oc=AdlODNJQTLnx69dSErN6T6FVmpdpmH6bDaBKTa0QlguwImFkRD6APDddMofDCd2jV-I&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;oh=00_AfYkjvu1M00huCz8gmZkd61xBCntNzo5p7J_8KvvgelIog&amp;oe=68FD713A', 'profileId': 'pfbid02n9d1J3w4w31puqwGnVrMNk5ZRwoRbwM7jt3eQFXn7oKVv7LRunaW5p4SFQT4oHadl', 'profileName': 'Jacke Pinto', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1197963895709181', 'postTitle': 'Un día lleno de ideas locas, juegos épicos y gelatina espera por tus hijos 😋', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1197963049042599/'}</t>
+          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1197963049042599/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0sub1P2p3KXwCqBPFFtV2JYcRd2oeCbWzxMmRmdzzc5L9kn7bLsr3yapQSxqjHbMtl?comment_id=1311224787228251', 'id': 'Y29tbWVudDoxMTk3OTYzODk1NzA5MTgxXzEzMTEyMjQ3ODcyMjgyNTE=', 'feedbackId': 'ZmVlZGJhY2s6MTE5Nzk2Mzg5NTcwOTE4MV8xMzExMjI0Nzg3MjI4MjUx', 'date': '2025-08-23T03:01:36.000Z', 'text': 'G', 'profileUrl': 'https://www.facebook.com/people/Jacke-Pinto/pfbid02n9d1J3w4w31puqwGnVrMNk5ZRwoRbwM7jt3eQFXn7oKVv7LRunaW5p4SFQT4oHadl/', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=WLq8v2DSCOEQ7kNvwF1-gsA&amp;_nc_oc=AdmrkBVah5mmYR33g5B89IWAt1J8YEAsdLCu1bWmwbACqODrqdq2HlW8XXnHu4e9hHU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;oh=00_AfbY0MotBr3FhX8G-PPT6pfApEecforafNN6258TeD2V2w&amp;oe=68FD713A', 'profileId': 'pfbid02n9d1J3w4w31puqwGnVrMNk5ZRwoRbwM7jt3eQFXn7oKVv7LRunaW5p4SFQT4oHadl', 'profileName': 'Jacke Pinto', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1197963895709181', 'postTitle': 'Un día lleno de ideas locas, juegos épicos y gelatina espera por tus hijos 😋', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1197963049042599/'}</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1197963049042599/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0sub1P2p3KXwCqBPFFtV2JYcRd2oeCbWzxMmRmdzzc5L9kn7bLsr3yapQSxqjHbMtl?comment_id=629166336580215', 'id': 'Y29tbWVudDoxMTk3OTYzODk1NzA5MTgxXzYyOTE2NjMzNjU4MDIxNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE5Nzk2Mzg5NTcwOTE4MV82MjkxNjYzMzY1ODAyMTU=', 'date': '2025-08-25T15:28:30.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Young smiling boy in green shirt sitting at table with a bowl and plate filled with food. Picking up egg in right hand. Red text across top reads Mishti Chharish Na!', 'pack': {'name': 'Durga Puja Celebration', 'id': '118037345577148'}, 'sprite_image': None, 'image': {'uri': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.1997-6/21519340_118497612197788_2897637967289909248_n.png?stp=cp0_dst-png_s110x80&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=23dd7b&amp;_nc_ohc=Gc5yBcTpYiYQ7kNvwE_5djO&amp;_nc_oc=Adkjt51Hy1KdXxA8Jstm-j1GOTCCLWU8BWPPg6NuAA7pNCF7tD2FKzvDjaccoT60x5E&amp;_nc_zt=26&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=-set2891_K7L5fzSuRuj3A&amp;oh=00_AfY6ijCJxdFMT6v-jPDu7omzoXniWWvMM1XmN1uzgWsOVQ&amp;oe=68DBDA8F', 'width': 80, 'height': 80}, 'id': '118497608864455'}], 'profileUrl': 'https://www.facebook.com/aracely.mantilla.792', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/471969459_902782492012874_279872385498294366_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jseqG80irucQ7kNvwG0yt6G&amp;_nc_oc=AdnlIQts1iQU7ywqobVxgxcY3dUNRHnKybbMrVXqDV4cQVuZE6H5qVRQx3dVFsCcppg&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=-set2891_K7L5fzSuRuj3A&amp;oh=00_AfYIQaGCTNGb5Xw7guhU7Jcxb9b1cyEcqLT0xq-BbBU4dg&amp;oe=68DBC7A6', 'profileId': 'pfbid0Lg1VywdRgmnWJZkXBCRGD6p4mXYFeWkYbm2anEbRuonR9NezhNz4UrE1qFNL9Y4wl', 'profileName': 'Aracely Mantilla', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1197963895709181', 'postTitle': 'Un día lleno de ideas locas, juegos épicos y gelatina espera por tus hijos 😋', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1197963049042599/'}</t>
+          <t>{'facebookUrl': 'https://web.facebook.com/100064867445065/posts/1197963049042599/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0sub1P2p3KXwCqBPFFtV2JYcRd2oeCbWzxMmRmdzzc5L9kn7bLsr3yapQSxqjHbMtl?comment_id=629166336580215', 'id': 'Y29tbWVudDoxMTk3OTYzODk1NzA5MTgxXzYyOTE2NjMzNjU4MDIxNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTE5Nzk2Mzg5NTcwOTE4MV82MjkxNjYzMzY1ODAyMTU=', 'date': '2025-08-25T15:28:30.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Young smiling boy in green shirt sitting at table with a bowl and plate filled with food. Picking up egg in right hand. Red text across top reads Mishti Chharish Na!', 'pack': {'name': 'Durga Puja Celebration', 'id': '118037345577148'}, 'sprite_image': None, 'image': {'uri': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.1997-6/21519340_118497612197788_2897637967289909248_n.png?stp=cp0_dst-png_s110x80&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=23dd7b&amp;_nc_ohc=Gc5yBcTpYiYQ7kNvwFJ58vw&amp;_nc_oc=AdlWSdoUtPq6zaFOkDUQj1lWFc2H4GrObQGTpjzZrm2fdGzxc8sMN4ybzEcUOY9F4mU&amp;_nc_zt=26&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=h00MFETHKUWj_BQe0SITCw&amp;oh=00_AfaRB_9cLNW56R5dZeg_lcqsNTyWNWrtPbBRsUaTzJolmg&amp;oe=68DBDA8F', 'width': 80, 'height': 80}, 'id': '118497608864455'}], 'profileUrl': 'https://www.facebook.com/aracely.mantilla.792', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/471969459_902782492012874_279872385498294366_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jseqG80irucQ7kNvwHkkCGV&amp;_nc_oc=Adkrsib27zRXXM6iz6y6nOugSKSeitVZh2120w1EEiKr2iJ3YnBgEs1z0_6zdSpj8-g&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=h00MFETHKUWj_BQe0SITCw&amp;oh=00_Afb2ghbZ-uDC0Kp3oJyzILtg1OJVNM8zG7CBKK2D8lTD5Q&amp;oe=68DBC7A6', 'profileId': 'pfbid0Lg1VywdRgmnWJZkXBCRGD6p4mXYFeWkYbm2anEbRuonR9NezhNz4UrE1qFNL9Y4wl', 'profileName': 'Aracely Mantilla', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1197963895709181', 'postTitle': 'Un día lleno de ideas locas, juegos épicos y gelatina espera por tus hijos 😋', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://web.facebook.com/100064867445065/posts/1197963049042599/'}</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543701933728482049', 'createTime': 1756404987, 'createTimeISO': '2025-08-28T18:16:27.000Z', 'text': 'mi mamá es como tacañita😁😁😁', 'diggCount': 822, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7475755462170018832', 'uniqueId': 'mildrey104', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3133ae7fc1ab8019141dfefc2e0db6ee~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cf8335df&amp;x-expires=1758938400&amp;x-signature=m%2Bow87sgw%2F0mYlg%2BGnWDfZXDED4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543701933728482049', 'createTime': 1756404987, 'createTimeISO': '2025-08-28T18:16:27.000Z', 'text': 'mi mamá es como tacañita😁😁😁', 'diggCount': 822, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7475755462170018832', 'uniqueId': 'mildrey104', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3133ae7fc1ab8019141dfefc2e0db6ee~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=39c4b362&amp;x-expires=1758942000&amp;x-signature=wtGk%2B5JZ2sVQW%2BGnbAtwo%2FdQZuk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2213,25 +2213,25 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lo q dice al final la niña me hizo el día ajajajjajajjaja</t>
+          <t>la africa twin 😍</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>45897.81091435185</v>
+        <v>45898.15206018519</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>19:27:43</t>
+          <t>03:38:58</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>307</v>
+        <v>2</v>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543720302107329288', 'createTime': 1756409263, 'createTimeISO': '2025-08-28T19:27:43.000Z', 'text': 'Lo q dice al final la niña me hizo el día ajajajjajajjaja', 'diggCount': 307, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '7430247086031012870', 'uniqueId': 'hernandez_lh1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f792607e2a7c5b1e525514a1e052d2f1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=870133d2&amp;x-expires=1758938400&amp;x-signature=HiVgQuLNP6K9cP8BP7biGuX5RNc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543846910613177106', 'createTime': 1756438738, 'createTimeISO': '2025-08-29T03:38:58.000Z', 'text': 'la africa twin 😍', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7161524529646535685', 'uniqueId': 'felipe_zuluaga', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ef0000eeec67424ee55b8134da96404f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=117cd635&amp;x-expires=1758942000&amp;x-signature=%2FjNPZxDYlZ%2BLr7VX9y6Tl0IVioo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2269,25 +2269,25 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>lo mejor es la africa twin 1100</t>
+          <t>Lo q dice al final la niña me hizo el día ajajajjajajjaja</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>45897.86545138889</v>
+        <v>45897.81091435185</v>
       </c>
       <c r="H35" s="3" t="n">
         <v>45897</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>20:46:15</t>
+          <t>19:27:43</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543740516300112647', 'createTime': 1756413975, 'createTimeISO': '2025-08-28T20:46:15.000Z', 'text': 'lo mejor es la africa twin 1100', 'diggCount': 43, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7477664709609833480', 'uniqueId': 'delvis.cp', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/215531f71d498da530bc56931b7c4665~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e924d4b5&amp;x-expires=1758938400&amp;x-signature=gip5q7HZ2vQqD60AsLRjBF7q818%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543720302107329288', 'createTime': 1756409263, 'createTimeISO': '2025-08-28T19:27:43.000Z', 'text': 'Lo q dice al final la niña me hizo el día ajajajjajajjaja', 'diggCount': 307, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '7430247086031012870', 'uniqueId': 'hernandez_lh1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f792607e2a7c5b1e525514a1e052d2f1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=750072b2&amp;x-expires=1758942000&amp;x-signature=AnWaXEe6TKMq0VTqyOCipskEIZ0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543735508934214401', 'createTime': 1756412817, 'createTimeISO': '2025-08-28T20:26:57.000Z', 'text': 'disque mi mamá es como tacañita 😂😂😂', 'diggCount': 25, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6916660785628709894', 'uniqueId': 'dianacorrea066', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ad96342a37a606c9515ddf4932bc1175~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=17d5040d&amp;x-expires=1758938400&amp;x-signature=i6Qf9DdGBEIaR375w1T1dmB5Q68%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543735508934214401', 'createTime': 1756412817, 'createTimeISO': '2025-08-28T20:26:57.000Z', 'text': 'disque mi mamá es como tacañita 😂😂😂', 'diggCount': 25, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6916660785628709894', 'uniqueId': 'dianacorrea066', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ad96342a37a606c9515ddf4932bc1175~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c29670e3&amp;x-expires=1758942000&amp;x-signature=9O73NsdI8JcFhUolI21eq3SMLL0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2381,25 +2381,25 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ajajajajajajjaa 😂😂😂😂 500 pesos, muy pasada!!!! qjajajajaj😂😂😂</t>
+          <t>A votar por la arepa colombiana, nos va a ganar Venezuela</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>45898.11328703703</v>
+        <v>45898.00761574074</v>
       </c>
       <c r="H37" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>02:43:08</t>
+          <t>00:10:58</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543832513295155975', 'createTime': 1756435388, 'createTimeISO': '2025-08-29T02:43:08.000Z', 'text': 'ajajajajajajjaa 😂😂😂😂 500 pesos, muy pasada!!!! qjajajajaj😂😂😂', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6967413210262701061', 'uniqueId': 'elconchau', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/685c45b0d60898c113cb6530bed2ea85~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0987ece3&amp;x-expires=1758938400&amp;x-signature=L9ClmBNIEAGVzIWEXjJm5l2BJoQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543793235032245013', 'createTime': 1756426258, 'createTimeISO': '2025-08-29T00:10:58.000Z', 'text': 'A votar por la arepa colombiana, nos va a ganar Venezuela', 'diggCount': 43, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7282390050728821766', 'uniqueId': 'keiner_ben006', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8d1169252b894f55be89596868780227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1138a481&amp;x-expires=1758942000&amp;x-signature=IC5Pn5COTKw1L%2B%2F6S6vJvbLGSmI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2437,25 +2437,25 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>A votar por la arepa colombiana, nos va a ganar Venezuela</t>
+          <t>ajajajajajajjaa 😂😂😂😂 500 pesos, muy pasada!!!! qjajajajaj😂😂😂</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>45898.00761574074</v>
+        <v>45898.11328703703</v>
       </c>
       <c r="H38" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>00:10:58</t>
+          <t>02:43:08</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="K38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543793235032245013', 'createTime': 1756426258, 'createTimeISO': '2025-08-29T00:10:58.000Z', 'text': 'A votar por la arepa colombiana, nos va a ganar Venezuela', 'diggCount': 43, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7282390050728821766', 'uniqueId': 'keiner_ben006', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8d1169252b894f55be89596868780227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=802046ad&amp;x-expires=1758938400&amp;x-signature=T2msdYAMKXLireGFkiyu1Y568Ok%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543832513295155975', 'createTime': 1756435388, 'createTimeISO': '2025-08-29T02:43:08.000Z', 'text': 'ajajajajajajjaa 😂😂😂😂 500 pesos, muy pasada!!!! qjajajajaj😂😂😂', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6967413210262701061', 'uniqueId': 'elconchau', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/685c45b0d60898c113cb6530bed2ea85~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=20e1b5a6&amp;x-expires=1758942000&amp;x-signature=4%2Fea9LpMb5Kx%2BiL4c7XQzJnq5C0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2493,22 +2493,22 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tatan cuando lo consienten de la nada: ya que olvide 😳</t>
+          <t>😂😂😅😅😅tan bella.macarena</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>45897.85849537037</v>
+        <v>45898.06984953704</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>20:36:14</t>
+          <t>01:40:35</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543737923289498375', 'createTime': 1756413374, 'createTimeISO': '2025-08-28T20:36:14.000Z', 'text': 'Tatan cuando lo consienten de la nada: ya que olvide 😳', 'diggCount': 13, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6607357150921293830', 'uniqueId': 'irvyng', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/d7b38fa05529f5599685310167cc1664~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=feca045f&amp;x-expires=1758938400&amp;x-signature=PZ7tt7CeiQvAx7olmmNMQ3kVcP4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543816358732923665', 'createTime': 1756431635, 'createTimeISO': '2025-08-29T01:40:35.000Z', 'text': '😂😂😅😅😅tan bella.macarena', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6873458572941870086', 'uniqueId': 'leidypatriciatrochez', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/735614172d6a3fabb431181c69cf458b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3a9321c2&amp;x-expires=1758942000&amp;x-signature=%2BVUIEEfgqTM2mWpIOli7I9UlBAA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2549,22 +2549,22 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>la africa twin 😍</t>
+          <t>hasta en la sopa estos dos :/</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>45898.15206018519</v>
+        <v>45901.15023148148</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>03:38:58</t>
+          <t>03:36:20</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543846910613177106', 'createTime': 1756438738, 'createTimeISO': '2025-08-29T03:38:58.000Z', 'text': 'la africa twin 😍', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7161524529646535685', 'uniqueId': 'felipe_zuluaga', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ef0000eeec67424ee55b8134da96404f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9a98b1cf&amp;x-expires=1758938400&amp;x-signature=HJSz3t9Kq%2F8DPmRmokb%2FSIuaQMo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544959482065978120', 'createTime': 1756697780, 'createTimeISO': '2025-09-01T03:36:20.000Z', 'text': 'hasta en la sopa estos dos :/', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6959789477238162437', 'uniqueId': 'johnalexanderguzm1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/cfaef61e1ef2fc7024a29d5ec0d3bc17~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=19514349&amp;x-expires=1758942000&amp;x-signature=IDdceo8%2FZDYhv%2FX%2FNqFs9VdpWd0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2605,22 +2605,22 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Me regalas la moto?</t>
+          <t>más hermosa 🥰🥰🥰Macarena 🥰🥰</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>45897.89865740741</v>
+        <v>45897.81337962963</v>
       </c>
       <c r="H41" s="3" t="n">
         <v>45897</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>21:34:04</t>
+          <t>19:31:16</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543752805736940295', 'createTime': 1756416844, 'createTimeISO': '2025-08-28T21:34:04.000Z', 'text': 'Me regalas la moto?', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6941852669535355910', 'uniqueId': 'leymar_rodriguez', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6c5074d054991e59e9a57d60569ffbc0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=062dd30c&amp;x-expires=1758938400&amp;x-signature=YIW%2FxXhkxrnlCwbuZ1MiuR19zjI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543721196295947029', 'createTime': 1756409476, 'createTimeISO': '2025-08-28T19:31:16.000Z', 'text': 'más hermosa 🥰🥰🥰Macarena 🥰🥰', 'diggCount': 4, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6803361842343281670', 'uniqueId': 'jasminmoreno30', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330426128001318918~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b5146964&amp;x-expires=1758942000&amp;x-signature=4csolGdWk7KDQsbnbqEVwyp5iRA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543786664016642824', 'createTime': 1756424721, 'createTimeISO': '2025-08-28T23:45:21.000Z', 'text': '𝕄𝕚 𝕞𝕒𝕞á 𝕖𝕤 𝕔𝕠𝕞𝕠 𝕥𝕒𝕔𝕒ñ𝕚𝕥𝕒 𝕒𝕞𝕖 𝕒 𝕖𝕤𝕒 𝕔𝕙𝕚𝕢𝕦𝕚𝕥𝕚𝕟𝕒 𝕔𝕠𝕟 𝕝𝕠 𝕢𝕦𝕖 𝕕𝕚𝕛𝕠 😂😁😂', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6995167434010788869', 'uniqueId': 'y.c.z.m.6', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/73039f06f56dae3995aeaee20b0c0484~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2b4ec1ae&amp;x-expires=1758938400&amp;x-signature=vhYM8xuB9PjiETQUhEdl4hz6%2B18%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543786664016642824', 'createTime': 1756424721, 'createTimeISO': '2025-08-28T23:45:21.000Z', 'text': '𝕄𝕚 𝕞𝕒𝕞á 𝕖𝕤 𝕔𝕠𝕞𝕠 𝕥𝕒𝕔𝕒ñ𝕚𝕥𝕒 𝕒𝕞𝕖 𝕒 𝕖𝕤𝕒 𝕔𝕙𝕚𝕢𝕦𝕚𝕥𝕚𝕟𝕒 𝕔𝕠𝕟 𝕝𝕠 𝕢𝕦𝕖 𝕕𝕚𝕛𝕠 😂😁😂', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6995167434010788869', 'uniqueId': 'y.c.z.m.6', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/73039f06f56dae3995aeaee20b0c0484~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d21946b2&amp;x-expires=1758942000&amp;x-signature=KCKEC5N%2BTO0PZtTlVRO1KlhkT0c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543726767200256775', 'createTime': 1756410773, 'createTimeISO': '2025-08-28T19:52:53.000Z', 'text': 'mi mamá es como tacañita 🗣️🔥', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7364901553163027461', 'uniqueId': 'monkey_123457', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4b033b5f36e4e7b81eb3ac66790e35f9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3e865e1f&amp;x-expires=1758938400&amp;x-signature=88i7xI33B%2Fa5oap9sYdda8H9L2o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543726767200256775', 'createTime': 1756410773, 'createTimeISO': '2025-08-28T19:52:53.000Z', 'text': 'mi mamá es como tacañita 🗣️🔥', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7364901553163027461', 'uniqueId': 'monkey_123457', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4b033b5f36e4e7b81eb3ac66790e35f9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b8a5e717&amp;x-expires=1758942000&amp;x-signature=CEUwGI%2BJtMbqgWRuHNlbCtyAkYI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2773,22 +2773,22 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>más hermosa 🥰🥰🥰Macarena 🥰🥰</t>
+          <t>Tatan cuando lo consienten de la nada: ya que olvide 😳</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>45897.81337962963</v>
+        <v>45897.85849537037</v>
       </c>
       <c r="H44" s="3" t="n">
         <v>45897</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>19:31:16</t>
+          <t>20:36:14</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543721196295947029', 'createTime': 1756409476, 'createTimeISO': '2025-08-28T19:31:16.000Z', 'text': 'más hermosa 🥰🥰🥰Macarena 🥰🥰', 'diggCount': 4, 'likedByAuthor': True, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6803361842343281670', 'uniqueId': 'jasminmoreno30', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330426128001318918~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ebc37aea&amp;x-expires=1758938400&amp;x-signature=7DlG6ld%2FE6UO1kBgYMjmU5xhhI0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543737923289498375', 'createTime': 1756413374, 'createTimeISO': '2025-08-28T20:36:14.000Z', 'text': 'Tatan cuando lo consienten de la nada: ya que olvide 😳', 'diggCount': 13, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6607357150921293830', 'uniqueId': 'irvyng', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/d7b38fa05529f5599685310167cc1664~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1bda4b7d&amp;x-expires=1758942000&amp;x-signature=AhvHsNYGh7NIdWlIK9LddCcppcM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2829,22 +2829,22 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>😂😂😅😅😅tan bella.macarena</t>
+          <t>zinc, hierro, vitamina b12 y exceso de azúcares y de grasas saturadas.</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>45898.06984953704</v>
+        <v>45898.046875</v>
       </c>
       <c r="H45" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>01:40:35</t>
+          <t>01:07:30</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543816358732923665', 'createTime': 1756431635, 'createTimeISO': '2025-08-29T01:40:35.000Z', 'text': '😂😂😅😅😅tan bella.macarena', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6873458572941870086', 'uniqueId': 'leidypatriciatrochez', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/735614172d6a3fabb431181c69cf458b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dbc45428&amp;x-expires=1758938400&amp;x-signature=6rnulN16Zh2JfFJP7ek7H2bwea8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543807790063977233', 'createTime': 1756429650, 'createTimeISO': '2025-08-29T01:07:30.000Z', 'text': 'zinc, hierro, vitamina b12 y exceso de azúcares y de grasas saturadas.', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6814239180266357765', 'uniqueId': 'noneicd', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1b94dbede311e7c341b234ebad92f929~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d23dc814&amp;x-expires=1758942000&amp;x-signature=q6Fs747oWDgZJ5%2BCx4Fd8lhCvQk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2885,18 +2885,18 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>zinc, hierro, vitamina b12 y exceso de azúcares y de grasas saturadas.</t>
+          <t>Lo mejore es la moto tiws África 🔥</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>45898.046875</v>
+        <v>45897.85472222222</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>01:07:30</t>
+          <t>20:30:48</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543807790063977233', 'createTime': 1756429650, 'createTimeISO': '2025-08-29T01:07:30.000Z', 'text': 'zinc, hierro, vitamina b12 y exceso de azúcares y de grasas saturadas.', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6814239180266357765', 'uniqueId': 'noneicd', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1b94dbede311e7c341b234ebad92f929~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=416802a0&amp;x-expires=1758938400&amp;x-signature=uBOUq64fVVq4%2FcsZRbBfFulUfDI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543736513156547335', 'createTime': 1756413048, 'createTimeISO': '2025-08-28T20:30:48.000Z', 'text': 'Lo mejore es la moto tiws África 🔥', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7069973804412142598', 'uniqueId': 'jhon_whick777', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/2a5a71d45fe23cfc2125ed54c0c8f3c7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=443a0fae&amp;x-expires=1758942000&amp;x-signature=GABOAaeTBbdYRfcT8pISohulwcw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2941,18 +2941,18 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lo mejore es la moto tiws África 🔥</t>
+          <t>Me regalas la moto?</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>45897.85472222222</v>
+        <v>45897.89865740741</v>
       </c>
       <c r="H47" s="3" t="n">
         <v>45897</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>20:30:48</t>
+          <t>21:34:04</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543736513156547335', 'createTime': 1756413048, 'createTimeISO': '2025-08-28T20:30:48.000Z', 'text': 'Lo mejore es la moto tiws África 🔥', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7069973804412142598', 'uniqueId': 'jhon_whick777', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/2a5a71d45fe23cfc2125ed54c0c8f3c7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=547cab79&amp;x-expires=1758938400&amp;x-signature=zZhc2bznkABvyBgoGXVEdP2UQ9s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543752805736940295', 'createTime': 1756416844, 'createTimeISO': '2025-08-28T21:34:04.000Z', 'text': 'Me regalas la moto?', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6941852669535355910', 'uniqueId': 'leymar_rodriguez', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6c5074d054991e59e9a57d60569ffbc0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f3e35eec&amp;x-expires=1758942000&amp;x-signature=tBN%2FHk3g0xuoOa%2FuOfHv%2B4MwLFA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2997,22 +2997,22 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>JAJAJAJAJAJJAJAJAJAJAJJAJAJAJAJA</t>
+          <t>Según una lomchera saludable.,?</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>45897.82565972222</v>
+        <v>45897.7932175926</v>
       </c>
       <c r="H48" s="3" t="n">
         <v>45897</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>19:48:57</t>
+          <t>19:02:14</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543725773279953671', 'createTime': 1756410537, 'createTimeISO': '2025-08-28T19:48:57.000Z', 'text': 'JAJAJAJAJAJJAJAJAJAJAJJAJAJAJAJA', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7113430284112872453', 'uniqueId': 'e_fabra', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/da586a0f96e90bd28de197f14fbf51b4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=12e9e225&amp;x-expires=1758938400&amp;x-signature=%2BV0NwXY0SwhnobCDJxQ7uGuCIEE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543713736184644359', 'createTime': 1756407734, 'createTimeISO': '2025-08-28T19:02:14.000Z', 'text': 'Según una lomchera saludable.,?', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808314615954244613', 'uniqueId': 'zeusmarco.vinicio', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7fe7b099586152b0c54f56c1fb4dafb0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3f680162&amp;x-expires=1758942000&amp;x-signature=Dy16%2Bz28YixOnEoV%2FRlqlf62nPE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3053,22 +3053,22 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Según una lomchera saludable.,?</t>
+          <t>me.encanta esta fami</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>45897.7932175926</v>
+        <v>45897.77962962963</v>
       </c>
       <c r="H49" s="3" t="n">
         <v>45897</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>19:02:14</t>
+          <t>18:42:40</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543713736184644359', 'createTime': 1756407734, 'createTimeISO': '2025-08-28T19:02:14.000Z', 'text': 'Según una lomchera saludable.,?', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808314615954244613', 'uniqueId': 'zeusmarco.vinicio', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7fe7b099586152b0c54f56c1fb4dafb0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d922ee43&amp;x-expires=1758938400&amp;x-signature=DKV18OFKiWdOdkIFjH3tOy2hZd4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543708669638574856', 'createTime': 1756406560, 'createTimeISO': '2025-08-28T18:42:40.000Z', 'text': 'me.encanta esta fami', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6926269761845249030', 'uniqueId': 'johacontremon..rn', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/70e431728dace9be851230790a126bf6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5b4580c5&amp;x-expires=1758942000&amp;x-signature=22tTazbUuxP%2Flz12BSaKROztGwU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543888499603882760', 'createTime': 1756448424, 'createTimeISO': '2025-08-29T06:20:24.000Z', 'text': 'Me gustaría ver si puedo hacer esa tortilla no me regalan el queso 🥺. No sean tacaños 😅jaja', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '304881904904957952', 'uniqueId': 'felipecruz66', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d0575b927f9898a50961a2b9e08127d4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9ba56cce&amp;x-expires=1758938400&amp;x-signature=JI6qmcM4qoJ%2Bb%2BNzLPVqXPbOtCY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543888499603882760', 'createTime': 1756448424, 'createTimeISO': '2025-08-29T06:20:24.000Z', 'text': 'Me gustaría ver si puedo hacer esa tortilla no me regalan el queso 🥺. No sean tacaños 😅jaja', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '304881904904957952', 'uniqueId': 'felipecruz66', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d0575b927f9898a50961a2b9e08127d4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ee8307e6&amp;x-expires=1758942000&amp;x-signature=zYa8FOhWy4sYyPh3uIKXu1WaQcw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543786314672620296', 'createTime': 1756424636, 'createTimeISO': '2025-08-28T23:43:56.000Z', 'text': 'tata pacero soy de cali no tiene una moto de segunda q me regales no importa como seaa mil bendiciones gracias 😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6908919616736691206', 'uniqueId': '66ptet', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ccb2ebc1f9c90dd3b07a6d300c80bc39~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fe590460&amp;x-expires=1758938400&amp;x-signature=C0c%2BO0W1Z8%2B%2FVrtHyEqZ9%2Bz9QV4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543786314672620296', 'createTime': 1756424636, 'createTimeISO': '2025-08-28T23:43:56.000Z', 'text': 'tata pacero soy de cali no tiene una moto de segunda q me regales no importa como seaa mil bendiciones gracias 😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6908919616736691206', 'uniqueId': '66ptet', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ccb2ebc1f9c90dd3b07a6d300c80bc39~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=32f8524e&amp;x-expires=1758942000&amp;x-signature=J2slRdQpYYYPsD8PFxxSI6JfEyI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3221,22 +3221,22 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>me.encanta esta fami</t>
+          <t>a mí me sirven eso y no salgo del baño en dos meses</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>45897.77962962963</v>
+        <v>45901.15542824074</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>18:42:40</t>
+          <t>03:43:49</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543708669638574856', 'createTime': 1756406560, 'createTimeISO': '2025-08-28T18:42:40.000Z', 'text': 'me.encanta esta fami', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6926269761845249030', 'uniqueId': 'johacontremon..rn', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/70e431728dace9be851230790a126bf6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=578a9d4e&amp;x-expires=1758938400&amp;x-signature=7pp7%2FJ6pQhYzZ1jtPDDuqSAYl5M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544961400172725010', 'createTime': 1756698229, 'createTimeISO': '2025-09-01T03:43:49.000Z', 'text': 'a mí me sirven eso y no salgo del baño en dos meses', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7075140503641392133', 'uniqueId': 'andres1928882737191', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a36054d3236c23bdc9ae8fd6ab1afae3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ac5de16d&amp;x-expires=1758942000&amp;x-signature=TmsMJWQoBWYl3fBb7LuL7iAwcSI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3277,22 +3277,22 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>hasta en la sopa estos dos :/</t>
+          <t>Macarena hermosa 🥰🥰🥰</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>45901.15023148148</v>
+        <v>45898.78561342593</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>03:36:20</t>
+          <t>18:51:17</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -3307,7 +3307,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544959482065978120', 'createTime': 1756697780, 'createTimeISO': '2025-09-01T03:36:20.000Z', 'text': 'hasta en la sopa estos dos :/', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6959789477238162437', 'uniqueId': 'johnalexanderguzm1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/cfaef61e1ef2fc7024a29d5ec0d3bc17~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cfc3e0a8&amp;x-expires=1758938400&amp;x-signature=f0HJy0TCT1iWv1Mi3Grz7iuKDrA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544081984177685266', 'createTime': 1756493477, 'createTimeISO': '2025-08-29T18:51:17.000Z', 'text': 'Macarena hermosa 🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7135446318118487046', 'uniqueId': 'claluvidu', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/00aaa25ecd61a18e9238dc4a88a805bf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dcb690f0&amp;x-expires=1758942000&amp;x-signature=VmoiO3OluJtn5WQircuUjg7FAqo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>a mí me sirven eso y no salgo del baño en dos meses</t>
+          <t>jajjajajajajjajajaja me hizo la tarde</t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>45901.15542824074</v>
+        <v>45897.80716435185</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>45901</v>
+        <v>45897</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>03:43:49</t>
+          <t>19:22:19</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544961400172725010', 'createTime': 1756698229, 'createTimeISO': '2025-09-01T03:43:49.000Z', 'text': 'a mí me sirven eso y no salgo del baño en dos meses', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7075140503641392133', 'uniqueId': 'andres1928882737191', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a36054d3236c23bdc9ae8fd6ab1afae3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=56ee80ec&amp;x-expires=1758938400&amp;x-signature=M0Qt%2Fr6gyQ6mNbZ5O17FmdXx%2FF8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543718881405436690', 'createTime': 1756408939, 'createTimeISO': '2025-08-28T19:22:19.000Z', 'text': 'jajjajajajajjajajaja me hizo la tarde', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6860550157252346885', 'uniqueId': 'tueresdelosmios', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/2eaf82e5f8730a2526c8f63b1d2fed1b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=325e4597&amp;x-expires=1758942000&amp;x-signature=ba0Cn52BNwgW%2FKc2nqfyZecu%2B34%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3389,18 +3389,18 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>😂😂El final 😂</t>
+          <t>😂😂😂😂😂está familia es mero parche 🥰🥰🥰🥰</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>45898.43740740741</v>
+        <v>45898.10989583333</v>
       </c>
       <c r="H55" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>10:29:52</t>
+          <t>02:38:15</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -3419,7 +3419,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543952796761441042', 'createTime': 1756463392, 'createTimeISO': '2025-08-29T10:29:52.000Z', 'text': '😂😂El final 😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6876850245218927621', 'uniqueId': 'luflorez__', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/abe2cd3407b89ff30acf0f17ab7d990e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c6242cf7&amp;x-expires=1758938400&amp;x-signature=D6Kvvhl67plrDfjEm0rRAhlwKjA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543831256573166344', 'createTime': 1756435095, 'createTimeISO': '2025-08-29T02:38:15.000Z', 'text': '😂😂😂😂😂está familia es mero parche 🥰🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7161148846960526341', 'uniqueId': 'jairogonzalez403', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/d9715165d35dd21f26b4fdfd891fdb10~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=49facd5b&amp;x-expires=1758942000&amp;x-signature=wnBZk6XvIewo2QcBMc1x4ir%2F93w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3445,18 +3445,18 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Los mejores 😅😅</t>
+          <t>Ay no más esta pareja... por favor 🙏🏻</t>
         </is>
       </c>
       <c r="G56" s="2" t="n">
-        <v>45897.93239583333</v>
+        <v>45901.17248842592</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>22:22:39</t>
+          <t>04:08:23</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -3475,7 +3475,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543765323540923157', 'createTime': 1756419759, 'createTimeISO': '2025-08-28T22:22:39.000Z', 'text': 'Los mejores 😅😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6796863610275529734', 'uniqueId': 'linaguerrero83', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7332787379399065605~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1f1bcc6b&amp;x-expires=1758938400&amp;x-signature=q8oKyZDOpttM5xoC9fR9B5Dbsy0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544967737258214165', 'createTime': 1756699703, 'createTimeISO': '2025-09-01T04:08:23.000Z', 'text': 'Ay no más esta pareja... por favor 🙏🏻', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7453035451433649157', 'uniqueId': 'video.maniatico', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/29700fdaba770922552666df5a689b69~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=44ab286c&amp;x-expires=1758942000&amp;x-signature=lkgAJmWeBsNNxbdgcovoutF%2Fbmk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3501,18 +3501,18 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>jajajaja</t>
+          <t>ahí macarena jajajajajajaja</t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>45898.70206018518</v>
+        <v>45901.16857638889</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>16:50:58</t>
+          <t>04:02:45</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544051007777899271', 'createTime': 1756486258, 'createTimeISO': '2025-08-29T16:50:58.000Z', 'text': 'jajajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6957409256597505030', 'uniqueId': 'channarojas', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/3db8ca6dffc5c91e67d73e896203b2f1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ed72eeff&amp;x-expires=1758938400&amp;x-signature=SCzbQ%2BWY3r8Be3xpjjge5EJCus8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544966285999801095', 'createTime': 1756699365, 'createTimeISO': '2025-09-01T04:02:45.000Z', 'text': 'ahí macarena jajajajajajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6920346087954957318', 'uniqueId': 'agudelo4042', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/74bd047d54cfac68ff7f437fbef9f618~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5ce4b57e&amp;x-expires=1758942000&amp;x-signature=Cis0hj75zpJV%2BxfYr%2B8bMz3HOIs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3557,18 +3557,18 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>😂😂😂jajajajaja me hizo la noche jajajaja😂😂😂</t>
+          <t>500 pesos</t>
         </is>
       </c>
       <c r="G58" s="2" t="n">
-        <v>45898.18008101852</v>
+        <v>45898.14574074074</v>
       </c>
       <c r="H58" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>04:19:19</t>
+          <t>03:29:52</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543857292631360273', 'createTime': 1756441159, 'createTimeISO': '2025-08-29T04:19:19.000Z', 'text': '😂😂😂jajajajaja me hizo la noche jajajaja😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7145317446742950918', 'uniqueId': 'julipuentes22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/6e26ccdff780c9cc742a127afd3b3ee7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f5612f8f&amp;x-expires=1758938400&amp;x-signature=SsFGsR7GD7We6x3q1pv0dF%2BYBuM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543844556375884565', 'createTime': 1756438192, 'createTimeISO': '2025-08-29T03:29:52.000Z', 'text': '500 pesos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7361243678276862981', 'uniqueId': 'goku_black_ssj7', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/88cbf62961619cec67f6312af0ad8572~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8fdcf9f6&amp;x-expires=1758942000&amp;x-signature=oYdU3Hsjq%2BF4fCvi2wsl4Haeg8g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3613,18 +3613,18 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>jajjajajajajjajajaja me hizo la tarde</t>
+          <t>Jajajajajajajajaja</t>
         </is>
       </c>
       <c r="G59" s="2" t="n">
-        <v>45897.80716435185</v>
+        <v>45901.13354166667</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>19:22:19</t>
+          <t>03:12:18</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543718881405436690', 'createTime': 1756408939, 'createTimeISO': '2025-08-28T19:22:19.000Z', 'text': 'jajjajajajajjajajaja me hizo la tarde', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6860550157252346885', 'uniqueId': 'tueresdelosmios', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/2eaf82e5f8730a2526c8f63b1d2fed1b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b106b6cd&amp;x-expires=1758938400&amp;x-signature=Gzs8pk0rO8g%2FdKJvu3%2FKIH8RpiY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544953293480395527', 'createTime': 1756696338, 'createTimeISO': '2025-09-01T03:12:18.000Z', 'text': 'Jajajajajajajajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6777537671957087237', 'uniqueId': 'camilajimenez856', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8cc310ca577d325abe5f912abe5c46d0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=29fee76b&amp;x-expires=1758942000&amp;x-signature=esUWFvOwQ9byFEquJMBVjerwLvk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3669,18 +3669,18 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>la moto 😍</t>
+          <t>jajajaja</t>
         </is>
       </c>
       <c r="G60" s="2" t="n">
-        <v>45898.8356712963</v>
+        <v>45898.70206018518</v>
       </c>
       <c r="H60" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>20:03:22</t>
+          <t>16:50:58</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -3699,7 +3699,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544100569008456455', 'createTime': 1756497802, 'createTimeISO': '2025-08-29T20:03:22.000Z', 'text': 'la moto 😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7517088674087076869', 'uniqueId': 'pinedxwoo90', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/fc79b54162af54f3cf1f150ddf194946~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c06e9047&amp;x-expires=1758938400&amp;x-signature=qJNa2LZC7ptZGM9tRkVa0JkTsVU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544051007777899271', 'createTime': 1756486258, 'createTimeISO': '2025-08-29T16:50:58.000Z', 'text': 'jajajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6957409256597505030', 'uniqueId': 'channarojas', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/3db8ca6dffc5c91e67d73e896203b2f1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=25ea29be&amp;x-expires=1758942000&amp;x-signature=%2B9BCpuU8KL3fMWW%2FINYUJ6hnYYg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3725,18 +3725,18 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>jajajaja ahy macarena</t>
+          <t>La lonche de tatan con respuesta en hoja reciclable, lo importante es cuidar el medio ambiente 😅</t>
         </is>
       </c>
       <c r="G61" s="2" t="n">
-        <v>45898.47045138889</v>
+        <v>45898.65928240741</v>
       </c>
       <c r="H61" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>11:17:27</t>
+          <t>15:49:22</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -3755,7 +3755,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543965049099584263', 'createTime': 1756466247, 'createTimeISO': '2025-08-29T11:17:27.000Z', 'text': 'jajajaja ahy macarena', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7091075333328126982', 'uniqueId': 'yordanjimenez940', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7091143791318401030~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c254ef68&amp;x-expires=1758938400&amp;x-signature=6cgEbeb8keE1r7KJ0Mo1mPk%2FNps%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544035127015015189', 'createTime': 1756482562, 'createTimeISO': '2025-08-29T15:49:22.000Z', 'text': 'La lonche de tatan con respuesta en hoja reciclable, lo importante es cuidar el medio ambiente 😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7265699510549169157', 'uniqueId': 'monikacruz2023', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7265700047517483013~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=acaa247a&amp;x-expires=1758942000&amp;x-signature=L63kJfyyK%2F%2BIodSXN0pCc8b%2F50U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3781,18 +3781,18 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Jajajajajajajajaja</t>
+          <t>jajajajaja</t>
         </is>
       </c>
       <c r="G62" s="2" t="n">
-        <v>45901.13354166667</v>
+        <v>45897.86443287037</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>45901</v>
+        <v>45897</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>03:12:18</t>
+          <t>20:44:47</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -3811,7 +3811,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544953293480395527', 'createTime': 1756696338, 'createTimeISO': '2025-09-01T03:12:18.000Z', 'text': 'Jajajajajajajajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6777537671957087237', 'uniqueId': 'camilajimenez856', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8cc310ca577d325abe5f912abe5c46d0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f5b44932&amp;x-expires=1758938400&amp;x-signature=WnCsudzqKBQZits1n7yRK2RtCu8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543740116080427797', 'createTime': 1756413887, 'createTimeISO': '2025-08-28T20:44:47.000Z', 'text': 'jajajajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7357126272318964741', 'uniqueId': 'lised.jeli', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/edb8d721de0945e5ee9fafee8d2a8842~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a72b4ba7&amp;x-expires=1758942000&amp;x-signature=%2F6LNxxoeFQOasCQ3r6yCSR3caF8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3837,25 +3837,25 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Macarena hermosa 🥰🥰🥰</t>
+          <t>lo mejor es la africa twin 1100</t>
         </is>
       </c>
       <c r="G63" s="2" t="n">
-        <v>45898.78561342593</v>
+        <v>45897.86545138889</v>
       </c>
       <c r="H63" s="3" t="n">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>18:51:17</t>
+          <t>20:46:15</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" t="b">
         <v>0</v>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544081984177685266', 'createTime': 1756493477, 'createTimeISO': '2025-08-29T18:51:17.000Z', 'text': 'Macarena hermosa 🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7135446318118487046', 'uniqueId': 'claluvidu', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/00aaa25ecd61a18e9238dc4a88a805bf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dd2d4789&amp;x-expires=1758938400&amp;x-signature=xMFV5A4cK6YZzoqzaHjMlNf9o9s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543740516300112647', 'createTime': 1756413975, 'createTimeISO': '2025-08-28T20:46:15.000Z', 'text': 'lo mejor es la africa twin 1100', 'diggCount': 43, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7477664709609833480', 'uniqueId': 'delvis.cp', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/215531f71d498da530bc56931b7c4665~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6de8d80c&amp;x-expires=1758942000&amp;x-signature=XCbwlJ3pGT9DmoKCf9Gs2NSfSps%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3893,22 +3893,22 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Me he reído con este vídeo 😂😁😂</t>
+          <t>JAJAJAJAJAJJAJAJAJAJAJJAJAJAJAJA</t>
         </is>
       </c>
       <c r="G64" s="2" t="n">
-        <v>45898.72846064815</v>
+        <v>45897.82565972222</v>
       </c>
       <c r="H64" s="3" t="n">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>17:28:59</t>
+          <t>19:48:57</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -3923,7 +3923,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544060786303058706', 'createTime': 1756488539, 'createTimeISO': '2025-08-29T17:28:59.000Z', 'text': '𝕄𝕖 𝕙𝕖 𝕣𝕖í𝕕𝕠 𝕔𝕠𝕟 𝕖𝕤𝕥𝕖 𝕧í𝕕𝕖𝕠 😂😁😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6995167434010788869', 'uniqueId': 'y.c.z.m.6', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/73039f06f56dae3995aeaee20b0c0484~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2b4ec1ae&amp;x-expires=1758938400&amp;x-signature=vhYM8xuB9PjiETQUhEdl4hz6%2B18%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543725773279953671', 'createTime': 1756410537, 'createTimeISO': '2025-08-28T19:48:57.000Z', 'text': 'JAJAJAJAJAJJAJAJAJAJAJJAJAJAJAJA', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7113430284112872453', 'uniqueId': 'e_fabra', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/da586a0f96e90bd28de197f14fbf51b4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=60856fad&amp;x-expires=1758942000&amp;x-signature=XajijfQ74SUrcExPRs1y2UvShTM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3949,18 +3949,18 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>La lonche de tatan con respuesta en hoja reciclable, lo importante es cuidar el medio ambiente 😅</t>
+          <t>😂😂El final 😂</t>
         </is>
       </c>
       <c r="G65" s="2" t="n">
-        <v>45898.65928240741</v>
+        <v>45898.43740740741</v>
       </c>
       <c r="H65" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>15:49:22</t>
+          <t>10:29:52</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544035127015015189', 'createTime': 1756482562, 'createTimeISO': '2025-08-29T15:49:22.000Z', 'text': 'La lonche de tatan con respuesta en hoja reciclable, lo importante es cuidar el medio ambiente 😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7265699510549169157', 'uniqueId': 'monikacruz2023', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7265700047517483013~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d1c10d06&amp;x-expires=1758938400&amp;x-signature=74FNg8ReaYKGG2ShGoCrD9Lp4gY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543952796761441042', 'createTime': 1756463392, 'createTimeISO': '2025-08-29T10:29:52.000Z', 'text': '😂😂El final 😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6876850245218927621', 'uniqueId': 'luflorez__', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/abe2cd3407b89ff30acf0f17ab7d990e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c25de9ec&amp;x-expires=1758942000&amp;x-signature=GGfwgmrXsgAIgFji%2FSsz3nC%2BK74%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4005,18 +4005,18 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>jajajaja 😅</t>
+          <t>Los mejores 😅😅</t>
         </is>
       </c>
       <c r="G66" s="2" t="n">
-        <v>45901.17644675926</v>
+        <v>45897.93239583333</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>45901</v>
+        <v>45897</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>04:14:05</t>
+          <t>22:22:39</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544969207436968722', 'createTime': 1756700045, 'createTimeISO': '2025-09-01T04:14:05.000Z', 'text': 'jajajaja 😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7467390779994096647', 'uniqueId': 'jairobelez', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f1a5f8f80bd8e3d131798a5e03e83276~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=85dc5239&amp;x-expires=1758938400&amp;x-signature=%2B0oELuMZZyqVMxp61STXfLMIlec%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543765323540923157', 'createTime': 1756419759, 'createTimeISO': '2025-08-28T22:22:39.000Z', 'text': 'Los mejores 😅😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6796863610275529734', 'uniqueId': 'linaguerrero83', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7332787379399065605~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8abd93c5&amp;x-expires=1758942000&amp;x-signature=ftAmzXxN2OXhTKqbhER6ViAlEbw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4061,19 +4061,18 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>🥺
-OMG 😮</t>
+          <t>😂😂😂jajajajaja me hizo la noche jajajaja😂😂😂</t>
         </is>
       </c>
       <c r="G67" s="2" t="n">
-        <v>45901.18886574074</v>
+        <v>45898.18008101852</v>
       </c>
       <c r="H67" s="3" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>04:31:58</t>
+          <t>04:19:19</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -4092,7 +4091,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544973798882329361', 'createTime': 1756701118, 'createTimeISO': '2025-09-01T04:31:58.000Z', 'text': '🥺\nOMG 😮', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7062408947605062661', 'uniqueId': 'usern1k0h122xd', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7072758453260779526~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e0f8152b&amp;x-expires=1758938400&amp;x-signature=MjQ5cel%2BEi9yqTFzGL2qjaTJ81o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543857292631360273', 'createTime': 1756441159, 'createTimeISO': '2025-08-29T04:19:19.000Z', 'text': '😂😂😂jajajajaja me hizo la noche jajajaja😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7145317446742950918', 'uniqueId': 'julipuentes22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/6e26ccdff780c9cc742a127afd3b3ee7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=330dcfdb&amp;x-expires=1758942000&amp;x-signature=Y1TSD1UKsV%2BNFI1mcLW51UTDuQ0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4118,18 +4117,18 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Jajajaj jajajaj jajajaj jajajaj jajajaj 😂😁😂😂JAJAJAJA</t>
+          <t>la moto 😍</t>
         </is>
       </c>
       <c r="G68" s="2" t="n">
-        <v>45901.17628472222</v>
+        <v>45898.8356712963</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>04:13:51</t>
+          <t>20:03:22</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -4148,7 +4147,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544969150667375368', 'createTime': 1756700031, 'createTimeISO': '2025-09-01T04:13:51.000Z', 'text': 'Jajajaj jajajaj jajajaj jajajaj jajajaj 😂😁😂😂JAJAJAJA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7066990342021776386', 'uniqueId': 'linavilla1120', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e21aa4b051a88fb4425bc54af303ce7b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f8d6208e&amp;x-expires=1758938400&amp;x-signature=GTh73RgJO1pSAQ0VlE17OWMpbQQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544100569008456455', 'createTime': 1756497802, 'createTimeISO': '2025-08-29T20:03:22.000Z', 'text': 'la moto 😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7517088674087076869', 'uniqueId': 'pinedxwoo90', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/fc79b54162af54f3cf1f150ddf194946~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ba83eb93&amp;x-expires=1758942000&amp;x-signature=mbn4toEMRzwZwEBEA916sxqR7KE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4174,18 +4173,18 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>jajaja</t>
+          <t>jajajaja ahy macarena</t>
         </is>
       </c>
       <c r="G69" s="2" t="n">
-        <v>45898.87028935185</v>
+        <v>45898.47045138889</v>
       </c>
       <c r="H69" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>20:53:13</t>
+          <t>11:17:27</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -4204,7 +4203,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544113385538470677', 'createTime': 1756500793, 'createTimeISO': '2025-08-29T20:53:13.000Z', 'text': 'jajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7486475348125991944', 'uniqueId': 'fiorelagutierrez88', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3a7cbfaa7662a5749dd026193bd218c8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f8a86fc5&amp;x-expires=1758938400&amp;x-signature=p77rAHiqWRia4PgLNhbdNZ4GJYA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543965049099584263', 'createTime': 1756466247, 'createTimeISO': '2025-08-29T11:17:27.000Z', 'text': 'jajajaja ahy macarena', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7091075333328126982', 'uniqueId': 'yordanjimenez940', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7091143791318401030~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c0914848&amp;x-expires=1758942000&amp;x-signature=Sg9jzKfHByH5p7svCNeVRXeCjbk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4230,18 +4229,18 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Ay nooo, como le haces eso a Macarena 🥺</t>
+          <t>Me hiciste el dia hay nooo 😂😂😂😂 gracias buena enseñanza 😁😁</t>
         </is>
       </c>
       <c r="G70" s="2" t="n">
-        <v>45898.59975694444</v>
+        <v>45898.82203703704</v>
       </c>
       <c r="H70" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>14:23:39</t>
+          <t>19:43:44</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -4260,7 +4259,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544013051863810834', 'createTime': 1756477419, 'createTimeISO': '2025-08-29T14:23:39.000Z', 'text': 'Ay nooo, como le haces eso a Macarena 🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6821338820702143494', 'uniqueId': 'bralejoba', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ce3b97c066691510d04015892c65d11d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f29d7473&amp;x-expires=1758938400&amp;x-signature=qINaQWrFdr2a9fv%2B7G3GQTjy2IY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544095506105729799', 'createTime': 1756496624, 'createTimeISO': '2025-08-29T19:43:44.000Z', 'text': 'Me hiciste el dia hay nooo 😂😂😂😂 gracias buena enseñanza 😁😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7219529056093324293', 'uniqueId': 'ojitos.v31', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/9f260dd3b98a14a404ca9029f7ab3476~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ec11fde3&amp;x-expires=1758942000&amp;x-signature=d7EIUt6ds1Xe3pAHiWbpwOFBqec%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4286,18 +4285,18 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>jajajajajja que buena publicidad 😅😅😅</t>
+          <t>😂😂jjj me izo el diaa😅😅</t>
         </is>
       </c>
       <c r="G71" s="2" t="n">
-        <v>45898.87575231482</v>
+        <v>45897.96887731482</v>
       </c>
       <c r="H71" s="3" t="n">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>21:01:05</t>
+          <t>23:15:11</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -4316,7 +4315,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544115411521504020', 'createTime': 1756501265, 'createTimeISO': '2025-08-29T21:01:05.000Z', 'text': 'jajajajajja que buena publicidad 😅😅😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7377539328119391238', 'uniqueId': 'zorock60', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/37dccd8e3347409801ebde82e4bb63d6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=40411303&amp;x-expires=1758938400&amp;x-signature=DmPNy8FipjHkQeY1SY25qoTF%2Fco%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543778873381978888', 'createTime': 1756422911, 'createTimeISO': '2025-08-28T23:15:11.000Z', 'text': '😂😂jjj me izo el diaa😅😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6989367375356642310', 'uniqueId': 'samuelzambrano7408', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/30d5ca2402d190e506f40905a28e3ee6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a39eab47&amp;x-expires=1758942000&amp;x-signature=vFZpVYRcM%2B79WOV2OUDc4%2BbW1Ic%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4342,18 +4341,18 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Me hiciste el dia hay nooo 😂😂😂😂 gracias buena enseñanza 😁😁</t>
+          <t>quien dijo q eso era alimento 😂😂</t>
         </is>
       </c>
       <c r="G72" s="2" t="n">
-        <v>45898.82203703704</v>
+        <v>45898.10362268519</v>
       </c>
       <c r="H72" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>19:43:44</t>
+          <t>02:29:13</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -4372,7 +4371,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544095506105729799', 'createTime': 1756496624, 'createTimeISO': '2025-08-29T19:43:44.000Z', 'text': 'Me hiciste el dia hay nooo 😂😂😂😂 gracias buena enseñanza 😁😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7219529056093324293', 'uniqueId': 'ojitos.v31', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/9f260dd3b98a14a404ca9029f7ab3476~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7936983f&amp;x-expires=1758938400&amp;x-signature=CsyBxSbeO0NhijlyERrTbxXY%2BrY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543828921700647696', 'createTime': 1756434553, 'createTimeISO': '2025-08-29T02:29:13.000Z', 'text': 'quien dijo q eso era alimento 😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7456503314721588230', 'uniqueId': 'jultam_67', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a1da5a0cc80578d8d2003c0265efaf1e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5c79541d&amp;x-expires=1758942000&amp;x-signature=W9kw25YX91E5hjRTGNMMCm%2BA4nU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4398,18 +4397,18 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>jajaja la amo</t>
+          <t>jajajaja</t>
         </is>
       </c>
       <c r="G73" s="2" t="n">
-        <v>45901.15336805556</v>
+        <v>45897.88975694445</v>
       </c>
       <c r="H73" s="3" t="n">
-        <v>45901</v>
+        <v>45897</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>03:40:51</t>
+          <t>21:21:15</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -4428,7 +4427,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544960650213475080', 'createTime': 1756698051, 'createTimeISO': '2025-09-01T03:40:51.000Z', 'text': 'jajaja la amo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808552856863474694', 'uniqueId': 'lajhonss', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7321016335261401094~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=99e5ec08&amp;x-expires=1758938400&amp;x-signature=bbQIvf2Awu7iJI%2FgGJ6qpYHMSZ4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543749555402900230', 'createTime': 1756416075, 'createTimeISO': '2025-08-28T21:21:15.000Z', 'text': 'jajajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6943935807405687813', 'uniqueId': 'cardenas..rincon', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/b1bdb94038d46fc2bb6863a59307a3d0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4531f0ee&amp;x-expires=1758942000&amp;x-signature=3UFsrcBrGdjL04UyLOl4WgHx2S0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4454,18 +4453,18 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>quien dijo q eso era alimento 😂😂</t>
+          <t>muyyy bueno</t>
         </is>
       </c>
       <c r="G74" s="2" t="n">
-        <v>45898.10362268519</v>
+        <v>45897.91451388889</v>
       </c>
       <c r="H74" s="3" t="n">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>02:29:13</t>
+          <t>21:56:54</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -4484,7 +4483,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543828921700647696', 'createTime': 1756434553, 'createTimeISO': '2025-08-29T02:29:13.000Z', 'text': 'quien dijo q eso era alimento 😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7456503314721588230', 'uniqueId': 'jultam_67', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a1da5a0cc80578d8d2003c0265efaf1e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=aeb46b2b&amp;x-expires=1758938400&amp;x-signature=hjQnhz1P5bTVNYNiTHpuBJeISTI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543758718782391047', 'createTime': 1756418214, 'createTimeISO': '2025-08-28T21:56:54.000Z', 'text': 'muyyy bueno', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7116377848378819590', 'uniqueId': 'gustavoadolfogome321', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/55c5b547fb56812f3de76c062bb5c0e9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e5e643da&amp;x-expires=1758942000&amp;x-signature=pBg%2BWmePR9S%2FXWSp02ASptRgB44%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4510,18 +4509,18 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ahí macarena jajajajajajaja</t>
+          <t>más tacaño Alpina..que tiene como 1000 productos 😂 macarena es las + siempre con su hermana..</t>
         </is>
       </c>
       <c r="G75" s="2" t="n">
-        <v>45901.16857638889</v>
+        <v>45898.43773148148</v>
       </c>
       <c r="H75" s="3" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>04:02:45</t>
+          <t>10:30:20</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -4540,7 +4539,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544966285999801095', 'createTime': 1756699365, 'createTimeISO': '2025-09-01T04:02:45.000Z', 'text': 'ahí macarena jajajajajajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6920346087954957318', 'uniqueId': 'agudelo4042', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/74bd047d54cfac68ff7f437fbef9f618~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=30bcddef&amp;x-expires=1758938400&amp;x-signature=i69Nc3iB38bQhcaelWW5%2FK0S4ME%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543952908174983954', 'createTime': 1756463420, 'createTimeISO': '2025-08-29T10:30:20.000Z', 'text': 'más tacaño Alpina..que tiene como 1000 productos 😂 macarena es las + siempre con su hermana..', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7216381209982714885', 'uniqueId': 'lorenaprieto6741', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7216695720051474438~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d9592b8a&amp;x-expires=1758942000&amp;x-signature=NX0oW%2F0J%2FxLSaykKjnax4tBsPKY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4566,18 +4565,18 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>jajajajaja</t>
+          <t>Ay nooo, como le haces eso a Macarena 🥺</t>
         </is>
       </c>
       <c r="G76" s="2" t="n">
-        <v>45897.86443287037</v>
+        <v>45898.59975694444</v>
       </c>
       <c r="H76" s="3" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>20:44:47</t>
+          <t>14:23:39</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -4596,7 +4595,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543740116080427797', 'createTime': 1756413887, 'createTimeISO': '2025-08-28T20:44:47.000Z', 'text': 'jajajajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7357126272318964741', 'uniqueId': 'lised.jeli', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/edb8d721de0945e5ee9fafee8d2a8842~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=66243ac2&amp;x-expires=1758938400&amp;x-signature=%2FVxALqa8lNJW%2F1OhEvTIJK8tiFA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544013051863810834', 'createTime': 1756477419, 'createTimeISO': '2025-08-29T14:23:39.000Z', 'text': 'Ay nooo, como le haces eso a Macarena 🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6821338820702143494', 'uniqueId': 'bralejoba', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ce3b97c066691510d04015892c65d11d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=01386f5c&amp;x-expires=1758942000&amp;x-signature=uYtqeDY0l7KSJVkwDWv2wliq3Co%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4622,18 +4621,18 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>JAJAJAJAJA JAJA JAJAJAJAJA</t>
+          <t>Esto si es una verdadera publicidad jajaja</t>
         </is>
       </c>
       <c r="G77" s="2" t="n">
-        <v>45898.086875</v>
+        <v>45897.98731481482</v>
       </c>
       <c r="H77" s="3" t="n">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>02:05:06</t>
+          <t>23:41:44</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -4652,7 +4651,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543822699211539217', 'createTime': 1756433106, 'createTimeISO': '2025-08-29T02:05:06.000Z', 'text': 'JAJAJAJAJA JAJA JAJAJAJAJA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6691628366392656901', 'uniqueId': 'valentinamolano22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2d30367e578b8b0276995fda6797d485~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=32821bbd&amp;x-expires=1758938400&amp;x-signature=eAoPfQzAe6yeD31gYnxJjBUIU0U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543785701952504597', 'createTime': 1756424504, 'createTimeISO': '2025-08-28T23:41:44.000Z', 'text': 'Esto si es una verdadera publicidad jajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6963973102960198662', 'uniqueId': 'cristhianforero20', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7333258110133993478~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=01660c0e&amp;x-expires=1758942000&amp;x-signature=Pmg9DmqF0Bht7EXj%2BBfavmxMND4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4678,18 +4677,18 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>así me dijo mi hijo 😂😂😂😂 un día 😂</t>
+          <t>pero de la twin nadie habla verdad?</t>
         </is>
       </c>
       <c r="G78" s="2" t="n">
-        <v>45898.18622685185</v>
+        <v>45897.99590277778</v>
       </c>
       <c r="H78" s="3" t="n">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>04:28:10</t>
+          <t>23:54:06</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -4708,7 +4707,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543859582461920018', 'createTime': 1756441690, 'createTimeISO': '2025-08-29T04:28:10.000Z', 'text': 'así me dijo mi hijo 😂😂😂😂 un día 😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7165660730330547206', 'uniqueId': 'tuberquiayuri', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/5e228100d54e96cf3dbf5c111c2949c3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=76f36c77&amp;x-expires=1758938400&amp;x-signature=bHXMVB4r5EU0hrAyizSNuQ9ynik%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543788921436979986', 'createTime': 1756425246, 'createTimeISO': '2025-08-28T23:54:06.000Z', 'text': 'pero de la twin nadie habla verdad?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7329675056781542406', 'uniqueId': 'theworldisyours.21', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/53bbaa56af754f985e96f3bda2274ec5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9c3ea2c0&amp;x-expires=1758942000&amp;x-signature=uvEBfFBGP8evMQU6NtjSCx%2F%2BUlA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4734,18 +4733,18 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ya se me iban a salir las lágrimas 🥺 hasta que vi el final 🤭😂😂😂😂</t>
+          <t>🤣🤣🤣😅</t>
         </is>
       </c>
       <c r="G79" s="2" t="n">
-        <v>45901.15934027778</v>
+        <v>45898.26994212963</v>
       </c>
       <c r="H79" s="3" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>03:49:27</t>
+          <t>06:28:43</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -4764,7 +4763,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544962867649708807', 'createTime': 1756698567, 'createTimeISO': '2025-09-01T03:49:27.000Z', 'text': 'ya se me iban a salir las lágrimas 🥺 hasta que vi el final 🤭😂😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7388375259051230214', 'uniqueId': 'bibi_moraless1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7388376089162678278~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=205b2612&amp;x-expires=1758938400&amp;x-signature=Nvy8Ij3xnbO7Q8ehzi%2BzTIU5IcE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543890652045591314', 'createTime': 1756448923, 'createTimeISO': '2025-08-29T06:28:43.000Z', 'text': '🤣🤣🤣😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6900937273879266309', 'uniqueId': 'malejitatorres2', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/75faf824dec93a48691a77ab783da516~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9c31c24d&amp;x-expires=1758942000&amp;x-signature=4IpEngXgfSvoSRe9cPK375c%2Fi34%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4790,18 +4789,18 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>500 pesos</t>
+          <t>😂😂😂😂😂😂</t>
         </is>
       </c>
       <c r="G80" s="2" t="n">
-        <v>45898.14574074074</v>
+        <v>45898.72849537037</v>
       </c>
       <c r="H80" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>03:29:52</t>
+          <t>17:29:02</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -4820,7 +4819,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543844556375884565', 'createTime': 1756438192, 'createTimeISO': '2025-08-29T03:29:52.000Z', 'text': '500 pesos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7361243678276862981', 'uniqueId': 'goku_black_ssj7', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/88cbf62961619cec67f6312af0ad8572~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fbeef8a8&amp;x-expires=1758938400&amp;x-signature=ZHVxWPlRoAJWXqeS9TflPY1Arec%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544060796957344520', 'createTime': 1756488542, 'createTimeISO': '2025-08-29T17:29:02.000Z', 'text': '😂😂😂😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6802768599922705414', 'uniqueId': 'magartoooo', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/102836253e88780f4b5a6a3a56f9a879~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a9d2a490&amp;x-expires=1758942000&amp;x-signature=LcvdIND%2Fm7KE3m6poZF4uv7Rn74%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4846,18 +4845,18 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>😂😂😂😂😂está familia es mero parche 🥰🥰🥰🥰</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G81" s="2" t="n">
-        <v>45898.10989583333</v>
+        <v>45901.15961805556</v>
       </c>
       <c r="H81" s="3" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>02:38:15</t>
+          <t>03:49:51</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -4876,7 +4875,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543831256573166344', 'createTime': 1756435095, 'createTimeISO': '2025-08-29T02:38:15.000Z', 'text': '😂😂😂😂😂está familia es mero parche 🥰🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7161148846960526341', 'uniqueId': 'jairogonzalez403', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/d9715165d35dd21f26b4fdfd891fdb10~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=66d297c7&amp;x-expires=1758938400&amp;x-signature=uJooZ4AuAGgBJhjTw9bX2zyptHo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544962940000125703', 'createTime': 1756698591, 'createTimeISO': '2025-09-01T03:49:51.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7041604268545213446', 'uniqueId': 'trini2845', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7329666165805056005~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9ac91634&amp;x-expires=1758942000&amp;x-signature=1blgmtsdKX5yP8r%2FYhClvUR3Syk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4902,18 +4901,18 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Ay no más esta pareja... por favor 🙏🏻</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G82" s="2" t="n">
-        <v>45901.17248842592</v>
+        <v>45898.78163194445</v>
       </c>
       <c r="H82" s="3" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>04:08:23</t>
+          <t>18:45:33</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -4932,7 +4931,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544967737258214165', 'createTime': 1756699703, 'createTimeISO': '2025-09-01T04:08:23.000Z', 'text': 'Ay no más esta pareja... por favor 🙏🏻', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7453035451433649157', 'uniqueId': 'video.maniatico', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/29700fdaba770922552666df5a689b69~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=10bc86a9&amp;x-expires=1758938400&amp;x-signature=vkdatShlumb88Irl%2BELOrJGxQW4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544080522114056967', 'createTime': 1756493133, 'createTimeISO': '2025-08-29T18:45:33.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7385583629287031814', 'uniqueId': 'maria733736', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7393385640849014789~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=538d338d&amp;x-expires=1758942000&amp;x-signature=whuluvg05kdKurnJMYuHqGRd%2BgI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4958,18 +4957,18 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>más tacaño Alpina..que tiene como 1000 productos 😂 macarena es las + siempre con su hermana..</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G83" s="2" t="n">
-        <v>45898.43773148148</v>
+        <v>45898.28508101852</v>
       </c>
       <c r="H83" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>10:30:20</t>
+          <t>06:50:31</t>
         </is>
       </c>
       <c r="J83" t="n">
@@ -4988,7 +4987,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543952908174983954', 'createTime': 1756463420, 'createTimeISO': '2025-08-29T10:30:20.000Z', 'text': 'más tacaño Alpina..que tiene como 1000 productos 😂 macarena es las + siempre con su hermana..', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7216381209982714885', 'uniqueId': 'lorenaprieto6741', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7216695720051474438~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6a0cfcfd&amp;x-expires=1758938400&amp;x-signature=DrcalnXjhi%2BP%2BRh44Wa41bZxd3M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543896269341639441', 'createTime': 1756450231, 'createTimeISO': '2025-08-29T06:50:31.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6887345848322229253', 'uniqueId': 'arturocasas12', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/b903965779ed35c511c0f65714d0c97a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=791e1b25&amp;x-expires=1758942000&amp;x-signature=0VwASQlkDmHxlpwS3yemPQn3c30%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5014,18 +5013,18 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>muyyy bueno</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G84" s="2" t="n">
-        <v>45897.91451388889</v>
+        <v>45901.19560185185</v>
       </c>
       <c r="H84" s="3" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>21:56:54</t>
+          <t>04:41:40</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -5044,7 +5043,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543758718782391047', 'createTime': 1756418214, 'createTimeISO': '2025-08-28T21:56:54.000Z', 'text': 'muyyy bueno', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7116377848378819590', 'uniqueId': 'gustavoadolfogome321', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/55c5b547fb56812f3de76c062bb5c0e9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e2c1f7ca&amp;x-expires=1758938400&amp;x-signature=bnEF5sT2e8xP98Pg3EfzXddj1gY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544975054862680833', 'createTime': 1756701700, 'createTimeISO': '2025-09-01T04:41:40.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7493237061370381367', 'uniqueId': 'criss94gomez', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/40e12bc2d094d5b4df5608d022edf652~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b525d3b4&amp;x-expires=1758942000&amp;x-signature=4BvBje6EF2QY%2FRLmCM08Fv6jOsU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5070,18 +5069,18 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>jajajajajajaja</t>
+          <t>❤️</t>
         </is>
       </c>
       <c r="G85" s="2" t="n">
-        <v>45897.96659722222</v>
+        <v>45898.5571875</v>
       </c>
       <c r="H85" s="3" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>23:11:54</t>
+          <t>13:22:21</t>
         </is>
       </c>
       <c r="J85" t="n">
@@ -5100,7 +5099,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543778033615454994', 'createTime': 1756422714, 'createTimeISO': '2025-08-28T23:11:54.000Z', 'text': 'jajajajajajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6891076091470447621', 'uniqueId': 'liligiraldo7', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7323082921386967041~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8f68e895&amp;x-expires=1758938400&amp;x-signature=V0%2B%2BfXMOlXQxGCw1qLQwQ0g2opI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543997237782889223', 'createTime': 1756473741, 'createTimeISO': '2025-08-29T13:22:21.000Z', 'text': '❤️', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6649199663865430021', 'uniqueId': 'elliicalvo', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7329354599511359493~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b61fcb83&amp;x-expires=1758942000&amp;x-signature=PwhUg4P2uVAkWSFI2oXomA4WkJw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5126,18 +5125,18 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>😂😂jjj me izo el diaa😅😅</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G86" s="2" t="n">
-        <v>45897.96887731482</v>
+        <v>45898.07958333333</v>
       </c>
       <c r="H86" s="3" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>23:15:11</t>
+          <t>01:54:36</t>
         </is>
       </c>
       <c r="J86" t="n">
@@ -5156,7 +5155,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543778873381978888', 'createTime': 1756422911, 'createTimeISO': '2025-08-28T23:15:11.000Z', 'text': '😂😂jjj me izo el diaa😅😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6989367375356642310', 'uniqueId': 'samuelzambrano7408', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/30d5ca2402d190e506f40905a28e3ee6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6fa3ea93&amp;x-expires=1758938400&amp;x-signature=2GzT6KOchUUOPAF7PuCWsDDAchM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543819976118698760', 'createTime': 1756432476, 'createTimeISO': '2025-08-29T01:54:36.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7367026897299506182', 'uniqueId': 'gisseth.ortiz.pei', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/61dc4b7955b50e83f41292e4f2ad0b6d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=32379d58&amp;x-expires=1758942000&amp;x-signature=Hkwb2pXdtRUpwEtyZd%2FGQ3hLMj8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5182,18 +5181,18 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>jajaja</t>
+          <t>☺️</t>
         </is>
       </c>
       <c r="G87" s="2" t="n">
-        <v>45898.04145833333</v>
+        <v>45901.16471064815</v>
       </c>
       <c r="H87" s="3" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>00:59:42</t>
+          <t>03:57:11</t>
         </is>
       </c>
       <c r="J87" t="n">
@@ -5212,7 +5211,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543805849547490055', 'createTime': 1756429182, 'createTimeISO': '2025-08-29T00:59:42.000Z', 'text': 'jajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6925210601737438213', 'uniqueId': 'charlizepaolavelasquez', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/8726c0b00f4fbc4e026c0b0a2f92b31a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c9231e58&amp;x-expires=1758938400&amp;x-signature=O9CnY4fdc%2FM44JIbgdoA1aLv%2FVc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544964843251532552', 'createTime': 1756699031, 'createTimeISO': '2025-09-01T03:57:11.000Z', 'text': '☺️', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7502083874290517000', 'uniqueId': 'its.kendris', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d1ce5ead6e802e099b423afff011875f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bc49df6d&amp;x-expires=1758942000&amp;x-signature=1lrkiX7xDUkVMt77pH9JpxrhnCU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5238,18 +5237,18 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>jajajaja</t>
+          <t>🥺</t>
         </is>
       </c>
       <c r="G88" s="2" t="n">
-        <v>45897.88975694445</v>
+        <v>45898.52627314815</v>
       </c>
       <c r="H88" s="3" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>21:21:15</t>
+          <t>12:37:50</t>
         </is>
       </c>
       <c r="J88" t="n">
@@ -5268,7 +5267,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543749555402900230', 'createTime': 1756416075, 'createTimeISO': '2025-08-28T21:21:15.000Z', 'text': 'jajajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6943935807405687813', 'uniqueId': 'cardenas..rincon', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/b1bdb94038d46fc2bb6863a59307a3d0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=26133139&amp;x-expires=1758938400&amp;x-signature=d6VwOur7qFdMQoW%2FABRafC4XCGI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543985775659631368', 'createTime': 1756471070, 'createTimeISO': '2025-08-29T12:37:50.000Z', 'text': '🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7521424413474309126', 'uniqueId': 'ferney3002', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a24e60b4&amp;x-expires=1758942000&amp;x-signature=5KcGkCrPEjW%2FIGsBAA2AX3wgP54%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5294,18 +5293,18 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>tiene más vitaminas un frutiño</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G89" s="2" t="n">
-        <v>45897.84267361111</v>
+        <v>45898.78260416666</v>
       </c>
       <c r="H89" s="3" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>20:13:27</t>
+          <t>18:46:57</t>
         </is>
       </c>
       <c r="J89" t="n">
@@ -5324,7 +5323,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543730952532116231', 'createTime': 1756412007, 'createTimeISO': '2025-08-28T20:13:27.000Z', 'text': 'tiene más vitaminas un frutiño', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7477306956036047879', 'uniqueId': 'user63481217048', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b5239a5d82942ffdb1a822fefe7a1984~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=808e735c&amp;x-expires=1758938400&amp;x-signature=jjcLJux6BAEjPcd18R%2FFq2PCJ68%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544080867091448584', 'createTime': 1756493217, 'createTimeISO': '2025-08-29T18:46:57.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7358176353797440517', 'uniqueId': 'mi.sofi.c..castil', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7358178673930797062~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2ef5b634&amp;x-expires=1758942000&amp;x-signature=2j0vPqOF2jDasL%2Fm5Jw7zMi%2B7iM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5350,18 +5349,18 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Esto si es una verdadera publicidad jajaja</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G90" s="2" t="n">
-        <v>45897.98731481482</v>
+        <v>45901.1919212963</v>
       </c>
       <c r="H90" s="3" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>23:41:44</t>
+          <t>04:36:22</t>
         </is>
       </c>
       <c r="J90" t="n">
@@ -5380,7 +5379,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543785701952504597', 'createTime': 1756424504, 'createTimeISO': '2025-08-28T23:41:44.000Z', 'text': 'Esto si es una verdadera publicidad jajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6963973102960198662', 'uniqueId': 'cristhianforero20', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7333258110133993478~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8f132a77&amp;x-expires=1758938400&amp;x-signature=ckuW20vTSFMngNih9znua4%2BHl7Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544974944330892052', 'createTime': 1756701382, 'createTimeISO': '2025-09-01T04:36:22.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7347007246134363141', 'uniqueId': 'carlos.andres.car491', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7347008785192747014~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c454f2f0&amp;x-expires=1758942000&amp;x-signature=ZHL5tiqGiv4eJXAcJJPSmuyPXbE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5406,18 +5405,18 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>jajaja probre Macarena</t>
+          <t>😆😆😆😆🤣😂🤣</t>
         </is>
       </c>
       <c r="G91" s="2" t="n">
-        <v>45897.93824074074</v>
+        <v>45897.81292824074</v>
       </c>
       <c r="H91" s="3" t="n">
         <v>45897</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>22:31:04</t>
+          <t>19:30:37</t>
         </is>
       </c>
       <c r="J91" t="n">
@@ -5436,7 +5435,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543767542276424456', 'createTime': 1756420264, 'createTimeISO': '2025-08-28T22:31:04.000Z', 'text': 'jajaja probre Macarena', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6942255491728851974', 'uniqueId': 'creacioneswolfstreet', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/16fdda3723b25f7d14b1d30c719a1269~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a68a8c4e&amp;x-expires=1758938400&amp;x-signature=elBJ1dLX%2BbV%2Bvr%2Fd433pFojXoSo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543721003379606293', 'createTime': 1756409437, 'createTimeISO': '2025-08-28T19:30:37.000Z', 'text': '😆😆😆😆🤣😂🤣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6603930091972378630', 'uniqueId': 'thruan', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5513a757ccbe498b7dc8e5d78c898c70~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=37e5a6fb&amp;x-expires=1758942000&amp;x-signature=dolD47wIvF%2BixxBwBw8FCnJoYG4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5462,18 +5461,18 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>pero de la twin nadie habla verdad?</t>
+          <t>😁😁</t>
         </is>
       </c>
       <c r="G92" s="2" t="n">
-        <v>45897.99590277778</v>
+        <v>45897.86611111111</v>
       </c>
       <c r="H92" s="3" t="n">
         <v>45897</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>23:54:06</t>
+          <t>20:47:12</t>
         </is>
       </c>
       <c r="J92" t="n">
@@ -5492,7 +5491,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543788921436979986', 'createTime': 1756425246, 'createTimeISO': '2025-08-28T23:54:06.000Z', 'text': 'pero de la twin nadie habla verdad?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7329675056781542406', 'uniqueId': 'theworldisyours.21', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/53bbaa56af754f985e96f3bda2274ec5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3cf2b285&amp;x-expires=1758938400&amp;x-signature=H36vCU6dXq8QASoDG5ungve6yYM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543740731396997895', 'createTime': 1756414032, 'createTimeISO': '2025-08-28T20:47:12.000Z', 'text': '😁😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7090357063431816198', 'uniqueId': 'jennifermontesinos97', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a2eb10656836495cbe5654ed4f0deea7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5d2c8031&amp;x-expires=1758942000&amp;x-signature=iqRt2fHTBaoaW0Bndpon4E5SmvY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5518,18 +5517,18 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>😭😭😭🤣🤣🤣🤣🤣</t>
+          <t>jajaja</t>
         </is>
       </c>
       <c r="G93" s="2" t="n">
-        <v>45897.80427083333</v>
+        <v>45898.87028935185</v>
       </c>
       <c r="H93" s="3" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>19:18:09</t>
+          <t>20:53:13</t>
         </is>
       </c>
       <c r="J93" t="n">
@@ -5548,7 +5547,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543717823815205639', 'createTime': 1756408689, 'createTimeISO': '2025-08-28T19:18:09.000Z', 'text': '😭😭😭🤣🤣🤣🤣🤣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7002646107146732549', 'uniqueId': 'edwinpinzon997', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e5b31c14c67559ed0a2597e3084032ef~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e588fe90&amp;x-expires=1758938400&amp;x-signature=1kKbEP2bnv%2BoStLwLKpCUKAuRdY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544113385538470677', 'createTime': 1756500793, 'createTimeISO': '2025-08-29T20:53:13.000Z', 'text': 'jajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7486475348125991944', 'uniqueId': 'fiorelagutierrez88', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3a7cbfaa7662a5749dd026193bd218c8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0472f4cd&amp;x-expires=1758942000&amp;x-signature=%2FITUN9BtL%2BV21wilyef1jVrxTLg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5574,18 +5573,18 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>😁😁</t>
+          <t>jajaja la amo</t>
         </is>
       </c>
       <c r="G94" s="2" t="n">
-        <v>45897.86611111111</v>
+        <v>45901.15336805556</v>
       </c>
       <c r="H94" s="3" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>20:47:12</t>
+          <t>03:40:51</t>
         </is>
       </c>
       <c r="J94" t="n">
@@ -5604,7 +5603,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543740731396997895', 'createTime': 1756414032, 'createTimeISO': '2025-08-28T20:47:12.000Z', 'text': '😁😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7090357063431816198', 'uniqueId': 'jennifermontesinos97', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a2eb10656836495cbe5654ed4f0deea7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c1f9c17d&amp;x-expires=1758938400&amp;x-signature=vkEv3fU2k9%2Bi6acRYPq8%2B73CNyM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544960650213475080', 'createTime': 1756698051, 'createTimeISO': '2025-09-01T03:40:51.000Z', 'text': 'jajaja la amo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808552856863474694', 'uniqueId': 'lajhonss', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7321016335261401094~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dbf9e671&amp;x-expires=1758942000&amp;x-signature=ox3%2F9qGIpPqb36FL%2Brzskjqzrhg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5630,18 +5629,18 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>🤣🤣🤣🤣🤣🤣</t>
+          <t>JAJAJAJAJA JAJA JAJAJAJAJA</t>
         </is>
       </c>
       <c r="G95" s="2" t="n">
-        <v>45897.81458333333</v>
+        <v>45898.086875</v>
       </c>
       <c r="H95" s="3" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>19:33:00</t>
+          <t>02:05:06</t>
         </is>
       </c>
       <c r="J95" t="n">
@@ -5660,7 +5659,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543721635028812565', 'createTime': 1756409580, 'createTimeISO': '2025-08-28T19:33:00.000Z', 'text': '🤣🤣🤣🤣🤣🤣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6810573415897515014', 'uniqueId': 'user47544959', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/c6d73804d66dc173ae6eff0fd4d5f987~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=25a6f0d6&amp;x-expires=1758938400&amp;x-signature=WJI61BLmjWz%2FR1vZXZCJmdP9OuE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543822699211539217', 'createTime': 1756433106, 'createTimeISO': '2025-08-29T02:05:06.000Z', 'text': 'JAJAJAJAJA JAJA JAJAJAJAJA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6691628366392656901', 'uniqueId': 'valentinamolano22', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2d30367e578b8b0276995fda6797d485~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=baec2d5d&amp;x-expires=1758942000&amp;x-signature=%2B1Y6gWlaZO3UpjeDhd42Pagatjs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5686,18 +5685,18 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>☺️</t>
+          <t>jajajajajja que buena publicidad 😅😅😅</t>
         </is>
       </c>
       <c r="G96" s="2" t="n">
-        <v>45901.16471064815</v>
+        <v>45898.87575231482</v>
       </c>
       <c r="H96" s="3" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>03:57:11</t>
+          <t>21:01:05</t>
         </is>
       </c>
       <c r="J96" t="n">
@@ -5716,7 +5715,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544964843251532552', 'createTime': 1756699031, 'createTimeISO': '2025-09-01T03:57:11.000Z', 'text': '☺️', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7502083874290517000', 'uniqueId': 'its.kendris', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d1ce5ead6e802e099b423afff011875f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7e89906c&amp;x-expires=1758938400&amp;x-signature=vqkbc%2Bm87Yi22ymWnSsgB1Ygsxo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544115411521504020', 'createTime': 1756501265, 'createTimeISO': '2025-08-29T21:01:05.000Z', 'text': 'jajajajajja que buena publicidad 😅😅😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7377539328119391238', 'uniqueId': 'zorock60', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/37dccd8e3347409801ebde82e4bb63d6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8046d030&amp;x-expires=1758942000&amp;x-signature=ofenOuaOwlJ5nwteKdVADTjriGk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5742,18 +5741,18 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>😆😆😆😆🤣😂🤣</t>
+          <t>jajajaja 😅</t>
         </is>
       </c>
       <c r="G97" s="2" t="n">
-        <v>45897.81292824074</v>
+        <v>45901.17644675926</v>
       </c>
       <c r="H97" s="3" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>19:30:37</t>
+          <t>04:14:05</t>
         </is>
       </c>
       <c r="J97" t="n">
@@ -5772,7 +5771,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543721003379606293', 'createTime': 1756409437, 'createTimeISO': '2025-08-28T19:30:37.000Z', 'text': '😆😆😆😆🤣😂🤣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6603930091972378630', 'uniqueId': 'thruan', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5513a757ccbe498b7dc8e5d78c898c70~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e99de8bb&amp;x-expires=1758938400&amp;x-signature=p2AhCWsxNANwxIf1Kw5EEYVirLc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544969207436968722', 'createTime': 1756700045, 'createTimeISO': '2025-09-01T04:14:05.000Z', 'text': 'jajajaja 😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7467390779994096647', 'uniqueId': 'jairobelez', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f1a5f8f80bd8e3d131798a5e03e83276~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ddb6eba5&amp;x-expires=1758942000&amp;x-signature=YdhUzcmonWEQ7GzpgHbzpF0Z9T8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5798,18 +5797,18 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>Jajajaj jajajaj jajajaj jajajaj jajajaj 😂😁😂😂JAJAJAJA</t>
         </is>
       </c>
       <c r="G98" s="2" t="n">
-        <v>45901.1919212963</v>
+        <v>45901.17628472222</v>
       </c>
       <c r="H98" s="3" t="n">
         <v>45901</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>04:36:22</t>
+          <t>04:13:51</t>
         </is>
       </c>
       <c r="J98" t="n">
@@ -5828,7 +5827,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544974944330892052', 'createTime': 1756701382, 'createTimeISO': '2025-09-01T04:36:22.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7347007246134363141', 'uniqueId': 'carlos.andres.car491', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7347008785192747014~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=87b06c6f&amp;x-expires=1758938400&amp;x-signature=xXyrsIZuVEAWBp8S2KULE4Io7Mo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544969150667375368', 'createTime': 1756700031, 'createTimeISO': '2025-09-01T04:13:51.000Z', 'text': 'Jajajaj jajajaj jajajaj jajajaj jajajaj 😂😁😂😂JAJAJAJA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7066990342021776386', 'uniqueId': 'linavilla1120', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e21aa4b051a88fb4425bc54af303ce7b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f45b31a6&amp;x-expires=1758942000&amp;x-signature=D9W8GNee%2Bu38rDAOXPuwBMtjG78%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5854,18 +5853,18 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>Me he reído con este vídeo 😂😁😂</t>
         </is>
       </c>
       <c r="G99" s="2" t="n">
-        <v>45898.69503472222</v>
+        <v>45898.72846064815</v>
       </c>
       <c r="H99" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>16:40:51</t>
+          <t>17:28:59</t>
         </is>
       </c>
       <c r="J99" t="n">
@@ -5884,7 +5883,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544048394835903250', 'createTime': 1756485651, 'createTimeISO': '2025-08-29T16:40:51.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7247888462757282822', 'uniqueId': 'yefrid_666', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/837084c3c38814caeddccb64086747da~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d4f049ba&amp;x-expires=1758938400&amp;x-signature=cu%2FIz%2FHdN7%2F5VPG4NrUhtMNHShU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544060786303058706', 'createTime': 1756488539, 'createTimeISO': '2025-08-29T17:28:59.000Z', 'text': '𝕄𝕖 𝕙𝕖 𝕣𝕖í𝕕𝕠 𝕔𝕠𝕟 𝕖𝕤𝕥𝕖 𝕧í𝕕𝕖𝕠 😂😁😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6995167434010788869', 'uniqueId': 'y.c.z.m.6', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/73039f06f56dae3995aeaee20b0c0484~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d21946b2&amp;x-expires=1758942000&amp;x-signature=KCKEC5N%2BTO0PZtTlVRO1KlhkT0c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5910,18 +5909,18 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>así me dijo mi hijo 😂😂😂😂 un día 😂</t>
         </is>
       </c>
       <c r="G100" s="2" t="n">
-        <v>45901.15879629629</v>
+        <v>45898.18622685185</v>
       </c>
       <c r="H100" s="3" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>03:48:40</t>
+          <t>04:28:10</t>
         </is>
       </c>
       <c r="J100" t="n">
@@ -5940,7 +5939,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544962648610554641', 'createTime': 1756698520, 'createTimeISO': '2025-09-01T03:48:40.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7387235363183887366', 'uniqueId': 'luz.stella.sarque', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7387235696954015750~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7ff972be&amp;x-expires=1758938400&amp;x-signature=ixeeA%2FIIQKcZUY0WyxTBmBbhuBA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543859582461920018', 'createTime': 1756441690, 'createTimeISO': '2025-08-29T04:28:10.000Z', 'text': 'así me dijo mi hijo 😂😂😂😂 un día 😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7165660730330547206', 'uniqueId': 'tuberquiayuri', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/5e228100d54e96cf3dbf5c111c2949c3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ad411a09&amp;x-expires=1758942000&amp;x-signature=rR6J6O%2BjkMby%2FPFaF0q4kWqt%2BIg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5966,18 +5965,18 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>ya se me iban a salir las lágrimas 🥺 hasta que vi el final 🤭😂😂😂😂</t>
         </is>
       </c>
       <c r="G101" s="2" t="n">
-        <v>45898.15490740741</v>
+        <v>45901.15934027778</v>
       </c>
       <c r="H101" s="3" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>03:43:04</t>
+          <t>03:49:27</t>
         </is>
       </c>
       <c r="J101" t="n">
@@ -5996,7 +5995,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543847952298476295', 'createTime': 1756438984, 'createTimeISO': '2025-08-29T03:43:04.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6819354774875718662', 'uniqueId': 'valentinajimenez017', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/004b17a2d934eb19d8618f13589fe6a5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=94677b2a&amp;x-expires=1758938400&amp;x-signature=4kBWulfjRwNrTJ1XlUJPStRc%2B1A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544962867649708807', 'createTime': 1756698567, 'createTimeISO': '2025-09-01T03:49:27.000Z', 'text': 'ya se me iban a salir las lágrimas 🥺 hasta que vi el final 🤭😂😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7388375259051230214', 'uniqueId': 'bibi_moraless1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7388376089162678278~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=61281e76&amp;x-expires=1758942000&amp;x-signature=dxVmfykGRPsAZ0KXmcRUHWqTNfg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6022,18 +6021,18 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>jajajajajajaja</t>
         </is>
       </c>
       <c r="G102" s="2" t="n">
-        <v>45901.19524305555</v>
+        <v>45897.96659722222</v>
       </c>
       <c r="H102" s="3" t="n">
-        <v>45901</v>
+        <v>45897</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>04:41:09</t>
+          <t>23:11:54</t>
         </is>
       </c>
       <c r="J102" t="n">
@@ -6052,7 +6051,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544976159621251841', 'createTime': 1756701669, 'createTimeISO': '2025-09-01T04:41:09.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7019452278974596102', 'uniqueId': 'elsaaguilar946', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7336524909478313989~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=251f0891&amp;x-expires=1758938400&amp;x-signature=O6ADngsH%2Fs0HND4zQrhYa7117ns%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543778033615454994', 'createTime': 1756422714, 'createTimeISO': '2025-08-28T23:11:54.000Z', 'text': 'jajajajajajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6891076091470447621', 'uniqueId': 'liligiraldo7', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7323082921386967041~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5fc5e3c1&amp;x-expires=1758942000&amp;x-signature=7dr0IhOnpVTFIlampYEVz%2BxYs8o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6078,18 +6077,18 @@
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>jajaja</t>
         </is>
       </c>
       <c r="G103" s="2" t="n">
-        <v>45901.18578703704</v>
+        <v>45898.04145833333</v>
       </c>
       <c r="H103" s="3" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>04:27:32</t>
+          <t>00:59:42</t>
         </is>
       </c>
       <c r="J103" t="n">
@@ -6108,7 +6107,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544972682048275221', 'createTime': 1756700852, 'createTimeISO': '2025-09-01T04:27:32.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7189581503940445190', 'uniqueId': 'kerwinozuna99', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/c167205ef39bbf52f691a3e39d4fd12d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=674f614c&amp;x-expires=1758938400&amp;x-signature=7bgVQ%2BQiov1orQzTsynkuGcsA6w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543805849547490055', 'createTime': 1756429182, 'createTimeISO': '2025-08-29T00:59:42.000Z', 'text': 'jajaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6925210601737438213', 'uniqueId': 'charlizepaolavelasquez', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/8726c0b00f4fbc4e026c0b0a2f92b31a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9bcaa026&amp;x-expires=1758942000&amp;x-signature=FfHEsLY3V5c1Pp%2Flg7U3RvKprz0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6134,18 +6133,19 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>😳</t>
+          <t>🥺
+OMG 😮</t>
         </is>
       </c>
       <c r="G104" s="2" t="n">
-        <v>45897.88504629629</v>
+        <v>45901.18886574074</v>
       </c>
       <c r="H104" s="3" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>21:14:28</t>
+          <t>04:31:58</t>
         </is>
       </c>
       <c r="J104" t="n">
@@ -6164,7 +6164,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543747747888562952', 'createTime': 1756415668, 'createTimeISO': '2025-08-28T21:14:28.000Z', 'text': '😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7340709942830138374', 'uniqueId': 'jhoser113344', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/dbc7dd39d7dabdc34ed7e080acd5a5e5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=587c4474&amp;x-expires=1758938400&amp;x-signature=LNzKqojVjwvkptVN1zqAkKg4qDE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544973798882329361', 'createTime': 1756701118, 'createTimeISO': '2025-09-01T04:31:58.000Z', 'text': '🥺\nOMG 😮', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7062408947605062661', 'uniqueId': 'usern1k0h122xd', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7072758453260779526~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=36c91008&amp;x-expires=1758942000&amp;x-signature=A20Vej1AXSmE4QzJ4H80XctF3dY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6190,18 +6190,18 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
         <is>
-          <t>☺️</t>
+          <t>tiene más vitaminas un frutiño</t>
         </is>
       </c>
       <c r="G105" s="2" t="n">
-        <v>45898.60232638889</v>
+        <v>45897.84267361111</v>
       </c>
       <c r="H105" s="3" t="n">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>14:27:21</t>
+          <t>20:13:27</t>
         </is>
       </c>
       <c r="J105" t="n">
@@ -6220,7 +6220,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544013993184477970', 'createTime': 1756477641, 'createTimeISO': '2025-08-29T14:27:21.000Z', 'text': '☺️', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6784244679715931142', 'uniqueId': 'karinafranco75', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c95774eafe0deb2b0db2e99163d97e6b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d0e52eeb&amp;x-expires=1758938400&amp;x-signature=ZtdkZ3pm%2FPZVF765FKWq5xCfKQM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543730952532116231', 'createTime': 1756412007, 'createTimeISO': '2025-08-28T20:13:27.000Z', 'text': 'tiene más vitaminas un frutiño', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7477306956036047879', 'uniqueId': 'user63481217048', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b5239a5d82942ffdb1a822fefe7a1984~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=da8b9c26&amp;x-expires=1758942000&amp;x-signature=hj3jOuAdhh%2F5oWZ24qHumu2%2BRIk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6246,18 +6246,18 @@
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr">
         <is>
-          <t>😍</t>
+          <t>jajaja probre Macarena</t>
         </is>
       </c>
       <c r="G106" s="2" t="n">
-        <v>45901.1919212963</v>
+        <v>45897.93824074074</v>
       </c>
       <c r="H106" s="3" t="n">
-        <v>45901</v>
+        <v>45897</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>04:36:22</t>
+          <t>22:31:04</t>
         </is>
       </c>
       <c r="J106" t="n">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544974946951774997', 'createTime': 1756701382, 'createTimeISO': '2025-09-01T04:36:22.000Z', 'text': '😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7347007246134363141', 'uniqueId': 'carlos.andres.car491', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7347008785192747014~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=87b06c6f&amp;x-expires=1758938400&amp;x-signature=xXyrsIZuVEAWBp8S2KULE4Io7Mo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543767542276424456', 'createTime': 1756420264, 'createTimeISO': '2025-08-28T22:31:04.000Z', 'text': 'jajaja probre Macarena', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6942255491728851974', 'uniqueId': 'creacioneswolfstreet', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/16fdda3723b25f7d14b1d30c719a1269~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a11fa81b&amp;x-expires=1758942000&amp;x-signature=C6WYiitMU3WPTFHOlf4ZmoT3nXk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6302,18 +6302,18 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>😂😂😂</t>
         </is>
       </c>
       <c r="G107" s="2" t="n">
-        <v>45898.78260416666</v>
+        <v>45898.57651620371</v>
       </c>
       <c r="H107" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>18:46:57</t>
+          <t>13:50:11</t>
         </is>
       </c>
       <c r="J107" t="n">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544080867091448584', 'createTime': 1756493217, 'createTimeISO': '2025-08-29T18:46:57.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7358176353797440517', 'uniqueId': 'mi.sofi.c..castil', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7358178673930797062~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f7abf1b7&amp;x-expires=1758938400&amp;x-signature=FRXStN9Lt9vrhVf2x33Txr5OdHs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544004421504680712', 'createTime': 1756475411, 'createTimeISO': '2025-08-29T13:50:11.000Z', 'text': '😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7009063585499169798', 'uniqueId': 'dy4vvk08evks', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7322166875545141254~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8f9ce14f&amp;x-expires=1758942000&amp;x-signature=11hzs4dU%2BAkdbwmRsyhj0PWCzPA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6358,18 +6358,18 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>😂😂😂😂</t>
         </is>
       </c>
       <c r="G108" s="2" t="n">
-        <v>45898.78163194445</v>
+        <v>45898.08221064815</v>
       </c>
       <c r="H108" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>18:45:33</t>
+          <t>01:58:23</t>
         </is>
       </c>
       <c r="J108" t="n">
@@ -6388,7 +6388,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544080522114056967', 'createTime': 1756493133, 'createTimeISO': '2025-08-29T18:45:33.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7385583629287031814', 'uniqueId': 'maria733736', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7393385640849014789~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bf8c87bb&amp;x-expires=1758938400&amp;x-signature=tpunwiXaJ%2F%2FoJ5wMhJpBM2zXaKA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543820989268837128', 'createTime': 1756432703, 'createTimeISO': '2025-08-29T01:58:23.000Z', 'text': '😂😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6588253150824988678', 'uniqueId': 'yenyperez1989', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7328153938448596997~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=69a9ed39&amp;x-expires=1758942000&amp;x-signature=sxHLF0vfJdyP6krWT39eZL3lJ%2BI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6414,18 +6414,18 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
         <is>
-          <t>😂😂😂😂😂😂</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G109" s="2" t="n">
-        <v>45898.72849537037</v>
+        <v>45898.59262731481</v>
       </c>
       <c r="H109" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>17:29:02</t>
+          <t>14:13:23</t>
         </is>
       </c>
       <c r="J109" t="n">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544060796957344520', 'createTime': 1756488542, 'createTimeISO': '2025-08-29T17:29:02.000Z', 'text': '😂😂😂😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6802768599922705414', 'uniqueId': 'magartoooo', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/102836253e88780f4b5a6a3a56f9a879~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9d4b4447&amp;x-expires=1758938400&amp;x-signature=hYlSHNqezZcpVPyv%2FP0FyIeHBmo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544010392751981319', 'createTime': 1756476803, 'createTimeISO': '2025-08-29T14:13:23.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7100929438111826949', 'uniqueId': 'pablo.castillo.ra4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ae71bee67858019a6deeeae7173f4f63~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3b91655d&amp;x-expires=1758942000&amp;x-signature=5KcSkJWf5KVwEO2TElmzsLRvtOE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6470,18 +6470,18 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
         <is>
-          <t>😍</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G110" s="2" t="n">
-        <v>45901.15962962963</v>
+        <v>45898.58490740741</v>
       </c>
       <c r="H110" s="3" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>03:49:52</t>
+          <t>14:02:16</t>
         </is>
       </c>
       <c r="J110" t="n">
@@ -6500,7 +6500,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544962966270149384', 'createTime': 1756698592, 'createTimeISO': '2025-09-01T03:49:52.000Z', 'text': '😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7249949050463699973', 'uniqueId': '_santtiagocc', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/94030a752ab60e0a57045f6b026e2f0f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=32547bb4&amp;x-expires=1758938400&amp;x-signature=mGClW8CfECFxw%2FfdW4Y6GdLVnPM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544007541710127880', 'createTime': 1756476136, 'createTimeISO': '2025-08-29T14:02:16.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6824631989614724102', 'uniqueId': 'eileenmanuelasilva', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7329578455149772806~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=82350085&amp;x-expires=1758942000&amp;x-signature=2t7U%2B6AlypZfZfVownGowtYrY%2FE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6526,18 +6526,18 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
         <is>
-          <t>😅</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G111" s="2" t="n">
-        <v>45898.60908564815</v>
+        <v>45898.07966435186</v>
       </c>
       <c r="H111" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>14:37:05</t>
+          <t>01:54:43</t>
         </is>
       </c>
       <c r="J111" t="n">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544016512688931602', 'createTime': 1756478225, 'createTimeISO': '2025-08-29T14:37:05.000Z', 'text': '😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7365270616909464582', 'uniqueId': 'alexander.monsalv65', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7369012692528398341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=42386540&amp;x-expires=1758938400&amp;x-signature=Y%2Bq6PMhTZJ3NvJFLKHKxJy%2Fj3LU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543820038105465607', 'createTime': 1756432483, 'createTimeISO': '2025-08-29T01:54:43.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7367026897299506182', 'uniqueId': 'gisseth.ortiz.pei', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/61dc4b7955b50e83f41292e4f2ad0b6d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=32379d58&amp;x-expires=1758942000&amp;x-signature=Hkwb2pXdtRUpwEtyZd%2FGQ3hLMj8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6582,18 +6582,18 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G112" s="2" t="n">
-        <v>45901.15961805556</v>
+        <v>45898.07962962963</v>
       </c>
       <c r="H112" s="3" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>03:49:51</t>
+          <t>01:54:40</t>
         </is>
       </c>
       <c r="J112" t="n">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544962940000125703', 'createTime': 1756698591, 'createTimeISO': '2025-09-01T03:49:51.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7041604268545213446', 'uniqueId': 'trini2845', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7329666165805056005~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=06e4dff0&amp;x-expires=1758938400&amp;x-signature=qoIpcZHxasRONUzhA0Odzb6iurU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543820009937404679', 'createTime': 1756432480, 'createTimeISO': '2025-08-29T01:54:40.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7367026897299506182', 'uniqueId': 'gisseth.ortiz.pei', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/61dc4b7955b50e83f41292e4f2ad0b6d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=32379d58&amp;x-expires=1758942000&amp;x-signature=Hkwb2pXdtRUpwEtyZd%2FGQ3hLMj8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6638,18 +6638,18 @@
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>🤣🤣🤣🤣🤣🤣</t>
         </is>
       </c>
       <c r="G113" s="2" t="n">
-        <v>45901.19560185185</v>
+        <v>45897.81458333333</v>
       </c>
       <c r="H113" s="3" t="n">
-        <v>45901</v>
+        <v>45897</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>04:41:40</t>
+          <t>19:33:00</t>
         </is>
       </c>
       <c r="J113" t="n">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544975054862680833', 'createTime': 1756701700, 'createTimeISO': '2025-09-01T04:41:40.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7493237061370381367', 'uniqueId': 'criss94gomez', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/40e12bc2d094d5b4df5608d022edf652~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b7b0a71e&amp;x-expires=1758938400&amp;x-signature=pR%2BTQBf9Ztzp0csCVWFmgjVfMC4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543721635028812565', 'createTime': 1756409580, 'createTimeISO': '2025-08-28T19:33:00.000Z', 'text': '🤣🤣🤣🤣🤣🤣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6810573415897515014', 'uniqueId': 'user47544959', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/c6d73804d66dc173ae6eff0fd4d5f987~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=538229fb&amp;x-expires=1758942000&amp;x-signature=R0hYwfw%2BfYiPuMsLTWY7Nm7UEEE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6694,18 +6694,18 @@
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>😂😂😂😂😂😂</t>
         </is>
       </c>
       <c r="G114" s="2" t="n">
-        <v>45898.65155092593</v>
+        <v>45898.0590625</v>
       </c>
       <c r="H114" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>15:38:14</t>
+          <t>01:25:03</t>
         </is>
       </c>
       <c r="J114" t="n">
@@ -6724,7 +6724,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544032224737805073', 'createTime': 1756481894, 'createTimeISO': '2025-08-29T15:38:14.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7144616224143803398', 'uniqueId': 'adrianoescorcia17', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/14673d4a7d940f70f969536ad15c8aac~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2eb2afd4&amp;x-expires=1758938400&amp;x-signature=MWNB3fYRQaRpZh2fXKGmiy5pKGQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543812366699627285', 'createTime': 1756430703, 'createTimeISO': '2025-08-29T01:25:03.000Z', 'text': '😂😂😂😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6817223370104833030', 'uniqueId': 'natasanabria28', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/180d5fa2696656b8785a858be58d00ba~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b6d93bbc&amp;x-expires=1758942000&amp;x-signature=TPLwnka5IzaBFVIVENA2N5A566E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6750,18 +6750,18 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr">
         <is>
-          <t>😭</t>
+          <t>😅🤣😂😅</t>
         </is>
       </c>
       <c r="G115" s="2" t="n">
-        <v>45898.6509375</v>
+        <v>45898.61447916667</v>
       </c>
       <c r="H115" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>15:37:21</t>
+          <t>14:44:51</t>
         </is>
       </c>
       <c r="J115" t="n">
@@ -6780,7 +6780,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544032036689511175', 'createTime': 1756481841, 'createTimeISO': '2025-08-29T15:37:21.000Z', 'text': '😭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6844675488985744390', 'uniqueId': 'ale_jandro420', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/df10584234ad7d312be5714f81151465~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e523e520&amp;x-expires=1758938400&amp;x-signature=VS1qB3gWDgdCONxFEPo4QwePh6c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544018511330919175', 'createTime': 1756478691, 'createTimeISO': '2025-08-29T14:44:51.000Z', 'text': '😅🤣😂😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6913884738988753925', 'uniqueId': 'user7051852675607', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1278149b8d74df0c479a4726772e9a46~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=77e67ed6&amp;x-expires=1758942000&amp;x-signature=gNjzxtITAKE8hQiyV%2FkyhVrvFT8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6806,18 +6806,18 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
         <is>
-          <t>🤗</t>
+          <t>🙏</t>
         </is>
       </c>
       <c r="G116" s="2" t="n">
-        <v>45901.15366898148</v>
+        <v>45898.383125</v>
       </c>
       <c r="H116" s="3" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>03:41:17</t>
+          <t>09:11:42</t>
         </is>
       </c>
       <c r="J116" t="n">
@@ -6836,7 +6836,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544960765703521031', 'createTime': 1756698077, 'createTimeISO': '2025-09-01T03:41:17.000Z', 'text': '🤗', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7292960759125591046', 'uniqueId': 'angiepaolaimbrech', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0fccaa31cc3837ec9876aa3a19b434c9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=05e33db4&amp;x-expires=1758938400&amp;x-signature=uk3cyi2XcZdlYnpxqwugN%2BDL1Q8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543932633618580232', 'createTime': 1756458702, 'createTimeISO': '2025-08-29T09:11:42.000Z', 'text': '🙏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7313820393788146693', 'uniqueId': 'la.morena22065', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/2f7c72aa615a6c5822f3499779360229~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6eb2f6d7&amp;x-expires=1758942000&amp;x-signature=vGqoFdaSiYeYPEsn9oI%2B1VUXov8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6862,18 +6862,18 @@
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
-          <t>😅</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G117" s="2" t="n">
-        <v>45898.62149305556</v>
+        <v>45898.08304398148</v>
       </c>
       <c r="H117" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>14:54:57</t>
+          <t>01:59:35</t>
         </is>
       </c>
       <c r="J117" t="n">
@@ -6892,7 +6892,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544021121268531975', 'createTime': 1756479297, 'createTimeISO': '2025-08-29T14:54:57.000Z', 'text': '😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7258318304334283782', 'uniqueId': 'geniferalejandrat', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/86ab3d96ad37a647458c70df78d624fa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f328f724&amp;x-expires=1758938400&amp;x-signature=wJGyFRTqXDqbATlOYY5eZl8s%2F%2FQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543821272800232200', 'createTime': 1756432775, 'createTimeISO': '2025-08-29T01:59:35.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7207274068466418693', 'uniqueId': 'reyrichardali', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/74aae96849cd72d9c00c5a9314aaa051~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bcc77b9d&amp;x-expires=1758942000&amp;x-signature=a8zCdOVl1WO6nYnH2TxWhRhlE2s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6918,18 +6918,18 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
         <is>
-          <t>😈</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G118" s="2" t="n">
-        <v>45901.14311342593</v>
+        <v>45897.95930555555</v>
       </c>
       <c r="H118" s="3" t="n">
-        <v>45901</v>
+        <v>45897</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>03:26:05</t>
+          <t>23:01:24</t>
         </is>
       </c>
       <c r="J118" t="n">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544956821336048391', 'createTime': 1756697165, 'createTimeISO': '2025-09-01T03:26:05.000Z', 'text': '😈', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6818973177252037637', 'uniqueId': 'aljaver07', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/6e390937f478b1079df5d8da266fbd12~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d0ddc586&amp;x-expires=1758938400&amp;x-signature=5Sr0vKXr8vLveC1cVuUmBs617mQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543775327660770066', 'createTime': 1756422084, 'createTimeISO': '2025-08-28T23:01:24.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6846172808315225093', 'uniqueId': 'claudiamarcelaace2', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/264406a69ff5a9d41f7def6eb5798f33~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b110108e&amp;x-expires=1758942000&amp;x-signature=gUhF%2B96Y7alymQGsBN0eolCxvgo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6974,18 +6974,18 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
         <is>
-          <t>😂😂😂😂😂😂</t>
+          <t>🙏</t>
         </is>
       </c>
       <c r="G119" s="2" t="n">
-        <v>45898.12428240741</v>
+        <v>45898.23296296296</v>
       </c>
       <c r="H119" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>02:58:58</t>
+          <t>05:35:28</t>
         </is>
       </c>
       <c r="J119" t="n">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543836583830389525', 'createTime': 1756436338, 'createTimeISO': '2025-08-29T02:58:58.000Z', 'text': '😂😂😂😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6842823164067972102', 'uniqueId': 'adrianamarcelarod23', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/71fb1bb0bf9436c58de05dd351c95de3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4fbd8e58&amp;x-expires=1758938400&amp;x-signature=tH6KX2amZgis9gqa1QrRUi8k6%2BE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543876895802295057', 'createTime': 1756445728, 'createTimeISO': '2025-08-29T05:35:28.000Z', 'text': '🙏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7158239291733918726', 'uniqueId': 'salotu1987', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/dbb24d265d5e1051bc0a1b2a746b3fdb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c3aa0dff&amp;x-expires=1758942000&amp;x-signature=NFEKVXQlRXH5ibrotJWYd8TelNQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7030,18 +7030,18 @@
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>🤗</t>
         </is>
       </c>
       <c r="G120" s="2" t="n">
-        <v>45901.19743055556</v>
+        <v>45898.59875</v>
       </c>
       <c r="H120" s="3" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>04:44:18</t>
+          <t>14:22:12</t>
         </is>
       </c>
       <c r="J120" t="n">
@@ -7060,7 +7060,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544977001938240263', 'createTime': 1756701858, 'createTimeISO': '2025-09-01T04:44:18.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7072373548631655430', 'uniqueId': 'hermanportillo787', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7345806969489326085~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=da1e91b4&amp;x-expires=1758938400&amp;x-signature=xtwdBgNxh5%2BseBGLWVipJd1pPlA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544012663447372552', 'createTime': 1756477332, 'createTimeISO': '2025-08-29T14:22:12.000Z', 'text': '🤗', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6790107422142481413', 'uniqueId': 'sandramilenaavila11', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ba31e085d11954cf4d8c694f139735c1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=474acd16&amp;x-expires=1758942000&amp;x-signature=6yDGQwgIYut5w8xSrqTJWx%2BhuaA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7086,18 +7086,18 @@
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr">
         <is>
-          <t>🤗</t>
+          <t>😅</t>
         </is>
       </c>
       <c r="G121" s="2" t="n">
-        <v>45898.59875</v>
+        <v>45898.60908564815</v>
       </c>
       <c r="H121" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>14:22:12</t>
+          <t>14:37:05</t>
         </is>
       </c>
       <c r="J121" t="n">
@@ -7116,7 +7116,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544012663447372552', 'createTime': 1756477332, 'createTimeISO': '2025-08-29T14:22:12.000Z', 'text': '🤗', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6790107422142481413', 'uniqueId': 'sandramilenaavila11', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ba31e085d11954cf4d8c694f139735c1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=56dfbaea&amp;x-expires=1758938400&amp;x-signature=u7qvdRwis2CpfenwXVwfBdc3dBw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544016512688931602', 'createTime': 1756478225, 'createTimeISO': '2025-08-29T14:37:05.000Z', 'text': '😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7365270616909464582', 'uniqueId': 'alexander.monsalv65', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7369012692528398341~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=730a4ca7&amp;x-expires=1758942000&amp;x-signature=n%2FVTP3gIi2mQJ%2B3nbrvnQB7YnAI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7142,18 +7142,18 @@
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>😳</t>
         </is>
       </c>
       <c r="G122" s="2" t="n">
-        <v>45897.88975694445</v>
+        <v>45901.18246527778</v>
       </c>
       <c r="H122" s="3" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>21:21:15</t>
+          <t>04:22:45</t>
         </is>
       </c>
       <c r="J122" t="n">
@@ -7172,7 +7172,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543749528455152391', 'createTime': 1756416075, 'createTimeISO': '2025-08-28T21:21:15.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6818928500892763142', 'uniqueId': 'bryamparra1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7329319703422173189~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=818e1da9&amp;x-expires=1758938400&amp;x-signature=L%2BZ2v5Z74CVPd2qK2z6%2BVXw0MBQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544971437561348872', 'createTime': 1756700565, 'createTimeISO': '2025-09-01T04:22:45.000Z', 'text': '😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7018008895345263621', 'uniqueId': 'jeissongiral', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7201680297070854149~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=874ed845&amp;x-expires=1758942000&amp;x-signature=6K492PqptfyEKkSeodWbfRFKszc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7198,18 +7198,18 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>☺️</t>
         </is>
       </c>
       <c r="G123" s="2" t="n">
-        <v>45898.05512731482</v>
+        <v>45898.60232638889</v>
       </c>
       <c r="H123" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>01:19:23</t>
+          <t>14:27:21</t>
         </is>
       </c>
       <c r="J123" t="n">
@@ -7228,7 +7228,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543810922972709650', 'createTime': 1756430363, 'createTimeISO': '2025-08-29T01:19:23.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7070163659598627845', 'uniqueId': 'mairethbast', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9b37a9d99aea5f1131eb2bfc502a0ead~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=de9f8235&amp;x-expires=1758938400&amp;x-signature=89hh1jvg%2B7JQtW7r9xvJDpJg2QU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544013993184477970', 'createTime': 1756477641, 'createTimeISO': '2025-08-29T14:27:21.000Z', 'text': '☺️', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6784244679715931142', 'uniqueId': 'karinafranco75', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c95774eafe0deb2b0db2e99163d97e6b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=560fb5f8&amp;x-expires=1758942000&amp;x-signature=4XbXvoOzG9WB5FQ1kyyils4K1%2Fo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7258,14 +7258,14 @@
         </is>
       </c>
       <c r="G124" s="2" t="n">
-        <v>45898.07935185185</v>
+        <v>45898.08671296296</v>
       </c>
       <c r="H124" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>01:54:16</t>
+          <t>02:04:52</t>
         </is>
       </c>
       <c r="J124" t="n">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543819884519162642', 'createTime': 1756432456, 'createTimeISO': '2025-08-29T01:54:16.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7367026897299506182', 'uniqueId': 'gisseth.ortiz.pei', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/61dc4b7955b50e83f41292e4f2ad0b6d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fc7dcf10&amp;x-expires=1758938400&amp;x-signature=GARoWSdqBC%2FAnfrccFmr0U2Dvz8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543822632715977480', 'createTime': 1756433092, 'createTimeISO': '2025-08-29T02:04:52.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7346604085297267717', 'uniqueId': 'mariamatus95', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7350841543295270917~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=82f7e442&amp;x-expires=1758942000&amp;x-signature=loWGVy0aCgq4b1qvk3vdHDEXTEE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7310,18 +7310,18 @@
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr">
         <is>
-          <t>😂😂😂😂😂😂😂😂</t>
+          <t>😈</t>
         </is>
       </c>
       <c r="G125" s="2" t="n">
-        <v>45898.53776620371</v>
+        <v>45901.14311342593</v>
       </c>
       <c r="H125" s="3" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>12:54:23</t>
+          <t>03:26:05</t>
         </is>
       </c>
       <c r="J125" t="n">
@@ -7340,7 +7340,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543990047054840583', 'createTime': 1756472063, 'createTimeISO': '2025-08-29T12:54:23.000Z', 'text': '😂😂😂😂😂😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6809039067687830533', 'uniqueId': 'claudiaalviz', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330671645742678022~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2c181b91&amp;x-expires=1758938400&amp;x-signature=TaszXWqA65dUxetRmzzENwLmzis%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544956821336048391', 'createTime': 1756697165, 'createTimeISO': '2025-09-01T03:26:05.000Z', 'text': '😈', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6818973177252037637', 'uniqueId': 'aljaver07', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/6e390937f478b1079df5d8da266fbd12~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=873139ab&amp;x-expires=1758942000&amp;x-signature=jCCprRs5a6KvmHkmiov%2Fkp%2FnvCA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7366,18 +7366,18 @@
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
         <is>
-          <t>😂😂😂</t>
+          <t>😍</t>
         </is>
       </c>
       <c r="G126" s="2" t="n">
-        <v>45898.53982638889</v>
+        <v>45901.1919212963</v>
       </c>
       <c r="H126" s="3" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>12:57:21</t>
+          <t>04:36:22</t>
         </is>
       </c>
       <c r="J126" t="n">
@@ -7396,7 +7396,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543990801525785360', 'createTime': 1756472241, 'createTimeISO': '2025-08-29T12:57:21.000Z', 'text': '😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6807864936216364037', 'uniqueId': 'rubysuarez63', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e3b18b6059c708901a45d4a70290ee20~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=74575e6b&amp;x-expires=1758938400&amp;x-signature=weMEvOtrF7whSnf37va46Bo5y9k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544974946951774997', 'createTime': 1756701382, 'createTimeISO': '2025-09-01T04:36:22.000Z', 'text': '😍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7347007246134363141', 'uniqueId': 'carlos.andres.car491', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7347008785192747014~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c454f2f0&amp;x-expires=1758942000&amp;x-signature=ZHL5tiqGiv4eJXAcJJPSmuyPXbE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7422,18 +7422,18 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G127" s="2" t="n">
-        <v>45898.07954861111</v>
+        <v>45898.05512731482</v>
       </c>
       <c r="H127" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>01:54:33</t>
+          <t>01:19:23</t>
         </is>
       </c>
       <c r="J127" t="n">
@@ -7452,7 +7452,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543819973892244242', 'createTime': 1756432473, 'createTimeISO': '2025-08-29T01:54:33.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7367026897299506182', 'uniqueId': 'gisseth.ortiz.pei', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/61dc4b7955b50e83f41292e4f2ad0b6d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fc7dcf10&amp;x-expires=1758938400&amp;x-signature=GARoWSdqBC%2FAnfrccFmr0U2Dvz8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543810922972709650', 'createTime': 1756430363, 'createTimeISO': '2025-08-29T01:19:23.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7070163659598627845', 'uniqueId': 'mairethbast', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9b37a9d99aea5f1131eb2bfc502a0ead~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3f02f3be&amp;x-expires=1758942000&amp;x-signature=RpizFg1n2f0OtTjhNVEm2yz8b5M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7478,18 +7478,18 @@
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr">
         <is>
-          <t>😂😂😂</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G128" s="2" t="n">
-        <v>45898.57651620371</v>
+        <v>45898.07935185185</v>
       </c>
       <c r="H128" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>13:50:11</t>
+          <t>01:54:16</t>
         </is>
       </c>
       <c r="J128" t="n">
@@ -7508,7 +7508,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544004421504680712', 'createTime': 1756475411, 'createTimeISO': '2025-08-29T13:50:11.000Z', 'text': '😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7009063585499169798', 'uniqueId': 'dy4vvk08evks', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7322166875545141254~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b5d9147e&amp;x-expires=1758938400&amp;x-signature=tpCFtWH4dAmB5Z6IjIYg%2F%2BRJNYo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543819884519162642', 'createTime': 1756432456, 'createTimeISO': '2025-08-29T01:54:16.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7367026897299506182', 'uniqueId': 'gisseth.ortiz.pei', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/61dc4b7955b50e83f41292e4f2ad0b6d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=32379d58&amp;x-expires=1758942000&amp;x-signature=Hkwb2pXdtRUpwEtyZd%2FGQ3hLMj8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7534,18 +7534,18 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>😂😂😂😂😂😂😂😂</t>
         </is>
       </c>
       <c r="G129" s="2" t="n">
-        <v>45898.59262731481</v>
+        <v>45898.53776620371</v>
       </c>
       <c r="H129" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>14:13:23</t>
+          <t>12:54:23</t>
         </is>
       </c>
       <c r="J129" t="n">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7544010392751981319', 'createTime': 1756476803, 'createTimeISO': '2025-08-29T14:13:23.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7100929438111826949', 'uniqueId': 'pablo.castillo.ra4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ae71bee67858019a6deeeae7173f4f63~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=42cc779b&amp;x-expires=1758938400&amp;x-signature=r0KqMVdXL%2BIsl98syIFJr2f6H5s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543990047054840583', 'createTime': 1756472063, 'createTimeISO': '2025-08-29T12:54:23.000Z', 'text': '😂😂😂😂😂😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6809039067687830533', 'uniqueId': 'claudiaalviz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7330671645742678022~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c20987f5&amp;x-expires=1758942000&amp;x-signature=daEdZRQsfKj3tQVTd6cPHU4msNA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7590,18 +7590,18 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>😂😂😂</t>
         </is>
       </c>
       <c r="G130" s="2" t="n">
-        <v>45898.07962962963</v>
+        <v>45898.53982638889</v>
       </c>
       <c r="H130" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>01:54:40</t>
+          <t>12:57:21</t>
         </is>
       </c>
       <c r="J130" t="n">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543820021536064264', 'createTime': 1756432480, 'createTimeISO': '2025-08-29T01:54:40.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7367026897299506182', 'uniqueId': 'gisseth.ortiz.pei', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/61dc4b7955b50e83f41292e4f2ad0b6d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fc7dcf10&amp;x-expires=1758938400&amp;x-signature=GARoWSdqBC%2FAnfrccFmr0U2Dvz8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543990801525785360', 'createTime': 1756472241, 'createTimeISO': '2025-08-29T12:57:21.000Z', 'text': '😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6807864936216364037', 'uniqueId': 'rubysuarez63', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e3b18b6059c708901a45d4a70290ee20~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e5be5586&amp;x-expires=1758942000&amp;x-signature=pkFz7hBA10bpHh%2BVHHUJnNl9Mdk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7646,18 +7646,18 @@
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G131" s="2" t="n">
-        <v>45898.0796412037</v>
+        <v>45898.07954861111</v>
       </c>
       <c r="H131" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>01:54:41</t>
+          <t>01:54:33</t>
         </is>
       </c>
       <c r="J131" t="n">
@@ -7676,7 +7676,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543819989461549842', 'createTime': 1756432481, 'createTimeISO': '2025-08-29T01:54:41.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7367026897299506182', 'uniqueId': 'gisseth.ortiz.pei', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/61dc4b7955b50e83f41292e4f2ad0b6d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fc7dcf10&amp;x-expires=1758938400&amp;x-signature=GARoWSdqBC%2FAnfrccFmr0U2Dvz8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543819973892244242', 'createTime': 1756432473, 'createTimeISO': '2025-08-29T01:54:33.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7367026897299506182', 'uniqueId': 'gisseth.ortiz.pei', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/61dc4b7955b50e83f41292e4f2ad0b6d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=32379d58&amp;x-expires=1758942000&amp;x-signature=Hkwb2pXdtRUpwEtyZd%2FGQ3hLMj8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7702,18 +7702,18 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G132" s="2" t="n">
-        <v>45898.07958333333</v>
+        <v>45898.07962962963</v>
       </c>
       <c r="H132" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>01:54:36</t>
+          <t>01:54:40</t>
         </is>
       </c>
       <c r="J132" t="n">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543819976118698760', 'createTime': 1756432476, 'createTimeISO': '2025-08-29T01:54:36.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7367026897299506182', 'uniqueId': 'gisseth.ortiz.pei', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/61dc4b7955b50e83f41292e4f2ad0b6d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fc7dcf10&amp;x-expires=1758938400&amp;x-signature=GARoWSdqBC%2FAnfrccFmr0U2Dvz8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'submittedVideoUrl': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'input': 'https://www.tiktok.com/@alpinacol/video/7543691221181549831', 'cid': '7543820021536064264', 'createTime': 1756432480, 'createTimeISO': '2025-08-29T01:54:40.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7367026897299506182', 'uniqueId': 'gisseth.ortiz.pei', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/61dc4b7955b50e83f41292e4f2ad0b6d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=32379d58&amp;x-expires=1758942000&amp;x-signature=Hkwb2pXdtRUpwEtyZd%2FGQ3hLMj8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7788,7 +7788,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7538628551140262663', 'createTime': 1755223753, 'createTimeISO': '2025-08-15T02:09:13.000Z', 'text': 'eso hecho con IA y aparte lo que da es diabetes', 'diggCount': 172, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7013419089495720966', 'uniqueId': 'juan_gomez2003', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/141a65b84a3d1d51053b23f8c8b12430~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=79b8c53c&amp;x-expires=1758938400&amp;x-signature=xsj2DSJ%2Bu2JI%2FqHXmFUWLmSBW%2Bk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7538628551140262663', 'createTime': 1755223753, 'createTimeISO': '2025-08-15T02:09:13.000Z', 'text': 'eso hecho con IA y aparte lo que da es diabetes', 'diggCount': 172, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7013419089495720966', 'uniqueId': 'juan_gomez2003', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/141a65b84a3d1d51053b23f8c8b12430~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=87f3727c&amp;x-expires=1758942000&amp;x-signature=zrRlnGGiZEv8agv7jMSVAs4kJE4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7814,22 +7814,22 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
         <is>
-          <t>todo es IA</t>
+          <t>Nutritiva y con todos los sellos ahí xd aparte el descarado uso de IA</t>
         </is>
       </c>
       <c r="G134" s="2" t="n">
-        <v>45886.78954861111</v>
+        <v>45886.68452546297</v>
       </c>
       <c r="H134" s="3" t="n">
         <v>45886</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>18:56:57</t>
+          <t>16:25:43</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K134" t="n">
         <v>0</v>
@@ -7844,7 +7844,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539630415654421266', 'createTime': 1755457017, 'createTimeISO': '2025-08-17T18:56:57.000Z', 'text': 'todo es IA', 'diggCount': 17, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7349368068051158021', 'uniqueId': 'andrs.felipe.hern2', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/16c99956db823623b1474d67f9c5a94e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d575620b&amp;x-expires=1758938400&amp;x-signature=b%2BPT6xvXa8PchTDK9LTWKm0GgIw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539591478017360658', 'createTime': 1755447943, 'createTimeISO': '2025-08-17T16:25:43.000Z', 'text': 'Nutritiva y con todos los sellos ahí xd aparte el descarado uso de IA', 'diggCount': 34, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6907782994028463109', 'uniqueId': 'camimatsuu', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1aa91b55c35df6b39dcb2f471a0df6a5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e5263d72&amp;x-expires=1758942000&amp;x-signature=HE0dfKcztvs6U%2B0v4PQS9bSV0bk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7870,22 +7870,22 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Nutritiva y con todos los sellos ahí xd aparte el descarado uso de IA</t>
+          <t>todo es IA</t>
         </is>
       </c>
       <c r="G135" s="2" t="n">
-        <v>45886.68452546297</v>
+        <v>45886.78954861111</v>
       </c>
       <c r="H135" s="3" t="n">
         <v>45886</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>16:25:43</t>
+          <t>18:56:57</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="K135" t="n">
         <v>0</v>
@@ -7900,7 +7900,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539591478017360658', 'createTime': 1755447943, 'createTimeISO': '2025-08-17T16:25:43.000Z', 'text': 'Nutritiva y con todos los sellos ahí xd aparte el descarado uso de IA', 'diggCount': 34, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6907782994028463109', 'uniqueId': 'camimatsuu', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1aa91b55c35df6b39dcb2f471a0df6a5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=987b8f6d&amp;x-expires=1758938400&amp;x-signature=cbAKJOH%2FqYKExdXEF2N2FK0Ywhs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539630415654421266', 'createTime': 1755457017, 'createTimeISO': '2025-08-17T18:56:57.000Z', 'text': 'todo es IA', 'diggCount': 17, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7349368068051158021', 'uniqueId': 'andrs.felipe.hern2', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/16c99956db823623b1474d67f9c5a94e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=24176549&amp;x-expires=1758942000&amp;x-signature=Q74WppHsBZkahZuihZy8LMqvdTI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7956,7 +7956,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539600059169374983', 'createTime': 1755449942, 'createTimeISO': '2025-08-17T16:59:02.000Z', 'text': 'Ugh, están usando IA...', 'diggCount': 35, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7063149768859976709', 'uniqueId': 'zoe_avi14', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/72df6b2ac267b684b14fbbe1ca7c56f0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1928e1db&amp;x-expires=1758938400&amp;x-signature=fGqqOWIUDPWIZ1uHhjxsGTTNNfw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539600059169374983', 'createTime': 1755449942, 'createTimeISO': '2025-08-17T16:59:02.000Z', 'text': 'Ugh, están usando IA...', 'diggCount': 35, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7063149768859976709', 'uniqueId': 'zoe_avi14', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/72df6b2ac267b684b14fbbe1ca7c56f0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b4f342e2&amp;x-expires=1758942000&amp;x-signature=I3xipnVveH2QQhH1PZZiNDeVJKU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539404516589552400', 'createTime': 1755404653, 'createTimeISO': '2025-08-17T04:24:13.000Z', 'text': 'menos mal la IA también lo sabe puras grasas saturadas y azúcar,hasta con el aviso les salió 🤣🤣🤣🤣🤣🤣', 'diggCount': 26, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7474105687103177736', 'uniqueId': 'user8663527034242', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fcd98447&amp;x-expires=1758938400&amp;x-signature=wmCOXT1yW%2FVTXR8Ur6yBMjWbrv0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539404516589552400', 'createTime': 1755404653, 'createTimeISO': '2025-08-17T04:24:13.000Z', 'text': 'menos mal la IA también lo sabe puras grasas saturadas y azúcar,hasta con el aviso les salió 🤣🤣🤣🤣🤣🤣', 'diggCount': 26, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7474105687103177736', 'uniqueId': 'user8663527034242', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a24e60b4&amp;x-expires=1758942000&amp;x-signature=5KcGkCrPEjW%2FIGsBAA2AX3wgP54%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8038,23 +8038,22 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>con IA? teniendo tantos artistas. dibujantes, animadores e incluso influencers.... veo que pueden pagar una publicidad en Tiktok pero no algo decente.
-Que bueno que les interesa la "calidad" de su producto 🙄</t>
+          <t>uy no socio me compré uno y terminé cagando todo el dia</t>
         </is>
       </c>
       <c r="G138" s="2" t="n">
-        <v>45887.6634375</v>
+        <v>45886.14233796296</v>
       </c>
       <c r="H138" s="3" t="n">
-        <v>45887</v>
+        <v>45886</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>15:55:21</t>
+          <t>03:24:58</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="K138" t="n">
         <v>0</v>
@@ -8069,7 +8068,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539954742022439701', 'createTime': 1755532521, 'createTimeISO': '2025-08-18T15:55:21.000Z', 'text': 'con IA? teniendo tantos artistas. dibujantes, animadores e incluso influencers.... veo que pueden pagar una publicidad en Tiktok pero no algo decente.\nQue bueno que les interesa la "calidad" de su producto 🙄', 'diggCount': 23, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6890741236841874437', 'uniqueId': 'loryn_magesttueux', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/fad64664ee9c2d87a6fc9f1f85fe8aaa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d3d24986&amp;x-expires=1758938400&amp;x-signature=lcmW8zD%2Bf8spgbEZ4nCA5zxnyYw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539390264021975826', 'createTime': 1755401098, 'createTimeISO': '2025-08-17T03:24:58.000Z', 'text': 'uy no socio me compré uno y terminé cagando todo el dia', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7450306568867169286', 'uniqueId': 'yosne729', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/83105037c0fa8a5cbdd4e6ac5fe5d0f7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1e4ce31e&amp;x-expires=1758942000&amp;x-signature=p%2BI0257EOMacNFWe7p8DkfG4Ucw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8095,22 +8094,23 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
-          <t>uy no socio me compré uno y terminé cagando todo el dia</t>
+          <t>con IA? teniendo tantos artistas. dibujantes, animadores e incluso influencers.... veo que pueden pagar una publicidad en Tiktok pero no algo decente.
+Que bueno que les interesa la "calidad" de su producto 🙄</t>
         </is>
       </c>
       <c r="G139" s="2" t="n">
-        <v>45886.14233796296</v>
+        <v>45887.6634375</v>
       </c>
       <c r="H139" s="3" t="n">
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>03:24:58</t>
+          <t>15:55:21</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="K139" t="n">
         <v>0</v>
@@ -8125,7 +8125,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539390264021975826', 'createTime': 1755401098, 'createTimeISO': '2025-08-17T03:24:58.000Z', 'text': 'uy no socio me compré uno y terminé cagando todo el dia', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7450306568867169286', 'uniqueId': 'yosne729', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/83105037c0fa8a5cbdd4e6ac5fe5d0f7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0f0d6c9d&amp;x-expires=1758938400&amp;x-signature=4iJ42A%2FJhMgZNXApqJjcxqawh2o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539954742022439701', 'createTime': 1755532521, 'createTimeISO': '2025-08-18T15:55:21.000Z', 'text': 'con IA? teniendo tantos artistas. dibujantes, animadores e incluso influencers.... veo que pueden pagar una publicidad en Tiktok pero no algo decente.\nQue bueno que les interesa la "calidad" de su producto 🙄', 'diggCount': 23, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6890741236841874437', 'uniqueId': 'loryn_magesttueux', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/fad64664ee9c2d87a6fc9f1f85fe8aaa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cf818404&amp;x-expires=1758942000&amp;x-signature=eVzcYMxqSNCl4AZgTDtQQF8p3jk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8151,25 +8151,25 @@
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Me nutre más el aire que eso [sticker]</t>
+          <t>Zzzzzz hecho con IA</t>
         </is>
       </c>
       <c r="G140" s="2" t="n">
-        <v>45886.15892361111</v>
+        <v>45887.02520833333</v>
       </c>
       <c r="H140" s="3" t="n">
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>03:48:51</t>
+          <t>00:36:18</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L140" t="b">
         <v>0</v>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539396425361998610', 'createTime': 1755402531, 'createTimeISO': '2025-08-17T03:48:51.000Z', 'text': 'Me nutre más el aire que eso [sticker]', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452207058546181126', 'uniqueId': 'miguelangelortego55', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d809c16813c7d8968b0590e053cf6ebe~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=722ec049&amp;x-expires=1758938400&amp;x-signature=9pdAUgIoiFGWslo94EMPk9DjNyo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539717863684309767', 'createTime': 1755477378, 'createTimeISO': '2025-08-18T00:36:18.000Z', 'text': 'Zzzzzz hecho con IA', 'diggCount': 13, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7056150303124571141', 'uniqueId': 'ramo._hv', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/eabaf5b43b55346edeaa3074af188713~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=06f1587e&amp;x-expires=1758942000&amp;x-signature=f3eUtzFc0%2Fx2SroSDoEBjQKcAlg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8207,22 +8207,22 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Zzzzzz hecho con IA</t>
+          <t>ia = mala calidad, no compren</t>
         </is>
       </c>
       <c r="G141" s="2" t="n">
-        <v>45887.02520833333</v>
+        <v>45889.80328703704</v>
       </c>
       <c r="H141" s="3" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>00:36:18</t>
+          <t>19:16:44</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K141" t="n">
         <v>1</v>
@@ -8237,7 +8237,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539717863684309767', 'createTime': 1755477378, 'createTimeISO': '2025-08-18T00:36:18.000Z', 'text': 'Zzzzzz hecho con IA', 'diggCount': 13, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7056150303124571141', 'uniqueId': 'ramo._hv', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/eabaf5b43b55346edeaa3074af188713~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8a8078dd&amp;x-expires=1758938400&amp;x-signature=SFN4Pai2%2BTpWItoKQLbae7ox%2Fh4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540748780073927432', 'createTime': 1755717404, 'createTimeISO': '2025-08-20T19:16:44.000Z', 'text': 'ia = mala calidad, no compren', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6869476556381963269', 'uniqueId': 'assassin.samurai', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/b4b2cb31da2163d6cb2ccce95daf56aa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7d8f80ef&amp;x-expires=1758942000&amp;x-signature=Rwd%2BcPevy65gMa%2F%2F%2FPScUV1SoX4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8263,25 +8263,25 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
-          <t>ia = mala calidad, no compren</t>
+          <t>Me nutre más el aire que eso [sticker]</t>
         </is>
       </c>
       <c r="G142" s="2" t="n">
-        <v>45889.80328703704</v>
+        <v>45886.15892361111</v>
       </c>
       <c r="H142" s="3" t="n">
-        <v>45889</v>
+        <v>45886</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>19:16:44</t>
+          <t>03:48:51</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L142" t="b">
         <v>0</v>
@@ -8293,7 +8293,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540748780073927432', 'createTime': 1755717404, 'createTimeISO': '2025-08-20T19:16:44.000Z', 'text': 'ia = mala calidad, no compren', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6869476556381963269', 'uniqueId': 'assassin.samurai', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/b4b2cb31da2163d6cb2ccce95daf56aa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=08b85e9e&amp;x-expires=1758938400&amp;x-signature=wLxgX9mHhBpqeWBbGWAWMIudGT0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539396425361998610', 'createTime': 1755402531, 'createTimeISO': '2025-08-17T03:48:51.000Z', 'text': 'Me nutre más el aire que eso [sticker]', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452207058546181126', 'uniqueId': 'miguelangelortego55', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d809c16813c7d8968b0590e053cf6ebe~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=edd8bea5&amp;x-expires=1758942000&amp;x-signature=FWwyWWm4kIhF6F%2FX819F6xWVzqQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8319,22 +8319,22 @@
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
         <is>
-          <t>ia</t>
+          <t>las etiquetas de minsalud: 🧍‍♀️</t>
         </is>
       </c>
       <c r="G143" s="2" t="n">
-        <v>45884.91594907407</v>
+        <v>45886.89984953704</v>
       </c>
       <c r="H143" s="3" t="n">
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>21:58:58</t>
+          <t>21:35:47</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K143" t="n">
         <v>0</v>
@@ -8349,7 +8349,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7538935100509504263', 'createTime': 1755295138, 'createTimeISO': '2025-08-15T21:58:58.000Z', 'text': 'ia', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7196091294450697221', 'uniqueId': 'xdead873', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e086a82030b59b9bfa6bd649942ad9d0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e108495f&amp;x-expires=1758938400&amp;x-signature=aE%2B1Y52W8jDMcIxc%2BvMbr37XZJA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539671293488481044', 'createTime': 1755466547, 'createTimeISO': '2025-08-17T21:35:47.000Z', 'text': 'las etiquetas de minsalud: 🧍\u200d♀️', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7179801329056941061', 'uniqueId': 'carc4rk', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6f0d22885f629f4f807b593fe1d3439a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1738370e&amp;x-expires=1758942000&amp;x-signature=8HcErnHDaE7PQHO5PtTMmQH9Btw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8375,22 +8375,22 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
         <is>
-          <t>como que nutritiva un viajao de azucar</t>
+          <t>jajaja nutritiva?, jajajajja...jajajjajaja ....jajajajjaa</t>
         </is>
       </c>
       <c r="G144" s="2" t="n">
-        <v>45890.59215277778</v>
+        <v>45884.96225694445</v>
       </c>
       <c r="H144" s="3" t="n">
-        <v>45890</v>
+        <v>45884</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>14:12:42</t>
+          <t>23:05:39</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K144" t="n">
         <v>0</v>
@@ -8405,7 +8405,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7541041534835294984', 'createTime': 1755785562, 'createTimeISO': '2025-08-21T14:12:42.000Z', 'text': 'como que nutritiva un viajao de azucar', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7047438158690599941', 'uniqueId': 'brus.rivers7', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3eb013f51193ff0ca5ae87191e1418e7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a45a024f&amp;x-expires=1758938400&amp;x-signature=%2BLstudxYYrbtGJmVIxaeSElcyN0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7538952306532811536', 'createTime': 1755299139, 'createTimeISO': '2025-08-15T23:05:39.000Z', 'text': 'jajaja nutritiva?, jajajajja...jajajjajaja ....jajajajjaa', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6833852677879219205', 'uniqueId': 'peoplestrange1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7336587902565548037~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2004e0e4&amp;x-expires=1758942000&amp;x-signature=Vb6O9T1o6swqSz1cbH0dyIlnHnQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8431,22 +8431,22 @@
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr">
         <is>
-          <t>las etiquetas de minsalud: 🧍‍♀️</t>
+          <t>y de cuando acá algo k tiene avisos de azúcares en exceso es nutritivo ??</t>
         </is>
       </c>
       <c r="G145" s="2" t="n">
-        <v>45886.89984953704</v>
+        <v>45887.89589120371</v>
       </c>
       <c r="H145" s="3" t="n">
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>21:35:47</t>
+          <t>21:30:05</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K145" t="n">
         <v>0</v>
@@ -8461,7 +8461,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539671293488481044', 'createTime': 1755466547, 'createTimeISO': '2025-08-17T21:35:47.000Z', 'text': 'las etiquetas de minsalud: 🧍\u200d♀️', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7179801329056941061', 'uniqueId': 'carc4rk', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6f0d22885f629f4f807b593fe1d3439a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d22c27f3&amp;x-expires=1758938400&amp;x-signature=RYEFJxPjIe%2Fbgx%2FCRPA6SLgXb0c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540040985649513223', 'createTime': 1755552605, 'createTimeISO': '2025-08-18T21:30:05.000Z', 'text': 'y de cuando acá algo k tiene avisos de azúcares en exceso es nutritivo ??', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7443888538737280056', 'uniqueId': 'luiz.carlos.rincn', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/fb5767f633d261a6c6bd126583fcf352~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=99deb31e&amp;x-expires=1758942000&amp;x-signature=ki68obKlZNp6ncuz71PBuxefiEg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8487,22 +8487,22 @@
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr">
         <is>
-          <t>no tengo título de nada referente a ilustrado o diseñador pero hago mejores animaciones hasta con IA gratuitas deja mucho que decir esta publicidad de alpina como compañía.</t>
+          <t>Nutritiva en qué aspecto</t>
         </is>
       </c>
       <c r="G146" s="2" t="n">
-        <v>45889.52928240741</v>
+        <v>45888.12157407407</v>
       </c>
       <c r="H146" s="3" t="n">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>12:42:10</t>
+          <t>02:55:04</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K146" t="n">
         <v>0</v>
@@ -8517,7 +8517,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540647104366166791', 'createTime': 1755693730, 'createTimeISO': '2025-08-20T12:42:10.000Z', 'text': 'no tengo título de nada referente a ilustrado o diseñador pero hago mejores animaciones hasta con IA gratuitas deja mucho que decir esta publicidad de alpina como compañía.', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6998771127392994309', 'uniqueId': 'kaizerg752', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/88a036cf8d456a13a6678afb1b0c9ea1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b8cac544&amp;x-expires=1758938400&amp;x-signature=SV6Hirr6DzmYqAyvuhVe073wmf0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540124731632190215', 'createTime': 1755572104, 'createTimeISO': '2025-08-19T02:55:04.000Z', 'text': 'Nutritiva en qué aspecto', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6916341414573900805', 'uniqueId': 'mformoncho', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/070444c0f97801c93c8dedc193d4c0fc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=66d9af77&amp;x-expires=1758942000&amp;x-signature=AOQF2r43tgrz5e1xCO1act%2BYSgM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8543,22 +8543,22 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr">
         <is>
-          <t>y de cuando acá algo k tiene avisos de azúcares en exceso es nutritivo ??</t>
+          <t>Jumm🤦</t>
         </is>
       </c>
       <c r="G147" s="2" t="n">
-        <v>45887.89589120371</v>
+        <v>45887.67408564815</v>
       </c>
       <c r="H147" s="3" t="n">
         <v>45887</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>21:30:05</t>
+          <t>16:10:41</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K147" t="n">
         <v>0</v>
@@ -8573,7 +8573,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540040985649513223', 'createTime': 1755552605, 'createTimeISO': '2025-08-18T21:30:05.000Z', 'text': 'y de cuando acá algo k tiene avisos de azúcares en exceso es nutritivo ??', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7443888538737280056', 'uniqueId': 'luiz.carlos.rincn', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/fb5767f633d261a6c6bd126583fcf352~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a2410afe&amp;x-expires=1758938400&amp;x-signature=yYFekyIkX1D%2F7WU%2F9uHuavMeUg0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539958689290306311', 'createTime': 1755533441, 'createTimeISO': '2025-08-18T16:10:41.000Z', 'text': 'Jumm🤦', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7095443842253767685', 'uniqueId': 'hamer509', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/736122e53d6cc3a68948454c0a6037e3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=202699b1&amp;x-expires=1758942000&amp;x-signature=3exCpcc70eC4i3NyHWMcUwuFiB0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8599,22 +8599,22 @@
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Nutritivo para sus estados financieros, para nada más....😳😳😳</t>
+          <t>alpina porque hay unos Mochis que osea son como los Mochis normales pero chiquitos y duros?🙃</t>
         </is>
       </c>
       <c r="G148" s="2" t="n">
-        <v>45886.97997685185</v>
+        <v>45886.88716435185</v>
       </c>
       <c r="H148" s="3" t="n">
         <v>45886</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>23:31:10</t>
+          <t>21:17:31</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K148" t="n">
         <v>0</v>
@@ -8629,7 +8629,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539701042139677448', 'createTime': 1755473470, 'createTimeISO': '2025-08-17T23:31:10.000Z', 'text': 'Nutritivo para sus estados financieros, para nada más....😳😳😳', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6869619721680503814', 'uniqueId': 'angrisleej', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7333087291117666312~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4d879d3b&amp;x-expires=1758938400&amp;x-signature=evePyT8q%2Fi%2FuXQHTrHARD%2FuslZA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539666606261420808', 'createTime': 1755465451, 'createTimeISO': '2025-08-17T21:17:31.000Z', 'text': 'alpina porque hay unos Mochis que osea son como los Mochis normales pero chiquitos y duros?🙃', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6923002195819447302', 'uniqueId': 'joselin4654', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/860b408e284f69755d8c05201baaf58a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=93e3cae3&amp;x-expires=1758942000&amp;x-signature=fPHcDMyIfIDsURJrYYzHJQt3quo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8655,23 +8655,22 @@
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr">
         <is>
-          <t>pov nutrición
-los octagonos salvando el dia</t>
+          <t>exceso de azúcares SALUDABLE????!</t>
         </is>
       </c>
       <c r="G149" s="2" t="n">
-        <v>45886.86001157408</v>
+        <v>45887.07311342593</v>
       </c>
       <c r="H149" s="3" t="n">
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>20:38:25</t>
+          <t>01:45:17</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K149" t="n">
         <v>0</v>
@@ -8686,7 +8685,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539656577209795335', 'createTime': 1755463105, 'createTimeISO': '2025-08-17T20:38:25.000Z', 'text': 'pov nutrición\nlos octagonos salvando el dia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7333721615602549766', 'uniqueId': 'juanjo.torres3', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c885224e2814e02fed4b256c69a131b8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=38723db8&amp;x-expires=1758938400&amp;x-signature=cBKG9COVBwxQ4w7WzKgI8D9OGMc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539735643237516048', 'createTime': 1755481517, 'createTimeISO': '2025-08-18T01:45:17.000Z', 'text': 'exceso de azúcares SALUDABLE????!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6880941109717173253', 'uniqueId': 'ebas_ldr', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/722cfdcea9a35b59b141e9314a7d664e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=367abcfd&amp;x-expires=1758942000&amp;x-signature=oc%2F0wUpV9y8%2FJpzJZgaw00lmk0s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8712,22 +8711,22 @@
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr">
         <is>
-          <t>eso de nutritivo no tiene nada. Digan la verdad por algo pagan alto impuesto a los azúcares</t>
+          <t>no tengo título de nada referente a ilustrado o diseñador pero hago mejores animaciones hasta con IA gratuitas deja mucho que decir esta publicidad de alpina como compañía.</t>
         </is>
       </c>
       <c r="G150" s="2" t="n">
-        <v>45885.95167824074</v>
+        <v>45889.52928240741</v>
       </c>
       <c r="H150" s="3" t="n">
-        <v>45885</v>
+        <v>45889</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>22:50:25</t>
+          <t>12:42:10</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K150" t="n">
         <v>0</v>
@@ -8742,7 +8741,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539319447376691975', 'createTime': 1755384625, 'createTimeISO': '2025-08-16T22:50:25.000Z', 'text': 'eso de nutritivo no tiene nada. Digan la verdad por algo pagan alto impuesto a los azúcares', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6921847464526496774', 'uniqueId': 'adrianabf5', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/4342d1714351a8e3afcfc7670c4aeeba~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=40a731b6&amp;x-expires=1758938400&amp;x-signature=SDSmYjlmJpmjm7wYCcGysukrwPE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540647104366166791', 'createTime': 1755693730, 'createTimeISO': '2025-08-20T12:42:10.000Z', 'text': 'no tengo título de nada referente a ilustrado o diseñador pero hago mejores animaciones hasta con IA gratuitas deja mucho que decir esta publicidad de alpina como compañía.', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6998771127392994309', 'uniqueId': 'kaizerg752', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/88a036cf8d456a13a6678afb1b0c9ea1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c15d5d1b&amp;x-expires=1758942000&amp;x-signature=y4ZfAaB8esVa5gKxFcuS7mO%2FW8Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8768,22 +8767,22 @@
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr">
         <is>
-          <t>nutritiva pero de azúcar y cáncer</t>
+          <t>Nutritivo para sus estados financieros, para nada más....😳😳😳</t>
         </is>
       </c>
       <c r="G151" s="2" t="n">
-        <v>45886.91077546297</v>
+        <v>45886.97997685185</v>
       </c>
       <c r="H151" s="3" t="n">
         <v>45886</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>21:51:31</t>
+          <t>23:31:10</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K151" t="n">
         <v>0</v>
@@ -8798,7 +8797,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539675372980978433', 'createTime': 1755467491, 'createTimeISO': '2025-08-17T21:51:31.000Z', 'text': 'nutritiva pero de azúcar y cáncer', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7507063112257553415', 'uniqueId': 'miguel.rivera812', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9952f4c4c0bea89061f63e46eb642aca~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0581a1e3&amp;x-expires=1758938400&amp;x-signature=D84G7SIBO5L%2BsL1PbNeF6BZB89c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539701042139677448', 'createTime': 1755473470, 'createTimeISO': '2025-08-17T23:31:10.000Z', 'text': 'Nutritivo para sus estados financieros, para nada más....😳😳😳', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6869619721680503814', 'uniqueId': 'angrisleej', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7333087291117666312~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7a90607a&amp;x-expires=1758942000&amp;x-signature=cToPgJHJ9a%2Fs42QMgRK33nPfn60%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8824,22 +8823,22 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr">
         <is>
-          <t>nada de eso es nutricion para un niño</t>
+          <t>Nutritivo no creo bro</t>
         </is>
       </c>
       <c r="G152" s="2" t="n">
-        <v>45886.82335648148</v>
+        <v>45889.96091435185</v>
       </c>
       <c r="H152" s="3" t="n">
-        <v>45886</v>
+        <v>45889</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>19:45:38</t>
+          <t>23:03:43</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K152" t="n">
         <v>0</v>
@@ -8854,7 +8853,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539641931807376135', 'createTime': 1755459938, 'createTimeISO': '2025-08-17T19:45:38.000Z', 'text': 'nada de eso es nutricion para un niño', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6951815122722669574', 'uniqueId': 'xarlitosway1', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c29bd9f100e72cf1ff110f6c8472b75e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=de086e50&amp;x-expires=1758938400&amp;x-signature=yhZBFgYN5SP%2BIau7rhDmZW93Ml4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540807263875875602', 'createTime': 1755731023, 'createTimeISO': '2025-08-20T23:03:43.000Z', 'text': 'Nutritivo no creo bro', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7496586264196449298', 'uniqueId': 'jaco2.06', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7eb06347bac523ada61cf44328e355cf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=002b2c67&amp;x-expires=1758942000&amp;x-signature=NZChFOU6n75d4LQLqtgNZgT2wME%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8880,22 +8879,22 @@
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr">
         <is>
-          <t>jajaja nutritiva?, jajajajja...jajajjajaja ....jajajajjaa</t>
+          <t>que me muestren lo que hay detrás de todos esos productos con excesos de aceites y azúcares</t>
         </is>
       </c>
       <c r="G153" s="2" t="n">
-        <v>45884.96225694445</v>
+        <v>45884.7610300926</v>
       </c>
       <c r="H153" s="3" t="n">
         <v>45884</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>23:05:39</t>
+          <t>18:15:53</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K153" t="n">
         <v>0</v>
@@ -8910,7 +8909,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7538952306532811536', 'createTime': 1755299139, 'createTimeISO': '2025-08-15T23:05:39.000Z', 'text': 'jajaja nutritiva?, jajajajja...jajajjajaja ....jajajajjaa', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6833852677879219205', 'uniqueId': 'peoplestrange1', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7336587902565548037~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=98ff9130&amp;x-expires=1758938400&amp;x-signature=FJaMCQCqR4rmZ2f8SkGxPEz9UMc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7538877694545789704', 'createTime': 1755281753, 'createTimeISO': '2025-08-15T18:15:53.000Z', 'text': 'que me muestren lo que hay detrás de todos esos productos con excesos de aceites y azúcares', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7011194235799159813', 'uniqueId': 'jorgealbertojaimel', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7322564615648919557~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=24c03c21&amp;x-expires=1758942000&amp;x-signature=%2Fi62AqRlgEZPxSOvFVKr%2FYdzieI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8936,22 +8935,22 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr">
         <is>
-          <t>exceso de azúcares SALUDABLE????!</t>
+          <t>NUTRITIVISIMAAAAAA 😂</t>
         </is>
       </c>
       <c r="G154" s="2" t="n">
-        <v>45887.07311342593</v>
+        <v>45889.18895833333</v>
       </c>
       <c r="H154" s="3" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>01:45:17</t>
+          <t>04:32:06</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K154" t="n">
         <v>0</v>
@@ -8966,7 +8965,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539735643237516048', 'createTime': 1755481517, 'createTimeISO': '2025-08-18T01:45:17.000Z', 'text': 'exceso de azúcares SALUDABLE????!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6880941109717173253', 'uniqueId': 'ebas_ldr', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/722cfdcea9a35b59b141e9314a7d664e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=07ea2a10&amp;x-expires=1758938400&amp;x-signature=PASM7aNu%2BWLsSJ4AXIKRDqjY23Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540520819685262087', 'createTime': 1755664326, 'createTimeISO': '2025-08-20T04:32:06.000Z', 'text': 'NUTRITIVISIMAAAAAA 😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6981225336508859397', 'uniqueId': 'jonathancph', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/56dcea4505b831e1f3808de92d31ba96~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=14c9ad88&amp;x-expires=1758942000&amp;x-signature=Rlsb1VaVH2M%2BXFqEmSuz2PJesnU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8992,22 +8991,22 @@
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Pura azúcar</t>
+          <t>Nutritiva y todo dice exceso de azúcares 😂😂😂😂</t>
         </is>
       </c>
       <c r="G155" s="2" t="n">
-        <v>45887.90385416667</v>
+        <v>45890.20174768518</v>
       </c>
       <c r="H155" s="3" t="n">
-        <v>45887</v>
+        <v>45890</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>21:41:33</t>
+          <t>04:50:31</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K155" t="n">
         <v>0</v>
@@ -9022,7 +9021,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540043893455389457', 'createTime': 1755553293, 'createTimeISO': '2025-08-18T21:41:33.000Z', 'text': 'Pura azúcar', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7040143530177954822', 'uniqueId': 'lalaoficial1821', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7f91b2a117d767aaae3d2c64d61affb6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=37708c93&amp;x-expires=1758938400&amp;x-signature=wKvHWlXxmbhSEzEFcpU4wqRNXJE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540896654674821896', 'createTime': 1755751831, 'createTimeISO': '2025-08-21T04:50:31.000Z', 'text': 'Nutritiva y todo dice exceso de azúcares 😂😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6812785808920282117', 'uniqueId': 'vermelho.art', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e60d42385a2908b7e3c9c653f9a40fd6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=61e299a5&amp;x-expires=1758942000&amp;x-signature=gIlBtsf6QhotxCsgHAti3A%2Fy9bw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9048,22 +9047,22 @@
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
         <is>
-          <t>alpina porque hay unos Mochis que osea son como los Mochis normales pero chiquitos y duros?🙃</t>
+          <t>si un guerrillero es. presidente en que país será. Gustavo Bolivar. jajjqjajajja</t>
         </is>
       </c>
       <c r="G156" s="2" t="n">
-        <v>45886.88716435185</v>
+        <v>45888.87319444444</v>
       </c>
       <c r="H156" s="3" t="n">
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>21:17:31</t>
+          <t>20:57:24</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K156" t="n">
         <v>0</v>
@@ -9078,7 +9077,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539666606261420808', 'createTime': 1755465451, 'createTimeISO': '2025-08-17T21:17:31.000Z', 'text': 'alpina porque hay unos Mochis que osea son como los Mochis normales pero chiquitos y duros?🙃', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6923002195819447302', 'uniqueId': 'joselin4654', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/860b408e284f69755d8c05201baaf58a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e4401e35&amp;x-expires=1758938400&amp;x-signature=BQ5G7v4cos56NEIyP1DdMbXjtjY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540403597794050834', 'createTime': 1755637044, 'createTimeISO': '2025-08-19T20:57:24.000Z', 'text': 'si un guerrillero es. presidente en que país será. Gustavo Bolivar. jajjqjajajja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7422838361373295622', 'uniqueId': 'user20658005306801', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/fc9486d862e2768664db70f835c5198f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=64dcb085&amp;x-expires=1758942000&amp;x-signature=cqgPKw66e2bmY3%2FYmn7T98AE4Kw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9104,22 +9103,22 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr">
         <is>
-          <t>que me muestren lo que hay detrás de todos esos productos con excesos de aceites y azúcares</t>
+          <t>eso no es nutritivo</t>
         </is>
       </c>
       <c r="G157" s="2" t="n">
-        <v>45884.7610300926</v>
+        <v>45890.58923611111</v>
       </c>
       <c r="H157" s="3" t="n">
-        <v>45884</v>
+        <v>45890</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>18:15:53</t>
+          <t>14:08:30</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K157" t="n">
         <v>0</v>
@@ -9134,7 +9133,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7538877694545789704', 'createTime': 1755281753, 'createTimeISO': '2025-08-15T18:15:53.000Z', 'text': 'que me muestren lo que hay detrás de todos esos productos con excesos de aceites y azúcares', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7011194235799159813', 'uniqueId': 'jorgealbertojaimel', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7322564615648919557~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b5dee73b&amp;x-expires=1758938400&amp;x-signature=%2Fwh2JfH3vjIjtxa8FCnV5TZTT0c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7541040466427724562', 'createTime': 1755785310, 'createTimeISO': '2025-08-21T14:08:30.000Z', 'text': 'eso no es nutritivo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7135941714783618054', 'uniqueId': 'araguaney_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/6d7a4256bb9534f8f28cf29e30512d61~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4b6a1de3&amp;x-expires=1758942000&amp;x-signature=W7ZTZ7RNK%2FI6MBaWRXR50r2wm1U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9160,25 +9159,25 @@
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Necesitamos productos nutritivos, bajos en azúcar</t>
+          <t>nada de eso es nutricion para un niño</t>
         </is>
       </c>
       <c r="G158" s="2" t="n">
-        <v>45889.51465277778</v>
+        <v>45886.82335648148</v>
       </c>
       <c r="H158" s="3" t="n">
-        <v>45889</v>
+        <v>45886</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>12:21:06</t>
+          <t>19:45:38</t>
         </is>
       </c>
       <c r="J158" t="n">
         <v>1</v>
       </c>
       <c r="K158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L158" t="b">
         <v>0</v>
@@ -9190,7 +9189,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540641691515486994', 'createTime': 1755692466, 'createTimeISO': '2025-08-20T12:21:06.000Z', 'text': 'Necesitamos productos nutritivos, bajos en azúcar', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7343845675028087814', 'uniqueId': 'castrosofi254', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/daffbc9bcfa9f9671a709f87d9298d4f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=64de8e26&amp;x-expires=1758938400&amp;x-signature=zy8pl6QZoSCdGHBGQPBDOpMO4j0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539641931807376135', 'createTime': 1755459938, 'createTimeISO': '2025-08-17T19:45:38.000Z', 'text': 'nada de eso es nutricion para un niño', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6951815122722669574', 'uniqueId': 'xarlitosway1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c29bd9f100e72cf1ff110f6c8472b75e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=60343334&amp;x-expires=1758942000&amp;x-signature=9CUNia%2B1XvGH1nPcuCWsvC52PxM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9246,7 +9245,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539003443119129352', 'createTime': 1755311033, 'createTimeISO': '2025-08-16T02:23:53.000Z', 'text': 'ese man nunca eso nada en Colombia me parece mal le coloque el nombre de el al estadío', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7327258351976629254', 'uniqueId': 'velez4420', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/e85ca17a1fdc94e591aaefbb1df176d7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=93f27946&amp;x-expires=1758938400&amp;x-signature=92PJFzde4sH%2F6chpN3A9PW6r65s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539003443119129352', 'createTime': 1755311033, 'createTimeISO': '2025-08-16T02:23:53.000Z', 'text': 'ese man nunca eso nada en Colombia me parece mal le coloque el nombre de el al estadío', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7327258351976629254', 'uniqueId': 'velez4420', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/e85ca17a1fdc94e591aaefbb1df176d7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=96caf12e&amp;x-expires=1758942000&amp;x-signature=Nn%2BrXnvYwTcUrluL1pNPP96AvEU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9272,19 +9271,18 @@
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr">
         <is>
-          <t>eso es lo que te venden
-una lonchera "nutritiva".</t>
+          <t>disque nutritivo jajajaj</t>
         </is>
       </c>
       <c r="G160" s="2" t="n">
-        <v>45889.06504629629</v>
+        <v>45889.53418981482</v>
       </c>
       <c r="H160" s="3" t="n">
         <v>45889</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>01:33:40</t>
+          <t>12:49:14</t>
         </is>
       </c>
       <c r="J160" t="n">
@@ -9303,7 +9301,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540474827624628999', 'createTime': 1755653620, 'createTimeISO': '2025-08-20T01:33:40.000Z', 'text': 'eso es lo que te venden\nuna lonchera "nutritiva".', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '237530487731417088', 'uniqueId': 'wilsonpradatellez', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fcd98447&amp;x-expires=1758938400&amp;x-signature=wmCOXT1yW%2FVTXR8Ur6yBMjWbrv0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540648930822308616', 'createTime': 1755694154, 'createTimeISO': '2025-08-20T12:49:14.000Z', 'text': 'disque nutritivo jajajaj', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7094435918911964165', 'uniqueId': 'jbr2924', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/830ad0a54c1e887239eee75a1a57723c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=48b66626&amp;x-expires=1758942000&amp;x-signature=gnX0yxQMRq5ZN94QVUvUohm%2F9Tw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9329,18 +9327,19 @@
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Nutritiva y todo dice exceso de azúcares 😂😂😂😂</t>
+          <t>pov nutrición
+los octagonos salvando el dia</t>
         </is>
       </c>
       <c r="G161" s="2" t="n">
-        <v>45890.20174768518</v>
+        <v>45886.86001157408</v>
       </c>
       <c r="H161" s="3" t="n">
-        <v>45890</v>
+        <v>45886</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>04:50:31</t>
+          <t>20:38:25</t>
         </is>
       </c>
       <c r="J161" t="n">
@@ -9359,7 +9358,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540896654674821896', 'createTime': 1755751831, 'createTimeISO': '2025-08-21T04:50:31.000Z', 'text': 'Nutritiva y todo dice exceso de azúcares 😂😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6812785808920282117', 'uniqueId': 'vermelho.art', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e60d42385a2908b7e3c9c653f9a40fd6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=83919146&amp;x-expires=1758938400&amp;x-signature=vBGXcgicfZN559Cx%2FKrV6QSdL%2Bc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539656577209795335', 'createTime': 1755463105, 'createTimeISO': '2025-08-17T20:38:25.000Z', 'text': 'pov nutrición\nlos octagonos salvando el dia', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7333721615602549766', 'uniqueId': 'juanjo.torres3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c885224e2814e02fed4b256c69a131b8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5fbf2511&amp;x-expires=1758942000&amp;x-signature=UPMy0rGL3rMlAhJmF6GiyH6NMic%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9385,18 +9384,18 @@
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Nutritivo no creo bro</t>
+          <t>como que nutritiva un viajao de azucar</t>
         </is>
       </c>
       <c r="G162" s="2" t="n">
-        <v>45889.96091435185</v>
+        <v>45890.59215277778</v>
       </c>
       <c r="H162" s="3" t="n">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>23:03:43</t>
+          <t>14:12:42</t>
         </is>
       </c>
       <c r="J162" t="n">
@@ -9415,7 +9414,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540807263875875602', 'createTime': 1755731023, 'createTimeISO': '2025-08-20T23:03:43.000Z', 'text': 'Nutritivo no creo bro', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7496586264196449298', 'uniqueId': 'jaco2.06', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7eb06347bac523ada61cf44328e355cf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f783e4b2&amp;x-expires=1758938400&amp;x-signature=ngK4NuHTQcRXWUd07%2ByWbmuPtUU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7541041534835294984', 'createTime': 1755785562, 'createTimeISO': '2025-08-21T14:12:42.000Z', 'text': 'como que nutritiva un viajao de azucar', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7047438158690599941', 'uniqueId': 'brus.rivers7', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3eb013f51193ff0ca5ae87191e1418e7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a3875336&amp;x-expires=1758942000&amp;x-signature=wC3gzP3K38Y6tk9rFNQrYyISjks%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9441,22 +9440,22 @@
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr">
         <is>
-          <t>pura azúcar fatal para los niños</t>
+          <t>ia</t>
         </is>
       </c>
       <c r="G163" s="2" t="n">
-        <v>45888.86364583333</v>
+        <v>45884.91594907407</v>
       </c>
       <c r="H163" s="3" t="n">
-        <v>45888</v>
+        <v>45884</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>20:43:39</t>
+          <t>21:58:58</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K163" t="n">
         <v>0</v>
@@ -9471,7 +9470,7 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540400064985727762', 'createTime': 1755636219, 'createTimeISO': '2025-08-19T20:43:39.000Z', 'text': 'pura azúcar fatal para los niños', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7383501474930033670', 'uniqueId': 'paula.andrea.dios6', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7383503140576264198~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=79f15a44&amp;x-expires=1758938400&amp;x-signature=iHkCf8G4nwsezrziCCBuxc68dlQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7538935100509504263', 'createTime': 1755295138, 'createTimeISO': '2025-08-15T21:58:58.000Z', 'text': 'ia', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7196091294450697221', 'uniqueId': 'xdead873', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e086a82030b59b9bfa6bd649942ad9d0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f221b098&amp;x-expires=1758942000&amp;x-signature=YJENJkbmGTAhzLst2XGUNOaISwA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9496,22 @@
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Nutritiva en qué aspecto</t>
+          <t>nutritiva pero de azúcar y cáncer</t>
         </is>
       </c>
       <c r="G164" s="2" t="n">
-        <v>45888.12157407407</v>
+        <v>45886.91077546297</v>
       </c>
       <c r="H164" s="3" t="n">
-        <v>45888</v>
+        <v>45886</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>02:55:04</t>
+          <t>21:51:31</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K164" t="n">
         <v>0</v>
@@ -9527,7 +9526,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540124731632190215', 'createTime': 1755572104, 'createTimeISO': '2025-08-19T02:55:04.000Z', 'text': 'Nutritiva en qué aspecto', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6916341414573900805', 'uniqueId': 'mformoncho', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/070444c0f97801c93c8dedc193d4c0fc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7c2daae2&amp;x-expires=1758938400&amp;x-signature=p2MJ3OV6tpRBG%2B2i25iFF0ah74E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539675372980978433', 'createTime': 1755467491, 'createTimeISO': '2025-08-17T21:51:31.000Z', 'text': 'nutritiva pero de azúcar y cáncer', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7507063112257553415', 'uniqueId': 'miguel.rivera812', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9952f4c4c0bea89061f63e46eb642aca~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3cdde1c2&amp;x-expires=1758942000&amp;x-signature=%2FpfVVvpItU0Myew1YN675NS%2B3Pw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9553,22 +9552,22 @@
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr">
         <is>
-          <t>NUTRITIVISIMAAAAAA 😂</t>
+          <t>eso de nutritivo no tiene nada. Digan la verdad por algo pagan alto impuesto a los azúcares</t>
         </is>
       </c>
       <c r="G165" s="2" t="n">
-        <v>45889.18895833333</v>
+        <v>45885.95167824074</v>
       </c>
       <c r="H165" s="3" t="n">
-        <v>45889</v>
+        <v>45885</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>04:32:06</t>
+          <t>22:50:25</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K165" t="n">
         <v>0</v>
@@ -9583,7 +9582,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540520819685262087', 'createTime': 1755664326, 'createTimeISO': '2025-08-20T04:32:06.000Z', 'text': 'NUTRITIVISIMAAAAAA 😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6981225336508859397', 'uniqueId': 'jonathancph', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/56dcea4505b831e1f3808de92d31ba96~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1839e8bb&amp;x-expires=1758938400&amp;x-signature=ayclnJA%2FO8wH21r4UY4%2B9jHCqf4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539319447376691975', 'createTime': 1755384625, 'createTimeISO': '2025-08-16T22:50:25.000Z', 'text': 'eso de nutritivo no tiene nada. Digan la verdad por algo pagan alto impuesto a los azúcares', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6921847464526496774', 'uniqueId': 'adrianabf5', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/4342d1714351a8e3afcfc7670c4aeeba~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=23e30ab2&amp;x-expires=1758942000&amp;x-signature=cTZAohT0xiOw99A1Zjep27J7OG0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9609,22 +9608,22 @@
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr">
         <is>
-          <t>disque nutritivo jajajaj</t>
+          <t>Pura azúcar</t>
         </is>
       </c>
       <c r="G166" s="2" t="n">
-        <v>45889.53418981482</v>
+        <v>45887.90385416667</v>
       </c>
       <c r="H166" s="3" t="n">
-        <v>45889</v>
+        <v>45887</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>12:49:14</t>
+          <t>21:41:33</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K166" t="n">
         <v>0</v>
@@ -9639,7 +9638,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540648930822308616', 'createTime': 1755694154, 'createTimeISO': '2025-08-20T12:49:14.000Z', 'text': 'disque nutritivo jajajaj', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7094435918911964165', 'uniqueId': 'jbr2924', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/830ad0a54c1e887239eee75a1a57723c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b50fd5a5&amp;x-expires=1758938400&amp;x-signature=HhznX6EBS1Y4gClEV%2BZlTm2%2BduY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540043893455389457', 'createTime': 1755553293, 'createTimeISO': '2025-08-18T21:41:33.000Z', 'text': 'Pura azúcar', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7040143530177954822', 'uniqueId': 'lalaoficial1821', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7f91b2a117d767aaae3d2c64d61affb6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d71061bb&amp;x-expires=1758942000&amp;x-signature=VJmn9VMEreDAFrXExp3P61%2BXXAE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9665,25 +9664,25 @@
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr">
         <is>
-          <t>la lonchera nutritiva es las frutas y verduras</t>
+          <t>Necesitamos productos nutritivos, bajos en azúcar</t>
         </is>
       </c>
       <c r="G167" s="2" t="n">
-        <v>45889.91018518519</v>
+        <v>45889.51465277778</v>
       </c>
       <c r="H167" s="3" t="n">
         <v>45889</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>21:50:40</t>
+          <t>12:21:06</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L167" t="b">
         <v>0</v>
@@ -9695,7 +9694,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540788443740373778', 'createTime': 1755726640, 'createTimeISO': '2025-08-20T21:50:40.000Z', 'text': 'la lonchera nutritiva es las frutas y verduras', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7380974170550715398', 'uniqueId': 'ingeniero.luis.mi5', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7380974938105151493~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=82d033c3&amp;x-expires=1758938400&amp;x-signature=IAUoNqtLQoyv2%2B70M78RjOdofKg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540641691515486994', 'createTime': 1755692466, 'createTimeISO': '2025-08-20T12:21:06.000Z', 'text': 'Necesitamos productos nutritivos, bajos en azúcar', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7343845675028087814', 'uniqueId': 'castrosofi254', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/daffbc9bcfa9f9671a709f87d9298d4f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f0a578b6&amp;x-expires=1758942000&amp;x-signature=Z1iFIvIHba12pCMywN2q%2F1h8o%2F4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9721,18 +9720,19 @@
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr">
         <is>
-          <t>si un guerrillero es. presidente en que país será. Gustavo Bolivar. jajjqjajajja</t>
+          <t>eso es lo que te venden
+una lonchera "nutritiva".</t>
         </is>
       </c>
       <c r="G168" s="2" t="n">
-        <v>45888.87319444444</v>
+        <v>45889.06504629629</v>
       </c>
       <c r="H168" s="3" t="n">
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>20:57:24</t>
+          <t>01:33:40</t>
         </is>
       </c>
       <c r="J168" t="n">
@@ -9751,7 +9751,7 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540403597794050834', 'createTime': 1755637044, 'createTimeISO': '2025-08-19T20:57:24.000Z', 'text': 'si un guerrillero es. presidente en que país será. Gustavo Bolivar. jajjqjajajja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7422838361373295622', 'uniqueId': 'user20658005306801', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/fc9486d862e2768664db70f835c5198f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d4695f74&amp;x-expires=1758938400&amp;x-signature=QUc9KfqWa9KywG6br89n7VyGTCk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540474827624628999', 'createTime': 1755653620, 'createTimeISO': '2025-08-20T01:33:40.000Z', 'text': 'eso es lo que te venden\nuna lonchera "nutritiva".', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '237530487731417088', 'uniqueId': 'wilsonpradatellez', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=da78bd0f&amp;x-expires=1758942000&amp;x-signature=eL%2FSZLzJ4VM4jRy4h8WeH4IiqCE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9777,18 +9777,18 @@
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr">
         <is>
-          <t>como se quejan hasta de una marca 👀</t>
+          <t>pura azúcar fatal para los niños</t>
         </is>
       </c>
       <c r="G169" s="2" t="n">
-        <v>45888.76641203704</v>
+        <v>45888.86364583333</v>
       </c>
       <c r="H169" s="3" t="n">
         <v>45888</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>18:23:38</t>
+          <t>20:43:39</t>
         </is>
       </c>
       <c r="J169" t="n">
@@ -9807,7 +9807,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540363994701644564', 'createTime': 1755627818, 'createTimeISO': '2025-08-19T18:23:38.000Z', 'text': 'como se quejan hasta de una marca 👀', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7410949373826319366', 'uniqueId': 'shidou_s', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7f2213cb659e8ec4f24c7a0dc0df1500~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f63f25ad&amp;x-expires=1758938400&amp;x-signature=69ofy%2FcqK%2F54zTLxe%2Fu62QE1FdU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540400064985727762', 'createTime': 1755636219, 'createTimeISO': '2025-08-19T20:43:39.000Z', 'text': 'pura azúcar fatal para los niños', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7383501474930033670', 'uniqueId': 'paula.andrea.dios6', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7383503140576264198~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c5ed9e05&amp;x-expires=1758942000&amp;x-signature=TPeFGwt9GWoZ%2FrIrkl3hrFSJV5E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9833,18 +9833,18 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr">
         <is>
-          <t>una lonchera "nutritiva" claro. todos los productos tienen más de 1 sello jaja</t>
+          <t>la lonchera nutritiva es las frutas y verduras</t>
         </is>
       </c>
       <c r="G170" s="2" t="n">
-        <v>45890.25946759259</v>
+        <v>45889.91018518519</v>
       </c>
       <c r="H170" s="3" t="n">
-        <v>45890</v>
+        <v>45889</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>06:13:38</t>
+          <t>21:50:40</t>
         </is>
       </c>
       <c r="J170" t="n">
@@ -9863,7 +9863,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540918069214003976', 'createTime': 1755756818, 'createTimeISO': '2025-08-21T06:13:38.000Z', 'text': 'una lonchera "nutritiva" claro. todos los productos tienen más de 1 sello jaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6544746695232962561', 'uniqueId': 'lajuls_21', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/38373b344539130b02f6dfba94f377e3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7c97e279&amp;x-expires=1758938400&amp;x-signature=6O6cfjcUGOye5UPUwZCH6cUqzwc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540788443740373778', 'createTime': 1755726640, 'createTimeISO': '2025-08-20T21:50:40.000Z', 'text': 'la lonchera nutritiva es las frutas y verduras', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7380974170550715398', 'uniqueId': 'ingeniero.luis.mi5', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7380974938105151493~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8e603f65&amp;x-expires=1758942000&amp;x-signature=u8whuaqwJBphK9V91JbYk4b8Lx0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9889,18 +9889,18 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Jumm🤦</t>
+          <t>como se quejan hasta de una marca 👀</t>
         </is>
       </c>
       <c r="G171" s="2" t="n">
-        <v>45887.67408564815</v>
+        <v>45888.76641203704</v>
       </c>
       <c r="H171" s="3" t="n">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>16:10:41</t>
+          <t>18:23:38</t>
         </is>
       </c>
       <c r="J171" t="n">
@@ -9919,7 +9919,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539958689290306311', 'createTime': 1755533441, 'createTimeISO': '2025-08-18T16:10:41.000Z', 'text': 'Jumm🤦', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7095443842253767685', 'uniqueId': 'hamer509', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/736122e53d6cc3a68948454c0a6037e3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4aaf22b8&amp;x-expires=1758938400&amp;x-signature=VvFPNOv94V7hfKHqaKIkbnCCUA4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540363994701644564', 'createTime': 1755627818, 'createTimeISO': '2025-08-19T18:23:38.000Z', 'text': 'como se quejan hasta de una marca 👀', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7410949373826319366', 'uniqueId': 'shidou_s', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7f2213cb659e8ec4f24c7a0dc0df1500~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=49ba43b2&amp;x-expires=1758942000&amp;x-signature=RlCkvCmu9CG1Sd5Qh8SOZGRGgQQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9945,22 +9945,22 @@
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Nutritiva todo con exceso de azúcares 😂😂😂</t>
+          <t>una lonchera "nutritiva" claro. todos los productos tienen más de 1 sello jaja</t>
         </is>
       </c>
       <c r="G172" s="2" t="n">
-        <v>45883.85833333333</v>
+        <v>45890.25946759259</v>
       </c>
       <c r="H172" s="3" t="n">
-        <v>45883</v>
+        <v>45890</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>20:36:00</t>
+          <t>06:13:38</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K172" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7538542671507243784', 'createTime': 1755203760, 'createTimeISO': '2025-08-14T20:36:00.000Z', 'text': 'Nutritiva todo con exceso de azúcares 😂😂😂', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6665326055296024582', 'uniqueId': 'estebanleguizamon3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c8f524d871f567d1d88506cd3ce37b11~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=654db549&amp;x-expires=1758938400&amp;x-signature=lvjeKh8zvg5I7Z87etdH0vi6tPU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540918069214003976', 'createTime': 1755756818, 'createTimeISO': '2025-08-21T06:13:38.000Z', 'text': 'una lonchera "nutritiva" claro. todos los productos tienen más de 1 sello jaja', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6544746695232962561', 'uniqueId': 'lajuls_21', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/38373b344539130b02f6dfba94f377e3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9b496e0a&amp;x-expires=1758942000&amp;x-signature=y%2FVka8D%2FSPQehdZQ0ngi0ZiX8c4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -10001,22 +10001,22 @@
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr">
         <is>
-          <t>❤️</t>
+          <t>Nutritiva todo con exceso de azúcares 😂😂😂</t>
         </is>
       </c>
       <c r="G173" s="2" t="n">
-        <v>45889.94486111111</v>
+        <v>45883.85833333333</v>
       </c>
       <c r="H173" s="3" t="n">
-        <v>45889</v>
+        <v>45883</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>22:40:36</t>
+          <t>20:36:00</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K173" t="n">
         <v>0</v>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540801304051237650', 'createTime': 1755729636, 'createTimeISO': '2025-08-20T22:40:36.000Z', 'text': '❤️', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7286260067706733574', 'uniqueId': 'enith.monroy', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7286261258356817925~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f7dee51c&amp;x-expires=1758938400&amp;x-signature=%2BUVhzmaduQRJWSC8%2Fuz0QcxmV10%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7538542671507243784', 'createTime': 1755203760, 'createTimeISO': '2025-08-14T20:36:00.000Z', 'text': 'Nutritiva todo con exceso de azúcares 😂😂😂', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6665326055296024582', 'uniqueId': 'estebanleguizamon3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c8f524d871f567d1d88506cd3ce37b11~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6d7b7c1a&amp;x-expires=1758942000&amp;x-signature=whMjsO9piUdkjDPG%2FJiLkZMKZvU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -10057,18 +10057,18 @@
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>❤️</t>
         </is>
       </c>
       <c r="G174" s="2" t="n">
-        <v>45890.12585648148</v>
+        <v>45889.94486111111</v>
       </c>
       <c r="H174" s="3" t="n">
-        <v>45890</v>
+        <v>45889</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>03:01:14</t>
+          <t>22:40:36</t>
         </is>
       </c>
       <c r="J174" t="n">
@@ -10087,7 +10087,7 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540868494142587666', 'createTime': 1755745274, 'createTimeISO': '2025-08-21T03:01:14.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7262213229727089669', 'uniqueId': 'jhoneimeribarrata', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/401e7d2d2ae9a2a8712917147ba428d7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=41d309e7&amp;x-expires=1758938400&amp;x-signature=34%2BbevUCVj0vozrFqtrUxexWyc8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540801304051237650', 'createTime': 1755729636, 'createTimeISO': '2025-08-20T22:40:36.000Z', 'text': '❤️', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7286260067706733574', 'uniqueId': 'enith.monroy', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7286261258356817925~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=109bd3d5&amp;x-expires=1758942000&amp;x-signature=bHtBSuoXga%2FsaqRhDpvoy0DvFhY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -10113,18 +10113,18 @@
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr">
         <is>
-          <t>😏</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G175" s="2" t="n">
-        <v>45886.76229166667</v>
+        <v>45890.12585648148</v>
       </c>
       <c r="H175" s="3" t="n">
-        <v>45886</v>
+        <v>45890</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>18:17:42</t>
+          <t>03:01:14</t>
         </is>
       </c>
       <c r="J175" t="n">
@@ -10143,7 +10143,7 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539620318018405137', 'createTime': 1755454662, 'createTimeISO': '2025-08-17T18:17:42.000Z', 'text': '😏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6804633448520582150', 'uniqueId': 'annicalderon8', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7332699778871984133~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=89c39065&amp;x-expires=1758938400&amp;x-signature=1GBLgUv%2FX3ToUykwl1glNaFFdV8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540868494142587666', 'createTime': 1755745274, 'createTimeISO': '2025-08-21T03:01:14.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7262213229727089669', 'uniqueId': 'jhoneimeribarrata', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/401e7d2d2ae9a2a8712917147ba428d7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=74ed27aa&amp;x-expires=1758942000&amp;x-signature=wRA5D03dZrVZ5%2B71y8WVqOiDfoA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -10169,18 +10169,18 @@
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>😏</t>
         </is>
       </c>
       <c r="G176" s="2" t="n">
-        <v>45890.16466435185</v>
+        <v>45886.76229166667</v>
       </c>
       <c r="H176" s="3" t="n">
-        <v>45890</v>
+        <v>45886</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>03:57:07</t>
+          <t>18:17:42</t>
         </is>
       </c>
       <c r="J176" t="n">
@@ -10199,7 +10199,7 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540882891822334727', 'createTime': 1755748627, 'createTimeISO': '2025-08-21T03:57:07.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6915242779757954054', 'uniqueId': 'jorgito_araque2789', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7334533563544502277~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=64452288&amp;x-expires=1758938400&amp;x-signature=76K%2FJ3FSzlzS1gHbz3o8rIn9pRk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539620318018405137', 'createTime': 1755454662, 'createTimeISO': '2025-08-17T18:17:42.000Z', 'text': '😏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6804633448520582150', 'uniqueId': 'annicalderon8', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7332699778871984133~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=36bf0b79&amp;x-expires=1758942000&amp;x-signature=ZrDwONArKxhO2J4fExpG8MzfTqU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -10225,18 +10225,18 @@
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr">
         <is>
-          <t>🌹</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G177" s="2" t="n">
-        <v>45886.79958333333</v>
+        <v>45890.16466435185</v>
       </c>
       <c r="H177" s="3" t="n">
-        <v>45886</v>
+        <v>45890</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>19:11:24</t>
+          <t>03:57:07</t>
         </is>
       </c>
       <c r="J177" t="n">
@@ -10255,7 +10255,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539634153131557650', 'createTime': 1755457884, 'createTimeISO': '2025-08-17T19:11:24.000Z', 'text': '🌹', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6996638766123828230', 'uniqueId': 'fraybartibrand', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7076785158434586629~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=799de7cd&amp;x-expires=1758938400&amp;x-signature=gBA07v7KloUddMMvs%2FiGxqEYbmw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540882891822334727', 'createTime': 1755748627, 'createTimeISO': '2025-08-21T03:57:07.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6915242779757954054', 'uniqueId': 'jorgito_araque2789', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7334533563544502277~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=174a8a6e&amp;x-expires=1758942000&amp;x-signature=%2F%2BG%2BTBQIsxIF6%2FXRjCNoh6Fo9uA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -10281,18 +10281,18 @@
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr">
         <is>
-          <t>😳</t>
+          <t>🌹</t>
         </is>
       </c>
       <c r="G178" s="2" t="n">
-        <v>45887.00300925926</v>
+        <v>45886.79958333333</v>
       </c>
       <c r="H178" s="3" t="n">
-        <v>45887</v>
+        <v>45886</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>00:04:20</t>
+          <t>19:11:24</t>
         </is>
       </c>
       <c r="J178" t="n">
@@ -10311,7 +10311,7 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539709597952672532', 'createTime': 1755475460, 'createTimeISO': '2025-08-18T00:04:20.000Z', 'text': '😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7094602157069026306', 'uniqueId': 'yaestat', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/aa1f07d6c8fbd3840dbbfde69dd721df~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d1dec1fa&amp;x-expires=1758938400&amp;x-signature=PYEVCl1NSKMfBPUJarn9FoX2I0Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539634153131557650', 'createTime': 1755457884, 'createTimeISO': '2025-08-17T19:11:24.000Z', 'text': '🌹', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6996638766123828230', 'uniqueId': 'fraybartibrand', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7076785158434586629~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b4f1663d&amp;x-expires=1758942000&amp;x-signature=wOXxkswpX8wxi2tsRSj0jaJyRfE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -10337,18 +10337,18 @@
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>😳</t>
         </is>
       </c>
       <c r="G179" s="2" t="n">
-        <v>45886.67761574074</v>
+        <v>45887.00300925926</v>
       </c>
       <c r="H179" s="3" t="n">
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>16:15:46</t>
+          <t>00:04:20</t>
         </is>
       </c>
       <c r="J179" t="n">
@@ -10367,7 +10367,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539588913876058888', 'createTime': 1755447346, 'createTimeISO': '2025-08-17T16:15:46.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7443973981411558456', 'uniqueId': 'matuspollo', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fcd98447&amp;x-expires=1758938400&amp;x-signature=wmCOXT1yW%2FVTXR8Ur6yBMjWbrv0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539709597952672532', 'createTime': 1755475460, 'createTimeISO': '2025-08-18T00:04:20.000Z', 'text': '😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7094602157069026306', 'uniqueId': 'yaestat', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/aa1f07d6c8fbd3840dbbfde69dd721df~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bb630991&amp;x-expires=1758942000&amp;x-signature=b0GK9yWYpFfjKjhnZy2a01Dv9DE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -10393,18 +10393,18 @@
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G180" s="2" t="n">
-        <v>45886.4485300926</v>
+        <v>45886.67761574074</v>
       </c>
       <c r="H180" s="3" t="n">
         <v>45886</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>10:45:53</t>
+          <t>16:15:46</t>
         </is>
       </c>
       <c r="J180" t="n">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539503906380972818', 'createTime': 1755427553, 'createTimeISO': '2025-08-17T10:45:53.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6840848165948752901', 'uniqueId': 'daniel176.2', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/c31a3bbcdaca5bfd4c5d83506e710677~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=036188d2&amp;x-expires=1758938400&amp;x-signature=46voU3uSU8iwxmJcZME9IPaz5JA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539588913876058888', 'createTime': 1755447346, 'createTimeISO': '2025-08-17T16:15:46.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7443973981411558456', 'uniqueId': 'matuspollo', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a24e60b4&amp;x-expires=1758942000&amp;x-signature=5KcGkCrPEjW%2FIGsBAA2AX3wgP54%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -10449,18 +10449,18 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr">
         <is>
-          <t>❤️</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G181" s="2" t="n">
-        <v>45889.1499537037</v>
+        <v>45886.4485300926</v>
       </c>
       <c r="H181" s="3" t="n">
-        <v>45889</v>
+        <v>45886</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>03:35:56</t>
+          <t>10:45:53</t>
         </is>
       </c>
       <c r="J181" t="n">
@@ -10479,7 +10479,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540506349266273031', 'createTime': 1755660956, 'createTimeISO': '2025-08-20T03:35:56.000Z', 'text': '❤️', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7411296034767619078', 'uniqueId': 'rricardorodriguez', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/37f6f3b1db2dd726818a43140b0b31e7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ad94f65a&amp;x-expires=1758938400&amp;x-signature=XqMEMLwrYzC5jN2fVFr9cCd5LhE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539503906380972818', 'createTime': 1755427553, 'createTimeISO': '2025-08-17T10:45:53.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6840848165948752901', 'uniqueId': 'daniel176.2', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/c31a3bbcdaca5bfd4c5d83506e710677~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0ff6e473&amp;x-expires=1758942000&amp;x-signature=VmSLHpM7coWVG5A37IW1ULkT9n0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -10505,18 +10505,18 @@
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>❤️</t>
         </is>
       </c>
       <c r="G182" s="2" t="n">
-        <v>45890.04747685185</v>
+        <v>45889.1499537037</v>
       </c>
       <c r="H182" s="3" t="n">
-        <v>45890</v>
+        <v>45889</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>01:08:22</t>
+          <t>03:35:56</t>
         </is>
       </c>
       <c r="J182" t="n">
@@ -10535,7 +10535,7 @@
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540839384574296839', 'createTime': 1755738502, 'createTimeISO': '2025-08-21T01:08:22.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '304451281845174272', 'uniqueId': 'yessicatorres36', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/cc5e4128d7834a0df2106977ef73c4c5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4f6f95f7&amp;x-expires=1758938400&amp;x-signature=D%2Bv3nKcSww%2BZKGYs%2F0wXgq0MesY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540506349266273031', 'createTime': 1755660956, 'createTimeISO': '2025-08-20T03:35:56.000Z', 'text': '❤️', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7411296034767619078', 'uniqueId': 'rricardorodriguez', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/37f6f3b1db2dd726818a43140b0b31e7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e7871b63&amp;x-expires=1758942000&amp;x-signature=P%2FHPdpYPiH50GfYjSCsT0olkZlQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -10565,14 +10565,14 @@
         </is>
       </c>
       <c r="G183" s="2" t="n">
-        <v>45887.50719907408</v>
+        <v>45890.04747685185</v>
       </c>
       <c r="H183" s="3" t="n">
-        <v>45887</v>
+        <v>45890</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>12:10:22</t>
+          <t>01:08:22</t>
         </is>
       </c>
       <c r="J183" t="n">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539896726498755345', 'createTime': 1755519022, 'createTimeISO': '2025-08-18T12:10:22.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6827503441055056901', 'uniqueId': 'danisdiaz17', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/78d0e6fc91d2d3bb6bb2626429403be4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=10420acd&amp;x-expires=1758938400&amp;x-signature=FpdnfLjEy%2FstELVGjaAR0lWpSr8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540839384574296839', 'createTime': 1755738502, 'createTimeISO': '2025-08-21T01:08:22.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '304451281845174272', 'uniqueId': 'yessicatorres36', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/cc5e4128d7834a0df2106977ef73c4c5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ad36b4c1&amp;x-expires=1758942000&amp;x-signature=FGcV1wO7xYTBv%2F1iI4dkvoa23vw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -10621,14 +10621,14 @@
         </is>
       </c>
       <c r="G184" s="2" t="n">
-        <v>45886.90645833333</v>
+        <v>45887.50719907408</v>
       </c>
       <c r="H184" s="3" t="n">
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>21:45:18</t>
+          <t>12:10:22</t>
         </is>
       </c>
       <c r="J184" t="n">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539673784115430162', 'createTime': 1755467118, 'createTimeISO': '2025-08-17T21:45:18.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6542246779201524736', 'uniqueId': 'camilaorjuela5', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0a116aed93f7b28bb6e90869e07353cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f114b0ac&amp;x-expires=1758938400&amp;x-signature=gpx1FChujYOkWGIEho%2FAoz88ytc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539896726498755345', 'createTime': 1755519022, 'createTimeISO': '2025-08-18T12:10:22.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6827503441055056901', 'uniqueId': 'danisdiaz17', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/78d0e6fc91d2d3bb6bb2626429403be4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f482147c&amp;x-expires=1758942000&amp;x-signature=DPzEd3Pag0ntv9HuamoTCTdwpiM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -10677,14 +10677,14 @@
         </is>
       </c>
       <c r="G185" s="2" t="n">
-        <v>45889.62920138889</v>
+        <v>45886.90645833333</v>
       </c>
       <c r="H185" s="3" t="n">
-        <v>45889</v>
+        <v>45886</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>15:06:03</t>
+          <t>21:45:18</t>
         </is>
       </c>
       <c r="J185" t="n">
@@ -10703,7 +10703,7 @@
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540684209254892295', 'createTime': 1755702363, 'createTimeISO': '2025-08-20T15:06:03.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7505995330590065719', 'uniqueId': 'jhonatanvelez82', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/80adaecca0dc0d3a828e495998988857~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=43d724df&amp;x-expires=1758938400&amp;x-signature=N4D%2B589jdTLx6Vbkcwc3bgDGn%2Fc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539673784115430162', 'createTime': 1755467118, 'createTimeISO': '2025-08-17T21:45:18.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6542246779201524736', 'uniqueId': 'camilaorjuela5', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0a116aed93f7b28bb6e90869e07353cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=30e198b6&amp;x-expires=1758942000&amp;x-signature=BEcaieLBu4WDQF4Yt5zmGE%2BinIs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -10733,14 +10733,14 @@
         </is>
       </c>
       <c r="G186" s="2" t="n">
-        <v>45888.17348379629</v>
+        <v>45889.62920138889</v>
       </c>
       <c r="H186" s="3" t="n">
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>04:09:49</t>
+          <t>15:06:03</t>
         </is>
       </c>
       <c r="J186" t="n">
@@ -10759,7 +10759,7 @@
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540143983437349639', 'createTime': 1755576589, 'createTimeISO': '2025-08-19T04:09:49.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7059105296195470342', 'uniqueId': 'angel........d', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/90d6de496fd85a0a392883a720f8bd72~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=25f965fe&amp;x-expires=1758938400&amp;x-signature=yFg8n6JLWd%2FFzZfAK58xAP%2Bb4aI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540684209254892295', 'createTime': 1755702363, 'createTimeISO': '2025-08-20T15:06:03.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7505995330590065719', 'uniqueId': 'jhonatanvelez82', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/80adaecca0dc0d3a828e495998988857~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f92fd638&amp;x-expires=1758942000&amp;x-signature=3xHWKOMFT9V%2FjQNuckr2tWBL5%2Bg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -10785,18 +10785,18 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G187" s="2" t="n">
-        <v>45890.54685185185</v>
+        <v>45888.17348379629</v>
       </c>
       <c r="H187" s="3" t="n">
-        <v>45890</v>
+        <v>45888</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>13:07:28</t>
+          <t>04:09:49</t>
         </is>
       </c>
       <c r="J187" t="n">
@@ -10815,7 +10815,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7541024725431354130', 'createTime': 1755781648, 'createTimeISO': '2025-08-21T13:07:28.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7428798840759337989', 'uniqueId': 'lauratesillo6', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/5bf178f3f9b7518a3184ddae49723a8d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=02849af3&amp;x-expires=1758938400&amp;x-signature=x3BNn3yJr7fLuBCEeXIKlOsM0lg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540143983437349639', 'createTime': 1755576589, 'createTimeISO': '2025-08-19T04:09:49.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7059105296195470342', 'uniqueId': 'angel........d', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/90d6de496fd85a0a392883a720f8bd72~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=41d3e965&amp;x-expires=1758942000&amp;x-signature=hsRkn7HVU1CWQ%2BFMo9S%2FrZcwfks%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -10845,14 +10845,14 @@
         </is>
       </c>
       <c r="G188" s="2" t="n">
-        <v>45888.86575231481</v>
+        <v>45890.54685185185</v>
       </c>
       <c r="H188" s="3" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>20:46:41</t>
+          <t>13:07:28</t>
         </is>
       </c>
       <c r="J188" t="n">
@@ -10871,7 +10871,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540400786758943505', 'createTime': 1755636401, 'createTimeISO': '2025-08-19T20:46:41.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7125594488487166981', 'uniqueId': 'yisleyreyes', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7226707870071259142~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d440b118&amp;x-expires=1758938400&amp;x-signature=pjCzCVAFZZhud133HYXORF7xA24%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7541024725431354130', 'createTime': 1755781648, 'createTimeISO': '2025-08-21T13:07:28.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7428798840759337989', 'uniqueId': 'lauratesillo6', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/5bf178f3f9b7518a3184ddae49723a8d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e2eb9e1a&amp;x-expires=1758942000&amp;x-signature=Z%2FfS7h5gkmVNT5RqR13gnH3nQ8k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -10897,18 +10897,18 @@
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G189" s="2" t="n">
-        <v>45887.52734953703</v>
+        <v>45888.86575231481</v>
       </c>
       <c r="H189" s="3" t="n">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>12:39:23</t>
+          <t>20:46:41</t>
         </is>
       </c>
       <c r="J189" t="n">
@@ -10927,7 +10927,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539904245458453255', 'createTime': 1755520763, 'createTimeISO': '2025-08-18T12:39:23.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6959387818582443014', 'uniqueId': 'pedropenate_99', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8cf8e749b4809282dbda547d4740a8b7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3f6923c2&amp;x-expires=1758938400&amp;x-signature=knJSieRra5BcQUjeVaIuY71rnls%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540400786758943505', 'createTime': 1755636401, 'createTimeISO': '2025-08-19T20:46:41.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7125594488487166981', 'uniqueId': 'yisleyreyes', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7226707870071259142~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d769da4a&amp;x-expires=1758942000&amp;x-signature=tw96TB7SEYX2YcppeIfnNl33ySs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -10953,18 +10953,18 @@
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G190" s="2" t="n">
-        <v>45889.80824074074</v>
+        <v>45887.52734953703</v>
       </c>
       <c r="H190" s="3" t="n">
-        <v>45889</v>
+        <v>45887</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>19:23:52</t>
+          <t>12:39:23</t>
         </is>
       </c>
       <c r="J190" t="n">
@@ -10983,7 +10983,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540750607503524615', 'createTime': 1755717832, 'createTimeISO': '2025-08-20T19:23:52.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7321071513225872389', 'uniqueId': 'astrid.gonzalez.f', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/8ef742bb3e1722d2d6f49c5bbe3f3eaa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=aea656d3&amp;x-expires=1758938400&amp;x-signature=qHFQwP8O4VTfWZ08Ay6lP%2FG%2F52w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539904245458453255', 'createTime': 1755520763, 'createTimeISO': '2025-08-18T12:39:23.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6959387818582443014', 'uniqueId': 'pedropenate_99', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/8cf8e749b4809282dbda547d4740a8b7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6a86a002&amp;x-expires=1758942000&amp;x-signature=UXZV6CibrOnBzHJvwDf%2FcLw9BII%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -11009,18 +11009,18 @@
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G191" s="2" t="n">
-        <v>45888.89447916667</v>
+        <v>45889.80824074074</v>
       </c>
       <c r="H191" s="3" t="n">
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>21:28:03</t>
+          <t>19:23:52</t>
         </is>
       </c>
       <c r="J191" t="n">
@@ -11039,7 +11039,7 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540411541342913298', 'createTime': 1755638883, 'createTimeISO': '2025-08-19T21:28:03.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7449976641416528901', 'uniqueId': 'andres.ramon15', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/328f5cf229e8a5359b99e854dc332c6a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f27f3f93&amp;x-expires=1758938400&amp;x-signature=UbsfqUfX4go2MsDxn30lo%2FXcxOo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540750607503524615', 'createTime': 1755717832, 'createTimeISO': '2025-08-20T19:23:52.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7321071513225872389', 'uniqueId': 'astrid.gonzalez.f', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/8ef742bb3e1722d2d6f49c5bbe3f3eaa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d527c90f&amp;x-expires=1758942000&amp;x-signature=Lh%2FWRB%2Bk4ixEeFcUTgFKfwVDZow%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -11069,14 +11069,14 @@
         </is>
       </c>
       <c r="G192" s="2" t="n">
-        <v>45885.69054398148</v>
+        <v>45888.89447916667</v>
       </c>
       <c r="H192" s="3" t="n">
-        <v>45885</v>
+        <v>45888</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>16:34:23</t>
+          <t>21:28:03</t>
         </is>
       </c>
       <c r="J192" t="n">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539222618333119240', 'createTime': 1755362063, 'createTimeISO': '2025-08-16T16:34:23.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6822037610778969093', 'uniqueId': 'ferchin08', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/e9821fed60438d2f5bd6a661b7c2e06c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fba27ba5&amp;x-expires=1758938400&amp;x-signature=GJ56ZOgOWaXRqCbyMIUZNLnSGZc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540411541342913298', 'createTime': 1755638883, 'createTimeISO': '2025-08-19T21:28:03.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7449976641416528901', 'uniqueId': 'andres.ramon15', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/328f5cf229e8a5359b99e854dc332c6a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ec55f6ba&amp;x-expires=1758942000&amp;x-signature=%2BdpHSsH2hFMX7ROdebqW73gHxFU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -11121,18 +11121,18 @@
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr">
         <is>
-          <t>🤣</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G193" s="2" t="n">
-        <v>45889.10579861111</v>
+        <v>45885.69054398148</v>
       </c>
       <c r="H193" s="3" t="n">
-        <v>45889</v>
+        <v>45885</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>02:32:21</t>
+          <t>16:34:23</t>
         </is>
       </c>
       <c r="J193" t="n">
@@ -11151,7 +11151,7 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540489946156942098', 'createTime': 1755657141, 'createTimeISO': '2025-08-20T02:32:21.000Z', 'text': '🤣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7384198654611211269', 'uniqueId': 'yeferson.barrios11', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7384516279857577990~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d105e0bc&amp;x-expires=1758938400&amp;x-signature=8uBa%2B0Gbdr0rxe%2F5tueXLn0fvN4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539222618333119240', 'createTime': 1755362063, 'createTimeISO': '2025-08-16T16:34:23.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6822037610778969093', 'uniqueId': 'ferchin08', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/e9821fed60438d2f5bd6a661b7c2e06c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4b728bbe&amp;x-expires=1758942000&amp;x-signature=w1Q5xnDBuS6C%2BeF4K1AbB7A4wwg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -11177,18 +11177,18 @@
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr">
         <is>
-          <t>❤️</t>
+          <t>🤣</t>
         </is>
       </c>
       <c r="G194" s="2" t="n">
-        <v>45888.18873842592</v>
+        <v>45889.10579861111</v>
       </c>
       <c r="H194" s="3" t="n">
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>04:31:47</t>
+          <t>02:32:21</t>
         </is>
       </c>
       <c r="J194" t="n">
@@ -11207,7 +11207,7 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540149661614539538', 'createTime': 1755577907, 'createTimeISO': '2025-08-19T04:31:47.000Z', 'text': '❤️', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6949516346933838853', 'uniqueId': 'adrianaluciagav37', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7099497423265464326~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9ad8365e&amp;x-expires=1758938400&amp;x-signature=aMD0WwAR4yF0TcKLe5yczp0TEeE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540489946156942098', 'createTime': 1755657141, 'createTimeISO': '2025-08-20T02:32:21.000Z', 'text': '🤣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7384198654611211269', 'uniqueId': 'yeferson.barrios11', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7384516279857577990~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=049fe39e&amp;x-expires=1758942000&amp;x-signature=xzOJZo4JKsDroJs9FaabGl%2F4EFQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -11233,18 +11233,18 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>❤️</t>
         </is>
       </c>
       <c r="G195" s="2" t="n">
-        <v>45888.14429398148</v>
+        <v>45888.18873842592</v>
       </c>
       <c r="H195" s="3" t="n">
         <v>45888</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>03:27:47</t>
+          <t>04:31:47</t>
         </is>
       </c>
       <c r="J195" t="n">
@@ -11263,7 +11263,7 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540133159800587016', 'createTime': 1755574067, 'createTimeISO': '2025-08-19T03:27:47.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7462556485996086273', 'uniqueId': 'franciscojavierlara7', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ecc663879119cdeb347a9d539aa3df0b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4f1757a3&amp;x-expires=1758938400&amp;x-signature=%2F6z5ZuvzK7BWhiAml6YmHBpINCg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540149661614539538', 'createTime': 1755577907, 'createTimeISO': '2025-08-19T04:31:47.000Z', 'text': '❤️', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6949516346933838853', 'uniqueId': 'adrianaluciagav37', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7099497423265464326~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0a00130d&amp;x-expires=1758942000&amp;x-signature=eio2kNaK71UlpwSP2sTpcSkRAkg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -11289,18 +11289,18 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr">
         <is>
-          <t>🥺</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G196" s="2" t="n">
-        <v>45890.25767361111</v>
+        <v>45888.14429398148</v>
       </c>
       <c r="H196" s="3" t="n">
-        <v>45890</v>
+        <v>45888</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>06:11:03</t>
+          <t>03:27:47</t>
         </is>
       </c>
       <c r="J196" t="n">
@@ -11319,7 +11319,7 @@
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540917413253104401', 'createTime': 1755756663, 'createTimeISO': '2025-08-21T06:11:03.000Z', 'text': '🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6864684397141132290', 'uniqueId': 'mbejyer', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/11b5b05e09c99dec66bd8555df7f71bd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=79dd37ae&amp;x-expires=1758938400&amp;x-signature=joZev6xjaCZJwjihTeTYR4uGjPk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540133159800587016', 'createTime': 1755574067, 'createTimeISO': '2025-08-19T03:27:47.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7462556485996086273', 'uniqueId': 'franciscojavierlara7', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ecc663879119cdeb347a9d539aa3df0b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=00c5f418&amp;x-expires=1758942000&amp;x-signature=EEtarYYtvFEdMact%2Bfc35HrWWiU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -11345,18 +11345,18 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr">
         <is>
-          <t>😳</t>
+          <t>🥺</t>
         </is>
       </c>
       <c r="G197" s="2" t="n">
-        <v>45887.97618055555</v>
+        <v>45890.25767361111</v>
       </c>
       <c r="H197" s="3" t="n">
-        <v>45887</v>
+        <v>45890</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>23:25:42</t>
+          <t>06:11:03</t>
         </is>
       </c>
       <c r="J197" t="n">
@@ -11375,7 +11375,7 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540070722829763336', 'createTime': 1755559542, 'createTimeISO': '2025-08-18T23:25:42.000Z', 'text': '😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7464833836623922177', 'uniqueId': 'manuel.antonio.ca8573', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/26d4ac20aeb122290de9026ec5b2aabe~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0cae8ad4&amp;x-expires=1758938400&amp;x-signature=6tcE%2B4xJmCLHrYxE%2Bur3nd%2FzlcQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540917413253104401', 'createTime': 1755756663, 'createTimeISO': '2025-08-21T06:11:03.000Z', 'text': '🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6864684397141132290', 'uniqueId': 'mbejyer', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/11b5b05e09c99dec66bd8555df7f71bd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=89b4f5c5&amp;x-expires=1758942000&amp;x-signature=Se04YDiwQQ8S7zhCzLlyA2uI9%2F0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -11401,18 +11401,18 @@
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr">
         <is>
-          <t>💃</t>
+          <t>😳</t>
         </is>
       </c>
       <c r="G198" s="2" t="n">
-        <v>45887.80475694445</v>
+        <v>45887.97618055555</v>
       </c>
       <c r="H198" s="3" t="n">
         <v>45887</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>19:18:51</t>
+          <t>23:25:42</t>
         </is>
       </c>
       <c r="J198" t="n">
@@ -11431,7 +11431,7 @@
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540007154934612744', 'createTime': 1755544731, 'createTimeISO': '2025-08-18T19:18:51.000Z', 'text': '💃', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7501329426253300754', 'uniqueId': 'sofi_oliveros07', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/67d4d228d4776b94da236439750262d2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7ab0841b&amp;x-expires=1758938400&amp;x-signature=srtwVic6P%2Fb3vTQQAgWyjW9uPLk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540070722829763336', 'createTime': 1755559542, 'createTimeISO': '2025-08-18T23:25:42.000Z', 'text': '😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7464833836623922177', 'uniqueId': 'manuel.antonio.ca8573', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/26d4ac20aeb122290de9026ec5b2aabe~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=365d5bfb&amp;x-expires=1758942000&amp;x-signature=v6uwbVJbZ2mE7Tbug8xC7eYpzg0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -11457,18 +11457,18 @@
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>💃</t>
         </is>
       </c>
       <c r="G199" s="2" t="n">
-        <v>45886.60141203704</v>
+        <v>45887.80475694445</v>
       </c>
       <c r="H199" s="3" t="n">
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>14:26:02</t>
+          <t>19:18:51</t>
         </is>
       </c>
       <c r="J199" t="n">
@@ -11487,7 +11487,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539560639568986881', 'createTime': 1755440762, 'createTimeISO': '2025-08-17T14:26:02.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7442877478961464376', 'uniqueId': 'fran.ordonez', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d6b921f7deffbd436f124298379dc5a2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=17fe257a&amp;x-expires=1758938400&amp;x-signature=Emlneb0Wu6QjpWVkbKD7v8JqQ8k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540007154934612744', 'createTime': 1755544731, 'createTimeISO': '2025-08-18T19:18:51.000Z', 'text': '💃', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7501329426253300754', 'uniqueId': 'sofi_oliveros07', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/67d4d228d4776b94da236439750262d2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a8a0ebb4&amp;x-expires=1758942000&amp;x-signature=sbkLOUZplDnf3kgPPIL6AclgvuU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -11513,18 +11513,18 @@
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr">
         <is>
-          <t>🙄</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G200" s="2" t="n">
-        <v>45887.769375</v>
+        <v>45886.60141203704</v>
       </c>
       <c r="H200" s="3" t="n">
-        <v>45887</v>
+        <v>45886</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>18:27:54</t>
+          <t>14:26:02</t>
         </is>
       </c>
       <c r="J200" t="n">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539994043603747592', 'createTime': 1755541674, 'createTimeISO': '2025-08-18T18:27:54.000Z', 'text': '🙄', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6914829108656702470', 'uniqueId': 'miltonhorta24', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/e5f06095a0d1c85849e746ba5b4b5d53~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=39808e2b&amp;x-expires=1758938400&amp;x-signature=llwC4ECujG75ItRSNejj1REcc78%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539560639568986881', 'createTime': 1755440762, 'createTimeISO': '2025-08-17T14:26:02.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7442877478961464376', 'uniqueId': 'fran.ordonez', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d6b921f7deffbd436f124298379dc5a2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=912f7319&amp;x-expires=1758942000&amp;x-signature=6ugHByc7x2jBdpvNeqNnYMhn0ZE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -11569,18 +11569,18 @@
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>🙄</t>
         </is>
       </c>
       <c r="G201" s="2" t="n">
-        <v>45889.05640046296</v>
+        <v>45887.769375</v>
       </c>
       <c r="H201" s="3" t="n">
-        <v>45889</v>
+        <v>45887</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>01:21:13</t>
+          <t>18:27:54</t>
         </is>
       </c>
       <c r="J201" t="n">
@@ -11599,7 +11599,7 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540471599352120071', 'createTime': 1755652873, 'createTimeISO': '2025-08-20T01:21:13.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6807476204725486597', 'uniqueId': 'riveraredondoluis', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/908ea9e78d03684b56e30971e419837f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a4a2424e&amp;x-expires=1758938400&amp;x-signature=7%2BbeT%2FcNrajd725RnGK%2F%2BFdzk5o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539994043603747592', 'createTime': 1755541674, 'createTimeISO': '2025-08-18T18:27:54.000Z', 'text': '🙄', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6914829108656702470', 'uniqueId': 'miltonhorta24', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/e5f06095a0d1c85849e746ba5b4b5d53~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b9ebf6ee&amp;x-expires=1758942000&amp;x-signature=NI4kuRZU8tBhS6rkis1aXs4asyI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -11625,18 +11625,18 @@
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G202" s="2" t="n">
-        <v>45890.21311342593</v>
+        <v>45889.05640046296</v>
       </c>
       <c r="H202" s="3" t="n">
-        <v>45890</v>
+        <v>45889</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>05:06:53</t>
+          <t>01:21:13</t>
         </is>
       </c>
       <c r="J202" t="n">
@@ -11655,7 +11655,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540900886189671188', 'createTime': 1755752813, 'createTimeISO': '2025-08-21T05:06:53.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7527796355122856961', 'uniqueId': 'anderson.narvaez09', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d0bd9066221e471bf431e59153815017~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f87cadae&amp;x-expires=1758938400&amp;x-signature=piD8RhC3yoJ8A6MY1W1CSal2h6c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540471599352120071', 'createTime': 1755652873, 'createTimeISO': '2025-08-20T01:21:13.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6807476204725486597', 'uniqueId': 'riveraredondoluis', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/908ea9e78d03684b56e30971e419837f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4c2919b7&amp;x-expires=1758942000&amp;x-signature=Olmshv8y4EMTPDN9kT20bQOpYjI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -11685,14 +11685,14 @@
         </is>
       </c>
       <c r="G203" s="2" t="n">
-        <v>45889.34142361111</v>
+        <v>45890.21311342593</v>
       </c>
       <c r="H203" s="3" t="n">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>08:11:39</t>
+          <t>05:06:53</t>
         </is>
       </c>
       <c r="J203" t="n">
@@ -11711,7 +11711,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540577406865179412', 'createTime': 1755677499, 'createTimeISO': '2025-08-20T08:11:39.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6950673135016756229', 'uniqueId': 'estebansanchez2211', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a4f34cbaf7035c5465f7fd7b614381cb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=35d8a83c&amp;x-expires=1758938400&amp;x-signature=5wc9tghdwaKxKH6fWeRw82d%2FmdI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540900886189671188', 'createTime': 1755752813, 'createTimeISO': '2025-08-21T05:06:53.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7527796355122856961', 'uniqueId': 'anderson.narvaez09', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d0bd9066221e471bf431e59153815017~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=66a5d3fc&amp;x-expires=1758942000&amp;x-signature=Q5xO4kBtTfGV%2Fp4JwcE2s9icgTA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -11737,18 +11737,18 @@
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G204" s="2" t="n">
-        <v>45887.03983796296</v>
+        <v>45889.34142361111</v>
       </c>
       <c r="H204" s="3" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>00:57:22</t>
+          <t>08:11:39</t>
         </is>
       </c>
       <c r="J204" t="n">
@@ -11767,7 +11767,7 @@
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539723308112151303', 'createTime': 1755478642, 'createTimeISO': '2025-08-18T00:57:22.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6948263560568947718', 'uniqueId': 'isa__garcia133', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/47689ad4a528d3b98b817bb9a64125c8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6e534021&amp;x-expires=1758938400&amp;x-signature=jPDwHKpUDyAVZskzHKyVH1P0KjM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540577406865179412', 'createTime': 1755677499, 'createTimeISO': '2025-08-20T08:11:39.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6950673135016756229', 'uniqueId': 'estebansanchez2211', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/a4f34cbaf7035c5465f7fd7b614381cb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7c7e78e1&amp;x-expires=1758942000&amp;x-signature=GRbwrIOg35dtE5mPTQBWGtsbi54%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -11793,18 +11793,18 @@
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G205" s="2" t="n">
-        <v>45887.00627314814</v>
+        <v>45887.03983796296</v>
       </c>
       <c r="H205" s="3" t="n">
         <v>45887</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>00:09:02</t>
+          <t>00:57:22</t>
         </is>
       </c>
       <c r="J205" t="n">
@@ -11823,7 +11823,7 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539710764279907088', 'createTime': 1755475742, 'createTimeISO': '2025-08-18T00:09:02.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7124398972769534981', 'uniqueId': 'jeimarquiroga807', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/3aaebcd53d4c1468b06ccbf6a482e20a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c39aeaf1&amp;x-expires=1758938400&amp;x-signature=r7UCqn1LPN3yoVgjOzYePGNG3NU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539723308112151303', 'createTime': 1755478642, 'createTimeISO': '2025-08-18T00:57:22.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6948263560568947718', 'uniqueId': 'isa__garcia133', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/47689ad4a528d3b98b817bb9a64125c8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b27ac7a8&amp;x-expires=1758942000&amp;x-signature=u7gSZqJNe0vPHH6D057eHkSRaNw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -11849,18 +11849,18 @@
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr">
         <is>
-          <t>😊</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G206" s="2" t="n">
-        <v>45888.91675925926</v>
+        <v>45887.00627314814</v>
       </c>
       <c r="H206" s="3" t="n">
-        <v>45888</v>
+        <v>45887</v>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>22:00:08</t>
+          <t>00:09:02</t>
         </is>
       </c>
       <c r="J206" t="n">
@@ -11879,7 +11879,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540419756064178960', 'createTime': 1755640808, 'createTimeISO': '2025-08-19T22:00:08.000Z', 'text': '😊', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6905173600522929157', 'uniqueId': 'sonyeidance', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/20d9c4e56c333071551a186cd80818b1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5621aeef&amp;x-expires=1758938400&amp;x-signature=OUaaPlMI5hTylSnyvULCwm6jpKg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539710764279907088', 'createTime': 1755475742, 'createTimeISO': '2025-08-18T00:09:02.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7124398972769534981', 'uniqueId': 'jeimarquiroga807', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/3aaebcd53d4c1468b06ccbf6a482e20a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1f2166ad&amp;x-expires=1758942000&amp;x-signature=Kkbjelhi3MuIPi%2Fg%2BNnJsGaeKVA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -11905,18 +11905,18 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr">
         <is>
-          <t>❤️</t>
+          <t>😊</t>
         </is>
       </c>
       <c r="G207" s="2" t="n">
-        <v>45889.17467592593</v>
+        <v>45888.91675925926</v>
       </c>
       <c r="H207" s="3" t="n">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>04:11:32</t>
+          <t>22:00:08</t>
         </is>
       </c>
       <c r="J207" t="n">
@@ -11935,7 +11935,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540515527316849426', 'createTime': 1755663092, 'createTimeISO': '2025-08-20T04:11:32.000Z', 'text': '❤️', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7051382141313418246', 'uniqueId': 'juancito24_54', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/18d44521d4c3f9cf4081e88f3cb0a8ce~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cbb36f22&amp;x-expires=1758938400&amp;x-signature=AB8RYNyTvGn%2BdLzmroDCQvkVz8g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540419756064178960', 'createTime': 1755640808, 'createTimeISO': '2025-08-19T22:00:08.000Z', 'text': '😊', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6905173600522929157', 'uniqueId': 'sonyeidance', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/20d9c4e56c333071551a186cd80818b1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=86297d3a&amp;x-expires=1758942000&amp;x-signature=gqxsJ7IPvTs%2B6D4xtFibSJj9%2FwM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -11961,18 +11961,18 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>❤️</t>
         </is>
       </c>
       <c r="G208" s="2" t="n">
-        <v>45885.83246527778</v>
+        <v>45889.17467592593</v>
       </c>
       <c r="H208" s="3" t="n">
-        <v>45885</v>
+        <v>45889</v>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>19:58:45</t>
+          <t>04:11:32</t>
         </is>
       </c>
       <c r="J208" t="n">
@@ -11991,7 +11991,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539275255367107346', 'createTime': 1755374325, 'createTimeISO': '2025-08-16T19:58:45.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7222728977525490693', 'uniqueId': 'eylara460', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c66775516348d73e474c005859427ddf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=71aefecf&amp;x-expires=1758938400&amp;x-signature=4bkKMp47K%2B2tb0wAxwQ1SVsKwVg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540515527316849426', 'createTime': 1755663092, 'createTimeISO': '2025-08-20T04:11:32.000Z', 'text': '❤️', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7051382141313418246', 'uniqueId': 'juancito24_54', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/18d44521d4c3f9cf4081e88f3cb0a8ce~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=938507ab&amp;x-expires=1758942000&amp;x-signature=3YdeCrS977DihzMTh6NWMr3o38s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -12017,18 +12017,18 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr">
         <is>
-          <t>🤩</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G209" s="2" t="n">
-        <v>45890.19092592593</v>
+        <v>45885.83246527778</v>
       </c>
       <c r="H209" s="3" t="n">
-        <v>45890</v>
+        <v>45885</v>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>04:34:56</t>
+          <t>19:58:45</t>
         </is>
       </c>
       <c r="J209" t="n">
@@ -12047,7 +12047,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540892648991752978', 'createTime': 1755750896, 'createTimeISO': '2025-08-21T04:34:56.000Z', 'text': '🤩', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7259092341464548354', 'uniqueId': 'yennirubirochasierra', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/f95e41b6784e792c006b132078ef6753~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=54a50034&amp;x-expires=1758938400&amp;x-signature=v39Z2n014Xc22kGlbUi%2By8TAtp0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539275255367107346', 'createTime': 1755374325, 'createTimeISO': '2025-08-16T19:58:45.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7222728977525490693', 'uniqueId': 'eylara460', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c66775516348d73e474c005859427ddf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e8aaa2b3&amp;x-expires=1758942000&amp;x-signature=UdgbOYRbn6ChULQNpXHNPeBAEsQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -12073,18 +12073,18 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>🤩</t>
         </is>
       </c>
       <c r="G210" s="2" t="n">
-        <v>45890.00579861111</v>
+        <v>45890.19092592593</v>
       </c>
       <c r="H210" s="3" t="n">
         <v>45890</v>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>00:08:21</t>
+          <t>04:34:56</t>
         </is>
       </c>
       <c r="J210" t="n">
@@ -12103,7 +12103,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540823908508517127', 'createTime': 1755734901, 'createTimeISO': '2025-08-21T00:08:21.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6961441560887231490', 'uniqueId': 'sandramarcelaeraz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/c94974d91a32bf3e8bab9147453d7545~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=21c92aae&amp;x-expires=1758938400&amp;x-signature=V63fpagK%2Fg5MOUgwmZf5UDUp2Fc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540892648991752978', 'createTime': 1755750896, 'createTimeISO': '2025-08-21T04:34:56.000Z', 'text': '🤩', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7259092341464548354', 'uniqueId': 'yennirubirochasierra', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/f95e41b6784e792c006b132078ef6753~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ab14efb4&amp;x-expires=1758942000&amp;x-signature=7LnI0vuj6o0hIPo6NRHgCFtXkmA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -12129,18 +12129,18 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr">
         <is>
-          <t>❤️</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G211" s="2" t="n">
-        <v>45885.14583333334</v>
+        <v>45890.00579861111</v>
       </c>
       <c r="H211" s="3" t="n">
-        <v>45885</v>
+        <v>45890</v>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>03:30:00</t>
+          <t>00:08:21</t>
         </is>
       </c>
       <c r="J211" t="n">
@@ -12159,7 +12159,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539020462556349192', 'createTime': 1755315000, 'createTimeISO': '2025-08-16T03:30:00.000Z', 'text': '❤️', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '236404914795724800', 'uniqueId': 'luisvargas105', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/5c82c563b6a6098a8fbe9f56bc50ff0e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8dcdbe50&amp;x-expires=1758938400&amp;x-signature=wC3IGs8FUgxqczOrre5qP8PjAUs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540823908508517127', 'createTime': 1755734901, 'createTimeISO': '2025-08-21T00:08:21.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6961441560887231490', 'uniqueId': 'sandramarcelaeraz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/c94974d91a32bf3e8bab9147453d7545~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ad4057dc&amp;x-expires=1758942000&amp;x-signature=lw4Z%2FVEOvjxMtZIsvq38KazKb0Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -12185,18 +12185,18 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>❤️</t>
         </is>
       </c>
       <c r="G212" s="2" t="n">
-        <v>45885.14674768518</v>
+        <v>45885.14583333334</v>
       </c>
       <c r="H212" s="3" t="n">
         <v>45885</v>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>03:31:19</t>
+          <t>03:30:00</t>
         </is>
       </c>
       <c r="J212" t="n">
@@ -12215,7 +12215,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539020817314251528', 'createTime': 1755315079, 'createTimeISO': '2025-08-16T03:31:19.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7322198442997187590', 'uniqueId': 'mjreyes109', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1a0f1193ca8f43d580f671e4b292648c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=02b6ff59&amp;x-expires=1758938400&amp;x-signature=tQtlGY9UbgduABmcIoRM5rkeYJY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539020462556349192', 'createTime': 1755315000, 'createTimeISO': '2025-08-16T03:30:00.000Z', 'text': '❤️', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '236404914795724800', 'uniqueId': 'luisvargas105', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/5c82c563b6a6098a8fbe9f56bc50ff0e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3e332f28&amp;x-expires=1758942000&amp;x-signature=clmyZUcyHt0dI8qYvkQ80ImSpFE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -12241,18 +12241,18 @@
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G213" s="2" t="n">
-        <v>45889.9447337963</v>
+        <v>45884.45510416666</v>
       </c>
       <c r="H213" s="3" t="n">
-        <v>45889</v>
+        <v>45884</v>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>22:40:25</t>
+          <t>10:55:21</t>
         </is>
       </c>
       <c r="J213" t="n">
@@ -12271,7 +12271,7 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540801233369613063', 'createTime': 1755729625, 'createTimeISO': '2025-08-20T22:40:25.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7286260067706733574', 'uniqueId': 'enith.monroy', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7286261258356817925~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f7dee51c&amp;x-expires=1758938400&amp;x-signature=%2BUVhzmaduQRJWSC8%2Fuz0QcxmV10%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7538764161229964050', 'createTime': 1755255321, 'createTimeISO': '2025-08-15T10:55:21.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7285769005461373958', 'uniqueId': 'erhikhita.erazo', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9a097f5c736d1864291902cdf603b31b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=13108ffa&amp;x-expires=1758942000&amp;x-signature=7lAgRce0QJ%2FIYJwo%2FONmvbq1al0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -12297,18 +12297,18 @@
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>😅😅😅</t>
         </is>
       </c>
       <c r="G214" s="2" t="n">
-        <v>45889.94476851852</v>
+        <v>45887.05059027778</v>
       </c>
       <c r="H214" s="3" t="n">
-        <v>45889</v>
+        <v>45887</v>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>22:40:28</t>
+          <t>01:12:51</t>
         </is>
       </c>
       <c r="J214" t="n">
@@ -12327,7 +12327,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540801275437695751', 'createTime': 1755729628, 'createTimeISO': '2025-08-20T22:40:28.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7286260067706733574', 'uniqueId': 'enith.monroy', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7286261258356817925~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f7dee51c&amp;x-expires=1758938400&amp;x-signature=%2BUVhzmaduQRJWSC8%2Fuz0QcxmV10%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539727286749954834', 'createTime': 1755479571, 'createTimeISO': '2025-08-18T01:12:51.000Z', 'text': '😅😅😅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7043507634477548549', 'uniqueId': 'santiago_do12', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/06028b0da843d231dcfd734e6f1dc8bd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b28da440&amp;x-expires=1758942000&amp;x-signature=PDFX35Ms4%2F6zPPQcXvRWbV5VbuI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -12353,18 +12353,18 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>😈</t>
         </is>
       </c>
       <c r="G215" s="2" t="n">
-        <v>45890.04575231481</v>
+        <v>45884.09626157407</v>
       </c>
       <c r="H215" s="3" t="n">
-        <v>45890</v>
+        <v>45884</v>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>01:05:53</t>
+          <t>02:18:37</t>
         </is>
       </c>
       <c r="J215" t="n">
@@ -12383,7 +12383,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540838754111144722', 'createTime': 1755738353, 'createTimeISO': '2025-08-21T01:05:53.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7054971371117396997', 'uniqueId': 'rosapont710', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/90483cbe58630a337ba91d42ae9e77ff~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=456612a1&amp;x-expires=1758938400&amp;x-signature=Sq8KQJo81x%2BgP22UZJW2G8UnZ%2FM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7538630998813786901', 'createTime': 1755224317, 'createTimeISO': '2025-08-15T02:18:37.000Z', 'text': '😈', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7301104745016067078', 'uniqueId': 'stivenmyers4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/591e5f0cf06aa25844fe007fb187dc23~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=de718aff&amp;x-expires=1758942000&amp;x-signature=qu0bwGjxs1YmHuVH4eOwbFM97hg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -12409,18 +12409,18 @@
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>👍</t>
         </is>
       </c>
       <c r="G216" s="2" t="n">
-        <v>45889.08465277778</v>
+        <v>45886.91462962963</v>
       </c>
       <c r="H216" s="3" t="n">
-        <v>45889</v>
+        <v>45886</v>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>02:01:54</t>
+          <t>21:57:04</t>
         </is>
       </c>
       <c r="J216" t="n">
@@ -12439,7 +12439,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540482120058782472', 'createTime': 1755655314, 'createTimeISO': '2025-08-20T02:01:54.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7256957993198044166', 'uniqueId': 'francy.prez', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7267739165744709638~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d18b1cb3&amp;x-expires=1758938400&amp;x-signature=VHEPKFMLLbFwKtfTcCpdRneqMr4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539676831193219847', 'createTime': 1755467824, 'createTimeISO': '2025-08-17T21:57:04.000Z', 'text': '👍', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7289489112187307013', 'uniqueId': 'nicolas_cocina', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ae91181f46980f52103d09d542d5bd87~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5368eed7&amp;x-expires=1758942000&amp;x-signature=TUQ%2F5Du%2BuQTpHcT35IHqAh5E2GQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -12465,18 +12465,18 @@
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr">
         <is>
-          <t>🥺</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G217" s="2" t="n">
-        <v>45890.56021990741</v>
+        <v>45886.79961805556</v>
       </c>
       <c r="H217" s="3" t="n">
-        <v>45890</v>
+        <v>45886</v>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>13:26:43</t>
+          <t>19:11:27</t>
         </is>
       </c>
       <c r="J217" t="n">
@@ -12495,7 +12495,7 @@
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7541029690019398418', 'createTime': 1755782803, 'createTimeISO': '2025-08-21T13:26:43.000Z', 'text': '🥺', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157409413132289030', 'uniqueId': 'willinton_trucks0799', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/5371a774cef1be45f1c4956d6281cf19~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9c9ed24c&amp;x-expires=1758938400&amp;x-signature=pc3KHO6QQDoHIq%2FQnKxf1dxuid8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539634176317391634', 'createTime': 1755457887, 'createTimeISO': '2025-08-17T19:11:27.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6996638766123828230', 'uniqueId': 'fraybartibrand', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7076785158434586629~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b4f1663d&amp;x-expires=1758942000&amp;x-signature=wOXxkswpX8wxi2tsRSj0jaJyRfE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -12521,18 +12521,18 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr">
         <is>
-          <t>🙏</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G218" s="2" t="n">
-        <v>45889.13827546296</v>
+        <v>45884.61888888889</v>
       </c>
       <c r="H218" s="3" t="n">
-        <v>45889</v>
+        <v>45884</v>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>03:19:07</t>
+          <t>14:51:12</t>
         </is>
       </c>
       <c r="J218" t="n">
@@ -12551,7 +12551,7 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540502013450126098', 'createTime': 1755659947, 'createTimeISO': '2025-08-20T03:19:07.000Z', 'text': '🙏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7109881944818058245', 'uniqueId': 'juanfelipearbol83', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7109913129219440645~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a7bf387e&amp;x-expires=1758938400&amp;x-signature=x12uWxZ%2BBN78XsHq9ae%2F4Ug7I1U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7538824957413933831', 'createTime': 1755269472, 'createTimeISO': '2025-08-15T14:51:12.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6963301847042278406', 'uniqueId': 'sebastian_m45', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/5dc0293902f3a9f62807763e1695e729~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d3562fb0&amp;x-expires=1758942000&amp;x-signature=nkrDhG3HKavuz4s3n9ChyNI3Z%2FI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -12577,18 +12577,18 @@
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>😳</t>
         </is>
       </c>
       <c r="G219" s="2" t="n">
-        <v>45888.91</v>
+        <v>45885.11446759259</v>
       </c>
       <c r="H219" s="3" t="n">
-        <v>45888</v>
+        <v>45885</v>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>21:50:24</t>
+          <t>02:44:50</t>
         </is>
       </c>
       <c r="J219" t="n">
@@ -12607,7 +12607,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540417288822915841', 'createTime': 1755640224, 'createTimeISO': '2025-08-19T21:50:24.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7400253792455099397', 'uniqueId': 'fermestre77', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/718a4ab85f098df3d35eecfb4dc508a4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a33af5e2&amp;x-expires=1758938400&amp;x-signature=AqNQ02IpLY70EdYgkGfPM5RbTSU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539008834351350549', 'createTime': 1755312290, 'createTimeISO': '2025-08-16T02:44:50.000Z', 'text': '😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7071166609285219334', 'uniqueId': 'morenoromerosniw', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/9bd9c84abae9acec0f4b537002abb9d9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f486a1d9&amp;x-expires=1758942000&amp;x-signature=LjZ35U5FDl7Um6HocIJ99YPPSAc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -12633,18 +12633,18 @@
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>✨</t>
         </is>
       </c>
       <c r="G220" s="2" t="n">
-        <v>45889.14512731481</v>
+        <v>45886.97526620371</v>
       </c>
       <c r="H220" s="3" t="n">
-        <v>45889</v>
+        <v>45886</v>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>03:28:59</t>
+          <t>23:24:23</t>
         </is>
       </c>
       <c r="J220" t="n">
@@ -12663,7 +12663,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540504553550430994', 'createTime': 1755660539, 'createTimeISO': '2025-08-20T03:28:59.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6964185503608374274', 'uniqueId': 'carlos_ran25', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7324125835345002498~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a0d91a3a&amp;x-expires=1758938400&amp;x-signature=v0LCWcEbUZKarC5hfzTIfAmMpOQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539699328786367250', 'createTime': 1755473063, 'createTimeISO': '2025-08-17T23:24:23.000Z', 'text': '✨', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7391256675016049669', 'uniqueId': 'jessvate', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/663ae8c94e87f36057490eaa5a7ddd7b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=65cd4818&amp;x-expires=1758942000&amp;x-signature=zkCX4JFR1oMj2x5W7zmfmwg1DP4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -12689,18 +12689,18 @@
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr">
         <is>
-          <t>😻</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G221" s="2" t="n">
-        <v>45888.87974537037</v>
+        <v>45890.50378472222</v>
       </c>
       <c r="H221" s="3" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>21:06:50</t>
+          <t>12:05:27</t>
         </is>
       </c>
       <c r="J221" t="n">
@@ -12719,7 +12719,7 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540406050194817810', 'createTime': 1755637610, 'createTimeISO': '2025-08-19T21:06:50.000Z', 'text': '😻', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7106139619116680197', 'uniqueId': 'yo_soy_luisa_', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/61a081bfed3c783d859052d4cb91d918~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2c55f364&amp;x-expires=1758938400&amp;x-signature=GQMCnC4%2FG%2BtgaxeSm8g1%2FGxFZb0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7541008747020829458', 'createTime': 1755777927, 'createTimeISO': '2025-08-21T12:05:27.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6879754432307151878', 'uniqueId': 'tatianaalmeidagarcia', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/a7dd2ef676d104acab8eff6a540064e6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9531a213&amp;x-expires=1758942000&amp;x-signature=LRWE3Xg%2F8g2ujwhXyBVxewenNQg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -12745,18 +12745,18 @@
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr">
         <is>
-          <t>😉</t>
+          <t>🥰</t>
         </is>
       </c>
       <c r="G222" s="2" t="n">
-        <v>45886.70396990741</v>
+        <v>45890.04575231481</v>
       </c>
       <c r="H222" s="3" t="n">
-        <v>45886</v>
+        <v>45890</v>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>16:53:43</t>
+          <t>01:05:53</t>
         </is>
       </c>
       <c r="J222" t="n">
@@ -12775,7 +12775,7 @@
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539598688227738375', 'createTime': 1755449623, 'createTimeISO': '2025-08-17T16:53:43.000Z', 'text': '😉', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7236135117348914181', 'uniqueId': 'lay.campo', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/626e7edd7de664edc5c0133420fcf502~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=70e7dee3&amp;x-expires=1758938400&amp;x-signature=tGeFGF4xp%2FoODVVU8YluK2Ausls%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540838754111144722', 'createTime': 1755738353, 'createTimeISO': '2025-08-21T01:05:53.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7054971371117396997', 'uniqueId': 'rosapont710', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/90483cbe58630a337ba91d42ae9e77ff~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b1dba953&amp;x-expires=1758942000&amp;x-signature=oKhCUjNsIwRZoiVz8prjV%2BEuMZE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -12801,18 +12801,18 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr">
         <is>
-          <t>❤️</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G223" s="2" t="n">
-        <v>45889.94481481481</v>
+        <v>45889.94476851852</v>
       </c>
       <c r="H223" s="3" t="n">
         <v>45889</v>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>22:40:32</t>
+          <t>22:40:28</t>
         </is>
       </c>
       <c r="J223" t="n">
@@ -12831,7 +12831,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540801261681361682', 'createTime': 1755729632, 'createTimeISO': '2025-08-20T22:40:32.000Z', 'text': '❤️', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7286260067706733574', 'uniqueId': 'enith.monroy', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7286261258356817925~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f7dee51c&amp;x-expires=1758938400&amp;x-signature=%2BUVhzmaduQRJWSC8%2Fuz0QcxmV10%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540801275437695751', 'createTime': 1755729628, 'createTimeISO': '2025-08-20T22:40:28.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7286260067706733574', 'uniqueId': 'enith.monroy', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7286261258356817925~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=109bd3d5&amp;x-expires=1758942000&amp;x-signature=bHtBSuoXga%2FsaqRhDpvoy0DvFhY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -12857,18 +12857,18 @@
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>❤️</t>
         </is>
       </c>
       <c r="G224" s="2" t="n">
-        <v>45888.50596064814</v>
+        <v>45889.94481481481</v>
       </c>
       <c r="H224" s="3" t="n">
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>12:08:35</t>
+          <t>22:40:32</t>
         </is>
       </c>
       <c r="J224" t="n">
@@ -12887,7 +12887,7 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540267388727788296', 'createTime': 1755605315, 'createTimeISO': '2025-08-19T12:08:35.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7025297329734648838', 'uniqueId': 'mariorodriguez9327', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7325584531318210565~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=95f3420e&amp;x-expires=1758938400&amp;x-signature=ly3lLQY9HyFbbhnt3%2F2jKZHCWGE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540801261681361682', 'createTime': 1755729632, 'createTimeISO': '2025-08-20T22:40:32.000Z', 'text': '❤️', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7286260067706733574', 'uniqueId': 'enith.monroy', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7286261258356817925~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=109bd3d5&amp;x-expires=1758942000&amp;x-signature=bHtBSuoXga%2FsaqRhDpvoy0DvFhY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -12913,18 +12913,18 @@
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>🙏</t>
         </is>
       </c>
       <c r="G225" s="2" t="n">
-        <v>45888.22907407407</v>
+        <v>45889.13827546296</v>
       </c>
       <c r="H225" s="3" t="n">
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>05:29:52</t>
+          <t>03:19:07</t>
         </is>
       </c>
       <c r="J225" t="n">
@@ -12943,7 +12943,7 @@
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540164630963929874', 'createTime': 1755581392, 'createTimeISO': '2025-08-19T05:29:52.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7203533191621444614', 'uniqueId': 'juliansanabria75', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/13a840cc68fd9073c82ef9b0544f31b2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8462877f&amp;x-expires=1758938400&amp;x-signature=L8Eyr6Rv0GC0YMISi1wHZ0JGPOw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540502013450126098', 'createTime': 1755659947, 'createTimeISO': '2025-08-20T03:19:07.000Z', 'text': '🙏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7109881944818058245', 'uniqueId': 'juanfelipearbol83', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7109913129219440645~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0c0656c9&amp;x-expires=1758942000&amp;x-signature=UOxJG0Bl%2BsaVdrlR76F%2Bno6xAUI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -12969,18 +12969,18 @@
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr">
         <is>
-          <t>🤣</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G226" s="2" t="n">
-        <v>45888.18875</v>
+        <v>45885.14674768518</v>
       </c>
       <c r="H226" s="3" t="n">
-        <v>45888</v>
+        <v>45885</v>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>04:31:48</t>
+          <t>03:31:19</t>
         </is>
       </c>
       <c r="J226" t="n">
@@ -12999,7 +12999,7 @@
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540149644981895944', 'createTime': 1755577908, 'createTimeISO': '2025-08-19T04:31:48.000Z', 'text': '🤣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6949516346933838853', 'uniqueId': 'adrianaluciagav37', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7099497423265464326~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9ad8365e&amp;x-expires=1758938400&amp;x-signature=aMD0WwAR4yF0TcKLe5yczp0TEeE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539020817314251528', 'createTime': 1755315079, 'createTimeISO': '2025-08-16T03:31:19.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7322198442997187590', 'uniqueId': 'mjreyes109', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1a0f1193ca8f43d580f671e4b292648c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3823af91&amp;x-expires=1758942000&amp;x-signature=3VLVB6R%2FatrnuJ5SYvBd6Nem%2F%2FQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13025,18 +13025,18 @@
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr">
         <is>
-          <t>🥰</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G227" s="2" t="n">
-        <v>45886.79961805556</v>
+        <v>45889.73907407407</v>
       </c>
       <c r="H227" s="3" t="n">
-        <v>45886</v>
+        <v>45889</v>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>19:11:27</t>
+          <t>17:44:16</t>
         </is>
       </c>
       <c r="J227" t="n">
@@ -13055,7 +13055,7 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539634176317391634', 'createTime': 1755457887, 'createTimeISO': '2025-08-17T19:11:27.000Z', 'text': '🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6996638766123828230', 'uniqueId': 'fraybartibrand', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7076785158434586629~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=799de7cd&amp;x-expires=1758938400&amp;x-signature=gBA07v7KloUddMMvs%2FiGxqEYbmw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540724964494099207', 'createTime': 1755711856, 'createTimeISO': '2025-08-20T17:44:16.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7038036384373195782', 'uniqueId': 'lina.garzon.quint', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/0d5235ac8b8cc603b8f1b6f3d8e797b2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9798158e&amp;x-expires=1758942000&amp;x-signature=6IdqjJ9k4cREZTjQ%2FhWMwIlH51k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13081,18 +13081,18 @@
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>😳</t>
         </is>
       </c>
       <c r="G228" s="2" t="n">
-        <v>45888.18349537037</v>
+        <v>45889.64324074074</v>
       </c>
       <c r="H228" s="3" t="n">
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>04:24:14</t>
+          <t>15:26:16</t>
         </is>
       </c>
       <c r="J228" t="n">
@@ -13111,7 +13111,7 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540147723329766151', 'createTime': 1755577454, 'createTimeISO': '2025-08-19T04:24:14.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6899269729643496454', 'uniqueId': 'feliipeospiina0', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/5574445f97ef1dfb584edc11e8d498fd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c5097ce4&amp;x-expires=1758938400&amp;x-signature=pL3vWU3M6DHTdZ1hzJ4PwLhDkTI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540689402387186452', 'createTime': 1755703576, 'createTimeISO': '2025-08-20T15:26:16.000Z', 'text': '😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7185219074140423173', 'uniqueId': 'abrahammoises19', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7185226299534180357~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bb74d368&amp;x-expires=1758942000&amp;x-signature=KBofeMIapvNnIm%2Bxh3k4qXLtO1Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13137,18 +13137,18 @@
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr">
         <is>
-          <t>👏</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G229" s="2" t="n">
-        <v>45889.16828703704</v>
+        <v>45888.92388888889</v>
       </c>
       <c r="H229" s="3" t="n">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>04:02:20</t>
+          <t>22:10:24</t>
         </is>
       </c>
       <c r="J229" t="n">
@@ -13167,7 +13167,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540513147347682056', 'createTime': 1755662540, 'createTimeISO': '2025-08-20T04:02:20.000Z', 'text': '👏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6976078707031081989', 'uniqueId': 'reinelfernandezpa', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/74ea6845268df540a4fec28b9ba19da0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=93d405bc&amp;x-expires=1758938400&amp;x-signature=xbp1D0ufOw6%2BlzbF8Z2NDhnR1FY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540422462119494408', 'createTime': 1755641424, 'createTimeISO': '2025-08-19T22:10:24.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7026900429221577733', 'uniqueId': 'jhorgen2000', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/11843906562827e4fd09920c4a86254f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=45f7b942&amp;x-expires=1758942000&amp;x-signature=fgNpebvOL7gsCU3GBInW%2BYTJoGM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13197,14 +13197,14 @@
         </is>
       </c>
       <c r="G230" s="2" t="n">
-        <v>45888.13480324074</v>
+        <v>45885.20899305555</v>
       </c>
       <c r="H230" s="3" t="n">
-        <v>45888</v>
+        <v>45885</v>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>03:14:07</t>
+          <t>05:00:57</t>
         </is>
       </c>
       <c r="J230" t="n">
@@ -13223,7 +13223,7 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540129639114933000', 'createTime': 1755573247, 'createTimeISO': '2025-08-19T03:14:07.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6673144747203118085', 'uniqueId': 'm_isab.w1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/d3dcd0137b37f4736af0e66fb0f6a97c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=84455274&amp;x-expires=1758938400&amp;x-signature=uWP5qhBHWpCQPhYy0syn1lbg5C4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7539043893977105160', 'createTime': 1755320457, 'createTimeISO': '2025-08-16T05:00:57.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6871086336112968709', 'uniqueId': 'miopionoestaenlasnubes', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/df432e472cadc03ce869c44c15c07dce~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=aab52b9d&amp;x-expires=1758942000&amp;x-signature=clNUtbeZnDX2xMCoUsFF5oNyhzw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13253,14 +13253,14 @@
         </is>
       </c>
       <c r="G231" s="2" t="n">
-        <v>45888.13298611111</v>
+        <v>45889.62533564815</v>
       </c>
       <c r="H231" s="3" t="n">
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>03:11:30</t>
+          <t>15:00:29</t>
         </is>
       </c>
       <c r="J231" t="n">
@@ -13279,7 +13279,7 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540128963109765906', 'createTime': 1755573090, 'createTimeISO': '2025-08-19T03:11:30.000Z', 'text': '🙏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7030939259411612677', 'uniqueId': 'juanmendezvasquez', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/0e8cacb8babd8d2aa35829f60316ff48~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f2736b64&amp;x-expires=1758938400&amp;x-signature=LbsJeW%2FZrKLK1Xy0Xo9zo7%2Bo2s0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540682771796083463', 'createTime': 1755702029, 'createTimeISO': '2025-08-20T15:00:29.000Z', 'text': '🙏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6819448792871732229', 'uniqueId': 'nmy189', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7325407620461232134~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=edb465be&amp;x-expires=1758942000&amp;x-signature=P8ICO5UAI2M9xmU%2FO0fZd1eOlPo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -13305,18 +13305,18 @@
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr">
         <is>
-          <t>🙏</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G232" s="2" t="n">
-        <v>45889.62533564815</v>
+        <v>45887.89550925926</v>
       </c>
       <c r="H232" s="3" t="n">
-        <v>45889</v>
+        <v>45887</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>15:00:29</t>
+          <t>21:29:32</t>
         </is>
       </c>
       <c r="J232" t="n">
@@ -13335,7 +13335,7 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540682771796083463', 'createTime': 1755702029, 'createTimeISO': '2025-08-20T15:00:29.000Z', 'text': '🙏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6819448792871732229', 'uniqueId': 'nmy189', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7325407620461232134~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b87ede11&amp;x-expires=1758938400&amp;x-signature=vTOrl86%2Bw2%2F%2FmxYbinrXB%2FByJ7k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'submittedVideoUrl': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'input': 'https://www.tiktok.com/@Alpinacol/video/7538447862766538001', 'cid': '7540040791252960008', 'createTime': 1755552572, 'createTimeISO': '2025-08-18T21:29:32.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7347017712156066821', 'uniqueId': 'p690511', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7347106004943372293~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fbc4c92a&amp;x-expires=1758942000&amp;x-signature=W%2FpVypSghVLBuRdpnoYcapGW4pk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
